--- a/2021/2021FSAdates.xlsx
+++ b/2021/2021FSAdates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robert.thomas\Dropbox\Competitions\2021\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD931EFE-DCBD-4140-8706-1DA04479C526}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA52095-EA7B-4B07-8563-1728CB0E0B8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12285" yWindow="-16395" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2490,7 +2490,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>20210912</v>
+        <v>20210905</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>26</v>
@@ -2516,16 +2516,16 @@
       <c r="I53" s="1"/>
       <c r="K53" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210912U1720MF</v>
+        <v>20210905U1720MF</v>
       </c>
       <c r="L53" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210912U1720WF</v>
+        <v>20210905U1720WF</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>20210912</v>
+        <v>20210905</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>7</v>
@@ -2551,16 +2551,16 @@
       <c r="I54" s="1"/>
       <c r="K54" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210912OBME</v>
+        <v>20210905OBME</v>
       </c>
       <c r="L54" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210912OBWE</v>
+        <v>20210905OBWE</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>20210912</v>
+        <v>20210905</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>26</v>
@@ -2586,16 +2586,16 @@
       <c r="I55" s="1"/>
       <c r="K55" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210912U1720MS</v>
+        <v>20210905U1720MS</v>
       </c>
       <c r="L55" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210912U1720WS</v>
+        <v>20210905U1720WS</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>20210912</v>
+        <v>20210905</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>7</v>
@@ -2621,16 +2621,16 @@
       <c r="I56" s="1"/>
       <c r="K56" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210912OBMF</v>
+        <v>20210905OBMF</v>
       </c>
       <c r="L56" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210912OBWF</v>
+        <v>20210905OBWF</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>20210912</v>
+        <v>20210905</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>26</v>
@@ -2656,16 +2656,16 @@
       <c r="I57" s="1"/>
       <c r="K57" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210912U1720ME</v>
+        <v>20210905U1720ME</v>
       </c>
       <c r="L57" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210912U1720WE</v>
+        <v>20210905U1720WE</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>20210912</v>
+        <v>20210905</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>7</v>
@@ -2691,11 +2691,11 @@
       <c r="I58" s="1"/>
       <c r="K58" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210912OBMS</v>
+        <v>20210905OBMS</v>
       </c>
       <c r="L58" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210912OBWS</v>
+        <v>20210905OBWS</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">

--- a/2021/2021FSAdates.xlsx
+++ b/2021/2021FSAdates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robert.thomas\Dropbox\Competitions\2021\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA52095-EA7B-4B07-8563-1728CB0E0B8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B207B571-9D5E-4B40-AFB3-FECBAF5C6D62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12285" yWindow="-16395" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16965" yWindow="-16395" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="47">
   <si>
     <t>Date</t>
   </si>
@@ -106,9 +106,6 @@
     <t>U11</t>
   </si>
   <si>
-    <t>FCC</t>
-  </si>
-  <si>
     <t>BK</t>
   </si>
   <si>
@@ -124,18 +121,6 @@
     <t>U1720</t>
   </si>
   <si>
-    <t>U14T</t>
-  </si>
-  <si>
-    <t>U12</t>
-  </si>
-  <si>
-    <t>U14</t>
-  </si>
-  <si>
-    <t>U10</t>
-  </si>
-  <si>
     <t>10:00</t>
   </si>
   <si>
@@ -157,9 +142,6 @@
     <t>13:00</t>
   </si>
   <si>
-    <t>09:00</t>
-  </si>
-  <si>
     <t>09:45</t>
   </si>
   <si>
@@ -193,10 +175,13 @@
     <t>09:30</t>
   </si>
   <si>
-    <t>08:30</t>
-  </si>
-  <si>
     <t>10:30</t>
+  </si>
+  <si>
+    <t>U17</t>
+  </si>
+  <si>
+    <t>SASchools</t>
   </si>
 </sst>
 </file>
@@ -312,12 +297,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I93" tableType="xml" totalsRowShown="0" connectionId="2">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I93">
-    <sortCondition ref="A2:A93"/>
-    <sortCondition ref="F2:F93"/>
-    <sortCondition ref="B2:B93"/>
-    <sortCondition ref="C2:C93"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I92" tableType="xml" totalsRowShown="0" connectionId="2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I92">
+    <sortCondition ref="A8:A92"/>
+    <sortCondition ref="F8:F92"/>
+    <sortCondition ref="B8:B92"/>
+    <sortCondition ref="C8:C92"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="Date" name="Date">
@@ -649,7 +634,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L93"/>
+  <dimension ref="A1:L92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -705,10 +690,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>20210314</v>
+        <v>20210228</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>12</v>
@@ -720,10 +705,10 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>19</v>
@@ -731,22 +716,22 @@
       <c r="I2" s="3"/>
       <c r="K2" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210314U13BE</v>
+        <v>20210228OME</v>
       </c>
       <c r="L2" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210314U13GE</v>
+        <v>20210228OWE</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>20210314</v>
+        <v>20210228</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -758,7 +743,7 @@
         <v>31</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>19</v>
@@ -766,19 +751,19 @@
       <c r="I3" s="3"/>
       <c r="K3" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210314U15MF</v>
+        <v>20210228OMS</v>
       </c>
       <c r="L3" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210314U15WF</v>
+        <v>20210228OWS</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>20210314</v>
+        <v>20210228</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
@@ -790,10 +775,10 @@
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>19</v>
@@ -801,22 +786,22 @@
       <c r="I4" s="3"/>
       <c r="K4" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210314U11BF</v>
+        <v>20210228VMF</v>
       </c>
       <c r="L4" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210314U11GF</v>
+        <v>20210228VWF</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>20210314</v>
+        <v>20210228</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -825,10 +810,10 @@
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>19</v>
@@ -836,22 +821,22 @@
       <c r="I5" s="3"/>
       <c r="K5" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210314U11BE</v>
+        <v>20210228OMF</v>
       </c>
       <c r="L5" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210314U11GE</v>
+        <v>20210228OWF</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>20210314</v>
+        <v>20210228</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -860,10 +845,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>19</v>
@@ -871,22 +856,22 @@
       <c r="I6" s="3"/>
       <c r="K6" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210314U13BF</v>
+        <v>20210228VME</v>
       </c>
       <c r="L6" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210314U13GF</v>
+        <v>20210228VWE</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>20210314</v>
+        <v>20210228</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -895,10 +880,10 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>19</v>
@@ -906,19 +891,19 @@
       <c r="I7" s="3"/>
       <c r="K7" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210314U15ME</v>
+        <v>20210228VMS</v>
       </c>
       <c r="L7" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210314U15WE</v>
+        <v>20210228VWS</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>20210321</v>
+        <v>20210314</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>12</v>
@@ -930,10 +915,10 @@
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>19</v>
@@ -941,22 +926,22 @@
       <c r="I8" s="3"/>
       <c r="K8" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210321OME</v>
+        <v>20210314U13BE</v>
       </c>
       <c r="L8" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210321OWE</v>
+        <v>20210314U13GE</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>20210321</v>
+        <v>20210314</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -965,10 +950,10 @@
         <v>1</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>19</v>
@@ -976,19 +961,19 @@
       <c r="I9" s="3"/>
       <c r="K9" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210321OMS</v>
+        <v>20210314U15MF</v>
       </c>
       <c r="L9" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210321OWS</v>
+        <v>20210314U15WF</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>20210321</v>
+        <v>20210314</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>11</v>
@@ -1000,10 +985,10 @@
         <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>19</v>
@@ -1011,22 +996,22 @@
       <c r="I10" s="3"/>
       <c r="K10" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210321VMF</v>
+        <v>20210314U11BF</v>
       </c>
       <c r="L10" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210321VWF</v>
+        <v>20210314U11GF</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>20210321</v>
+        <v>20210314</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1035,10 +1020,10 @@
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>19</v>
@@ -1046,22 +1031,22 @@
       <c r="I11" s="3"/>
       <c r="K11" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210321OMF</v>
+        <v>20210314U11BE</v>
       </c>
       <c r="L11" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210321OWF</v>
+        <v>20210314U11GE</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>20210321</v>
+        <v>20210314</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1070,10 +1055,10 @@
         <v>1</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>19</v>
@@ -1081,22 +1066,22 @@
       <c r="I12" s="3"/>
       <c r="K12" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210321VME</v>
+        <v>20210314U13BF</v>
       </c>
       <c r="L12" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210321VWE</v>
+        <v>20210314U13GF</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>20210321</v>
+        <v>20210314</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1105,10 +1090,10 @@
         <v>1</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>19</v>
@@ -1116,22 +1101,22 @@
       <c r="I13" s="3"/>
       <c r="K13" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210321VMS</v>
+        <v>20210314U15ME</v>
       </c>
       <c r="L13" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210321VWS</v>
+        <v>20210314U15WE</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>20210501</v>
+        <v>20210321</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1140,33 +1125,33 @@
         <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="I14" s="3"/>
       <c r="K14" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210501U10MF</v>
+        <v>20210321OME</v>
       </c>
       <c r="L14" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210501U10WF</v>
+        <v>20210321OWE</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>20210501</v>
+        <v>20210321</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1178,27 +1163,27 @@
         <v>31</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="I15" s="3"/>
       <c r="K15" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210501U12ME</v>
+        <v>20210321OMS</v>
       </c>
       <c r="L15" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210501U12WE</v>
+        <v>20210321OWS</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>20210501</v>
+        <v>20210321</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>11</v>
@@ -1210,33 +1195,33 @@
         <v>1</v>
       </c>
       <c r="F16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="H16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I16" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="I16" s="3"/>
       <c r="K16" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210501U12MF</v>
+        <v>20210321VMF</v>
       </c>
       <c r="L16" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210501U12WF</v>
+        <v>20210321VWF</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>20210501</v>
+        <v>20210321</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1245,30 +1230,30 @@
         <v>1</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I17" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="I17" s="3"/>
       <c r="K17" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210501U14ME</v>
+        <v>20210321OMF</v>
       </c>
       <c r="L17" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210501U14WE</v>
+        <v>20210321OWF</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>20210502</v>
+        <v>20210321</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>12</v>
@@ -1280,33 +1265,33 @@
         <v>1</v>
       </c>
       <c r="F18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="H18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I18" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="I18" s="3"/>
       <c r="K18" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210502U14TME</v>
+        <v>20210321VME</v>
       </c>
       <c r="L18" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210502U14TWE</v>
+        <v>20210321VWE</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>20210502</v>
+        <v>20210321</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1315,22 +1300,22 @@
         <v>1</v>
       </c>
       <c r="F19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="H19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I19" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="I19" s="3"/>
       <c r="K19" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210502U14TMF</v>
+        <v>20210321VMS</v>
       </c>
       <c r="L19" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210502U14TWF</v>
+        <v>20210321VWS</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1338,10 +1323,10 @@
         <v>20210502</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1350,22 +1335,22 @@
         <v>1</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I20" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="I20" s="3"/>
       <c r="K20" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210502U14TMS</v>
+        <v>20210502U1720MF</v>
       </c>
       <c r="L20" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210502U14TWS</v>
+        <v>20210502U1720WF</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1373,10 +1358,10 @@
         <v>20210502</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1385,22 +1370,22 @@
         <v>1</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I21" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="I21" s="3"/>
       <c r="K21" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210502U14MF</v>
+        <v>20210502OBME</v>
       </c>
       <c r="L21" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210502U14WF</v>
+        <v>20210502OBWE</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1408,7 +1393,7 @@
         <v>20210502</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>13</v>
@@ -1420,30 +1405,30 @@
         <v>1</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I22" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="I22" s="3"/>
       <c r="K22" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210502U14MS</v>
+        <v>20210502U1720MS</v>
       </c>
       <c r="L22" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210502U14WS</v>
+        <v>20210502U1720WS</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>20210516</v>
+        <v>20210502</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>11</v>
@@ -1455,10 +1440,10 @@
         <v>1</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>19</v>
@@ -1466,19 +1451,19 @@
       <c r="I23" s="3"/>
       <c r="K23" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210516U1720MF</v>
+        <v>20210502OBMF</v>
       </c>
       <c r="L23" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210516U1720WF</v>
+        <v>20210502OBWF</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>20210516</v>
+        <v>20210502</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>12</v>
@@ -1490,10 +1475,10 @@
         <v>1</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>19</v>
@@ -1501,19 +1486,19 @@
       <c r="I24" s="3"/>
       <c r="K24" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210516OBME</v>
+        <v>20210502U1720ME</v>
       </c>
       <c r="L24" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210516OBWE</v>
+        <v>20210502U1720WE</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>20210516</v>
+        <v>20210502</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>13</v>
@@ -1525,10 +1510,10 @@
         <v>1</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>19</v>
@@ -1536,11 +1521,11 @@
       <c r="I25" s="3"/>
       <c r="K25" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210516U1720MS</v>
+        <v>20210502OBMS</v>
       </c>
       <c r="L25" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210516U1720WS</v>
+        <v>20210502OBWS</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -1548,10 +1533,10 @@
         <v>20210516</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1560,10 +1545,10 @@
         <v>1</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>19</v>
@@ -1571,11 +1556,11 @@
       <c r="I26" s="3"/>
       <c r="K26" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210516OBMF</v>
+        <v>20210516U13BE</v>
       </c>
       <c r="L26" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210516OBWF</v>
+        <v>20210516U13GE</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -1583,22 +1568,22 @@
         <v>20210516</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="G27" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>19</v>
@@ -1606,11 +1591,11 @@
       <c r="I27" s="3"/>
       <c r="K27" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210516U1720ME</v>
+        <v>20210516U15MF</v>
       </c>
       <c r="L27" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210516U1720WE</v>
+        <v>20210516U15WF</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -1618,10 +1603,10 @@
         <v>20210516</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1630,10 +1615,10 @@
         <v>1</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>19</v>
@@ -1641,19 +1626,19 @@
       <c r="I28" s="3"/>
       <c r="K28" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210516OBMS</v>
+        <v>20210516U11BF</v>
       </c>
       <c r="L28" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210516OBWS</v>
+        <v>20210516U11GF</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>20210530</v>
+        <v>20210516</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>12</v>
@@ -1665,33 +1650,33 @@
         <v>1</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I29" s="3"/>
       <c r="K29" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210530OME</v>
+        <v>20210516U11BE</v>
       </c>
       <c r="L29" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210530OWE</v>
+        <v>20210516U11GE</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>20210530</v>
+        <v>20210516</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1700,33 +1685,33 @@
         <v>1</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I30" s="3"/>
       <c r="K30" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210530OMS</v>
+        <v>20210516U13BF</v>
       </c>
       <c r="L30" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210530OWS</v>
+        <v>20210516U13GF</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>20210530</v>
+        <v>20210516</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1735,10 +1720,10 @@
         <v>1</v>
       </c>
       <c r="F31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>19</v>
@@ -1746,11 +1731,11 @@
       <c r="I31" s="3"/>
       <c r="K31" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210530VMF</v>
+        <v>20210516U15ME</v>
       </c>
       <c r="L31" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210530VWF</v>
+        <v>20210516U15WE</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -1761,7 +1746,7 @@
         <v>18</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1770,22 +1755,22 @@
         <v>1</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I32" s="3"/>
       <c r="K32" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210530OMF</v>
+        <v>20210530OME</v>
       </c>
       <c r="L32" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210530OWF</v>
+        <v>20210530OWE</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -1793,10 +1778,10 @@
         <v>20210530</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1805,22 +1790,22 @@
         <v>1</v>
       </c>
       <c r="F33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="H33" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I33" s="3"/>
       <c r="K33" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210530VME</v>
+        <v>20210530OMS</v>
       </c>
       <c r="L33" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210530VWE</v>
+        <v>20210530OWS</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -1831,7 +1816,7 @@
         <v>9</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1840,10 +1825,10 @@
         <v>1</v>
       </c>
       <c r="F34" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>19</v>
@@ -1851,19 +1836,19 @@
       <c r="I34" s="3"/>
       <c r="K34" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210530VMS</v>
+        <v>20210530VMF</v>
       </c>
       <c r="L34" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210530VWS</v>
+        <v>20210530VWF</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>20210627</v>
+        <v>20210530</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>11</v>
@@ -1875,30 +1860,30 @@
         <v>1</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I35" s="3"/>
       <c r="K35" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210627U1720MF</v>
+        <v>20210530OMF</v>
       </c>
       <c r="L35" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210627U1720WF</v>
+        <v>20210530OWF</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>20210627</v>
+        <v>20210530</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>12</v>
@@ -1913,7 +1898,7 @@
         <v>32</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>19</v>
@@ -1921,19 +1906,19 @@
       <c r="I36" s="3"/>
       <c r="K36" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210627OBME</v>
+        <v>20210530VME</v>
       </c>
       <c r="L36" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210627OBWE</v>
+        <v>20210530VWE</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>20210627</v>
+        <v>20210530</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>13</v>
@@ -1945,10 +1930,10 @@
         <v>1</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>19</v>
@@ -1956,11 +1941,11 @@
       <c r="I37" s="3"/>
       <c r="K37" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210627U1720MS</v>
+        <v>20210530VMS</v>
       </c>
       <c r="L37" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210627U1720WS</v>
+        <v>20210530VWS</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -1968,7 +1953,7 @@
         <v>20210627</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>11</v>
@@ -1980,10 +1965,10 @@
         <v>1</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>19</v>
@@ -1991,11 +1976,11 @@
       <c r="I38" s="3"/>
       <c r="K38" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210627OBMF</v>
+        <v>20210627U1720MF</v>
       </c>
       <c r="L38" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210627OBWF</v>
+        <v>20210627U1720WF</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -2003,7 +1988,7 @@
         <v>20210627</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>12</v>
@@ -2015,10 +2000,10 @@
         <v>1</v>
       </c>
       <c r="F39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>19</v>
@@ -2026,11 +2011,11 @@
       <c r="I39" s="3"/>
       <c r="K39" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210627U1720ME</v>
+        <v>20210627OBME</v>
       </c>
       <c r="L39" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210627U1720WE</v>
+        <v>20210627OBWE</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -2038,7 +2023,7 @@
         <v>20210627</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>13</v>
@@ -2050,10 +2035,10 @@
         <v>1</v>
       </c>
       <c r="F40" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>19</v>
@@ -2061,22 +2046,22 @@
       <c r="I40" s="3"/>
       <c r="K40" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210627OBMS</v>
+        <v>20210627U1720MS</v>
       </c>
       <c r="L40" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210627OBWS</v>
+        <v>20210627U1720WS</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>20210725</v>
+        <v>20210627</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -2085,33 +2070,33 @@
         <v>1</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I41" s="1"/>
+      <c r="I41" s="3"/>
       <c r="K41" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210725U13BE</v>
+        <v>20210627OBMF</v>
       </c>
       <c r="L41" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210725U13GE</v>
+        <v>20210627OBWF</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>20210725</v>
+        <v>20210627</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -2120,33 +2105,33 @@
         <v>1</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I42" s="1"/>
+      <c r="I42" s="3"/>
       <c r="K42" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210725U15MF</v>
+        <v>20210627U1720ME</v>
       </c>
       <c r="L42" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210725U15WF</v>
+        <v>20210627U1720WE</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>20210725</v>
+        <v>20210627</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -2155,30 +2140,30 @@
         <v>1</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I43" s="1"/>
+      <c r="I43" s="3"/>
       <c r="K43" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210725U11BF</v>
+        <v>20210627OBMS</v>
       </c>
       <c r="L43" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210725U11GF</v>
+        <v>20210627OBWS</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>20210725</v>
+        <v>20210801</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>12</v>
@@ -2190,10 +2175,10 @@
         <v>1</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>19</v>
@@ -2201,19 +2186,19 @@
       <c r="I44" s="1"/>
       <c r="K44" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210725U11BE</v>
+        <v>20210801U13BE</v>
       </c>
       <c r="L44" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210725U11GE</v>
+        <v>20210801U13GE</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>20210725</v>
+        <v>20210801</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>11</v>
@@ -2225,10 +2210,10 @@
         <v>1</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>19</v>
@@ -2236,22 +2221,22 @@
       <c r="I45" s="1"/>
       <c r="K45" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210725U13BF</v>
+        <v>20210801U15MF</v>
       </c>
       <c r="L45" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210725U13GF</v>
+        <v>20210801U15WF</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>20210725</v>
+        <v>20210801</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -2260,10 +2245,10 @@
         <v>1</v>
       </c>
       <c r="F46" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G46" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>19</v>
@@ -2271,19 +2256,19 @@
       <c r="I46" s="1"/>
       <c r="K46" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210725U15ME</v>
+        <v>20210801U11BF</v>
       </c>
       <c r="L46" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210725U15WE</v>
+        <v>20210801U11GF</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>20210815</v>
+        <v>20210801</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>12</v>
@@ -2295,33 +2280,33 @@
         <v>1</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I47" s="1"/>
       <c r="K47" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210815OME</v>
+        <v>20210801U11BE</v>
       </c>
       <c r="L47" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210815OWE</v>
+        <v>20210801U11GE</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>20210815</v>
+        <v>20210801</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -2330,33 +2315,33 @@
         <v>1</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I48" s="1"/>
       <c r="K48" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210815OMS</v>
+        <v>20210801U13BF</v>
       </c>
       <c r="L48" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210815OWS</v>
+        <v>20210801U13GF</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>20210815</v>
+        <v>20210801</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -2365,10 +2350,10 @@
         <v>1</v>
       </c>
       <c r="F49" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G49" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>19</v>
@@ -2376,11 +2361,11 @@
       <c r="I49" s="1"/>
       <c r="K49" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210815VMF</v>
+        <v>20210801U15ME</v>
       </c>
       <c r="L49" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210815VWF</v>
+        <v>20210801U15WE</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -2391,7 +2376,7 @@
         <v>18</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -2400,22 +2385,22 @@
         <v>1</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I50" s="1"/>
       <c r="K50" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210815OMF</v>
+        <v>20210815OME</v>
       </c>
       <c r="L50" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210815OWF</v>
+        <v>20210815OWE</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -2423,10 +2408,10 @@
         <v>20210815</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -2435,22 +2420,22 @@
         <v>1</v>
       </c>
       <c r="F51" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G51" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G51" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="H51" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I51" s="1"/>
       <c r="K51" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210815VME</v>
+        <v>20210815OMS</v>
       </c>
       <c r="L51" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210815VWE</v>
+        <v>20210815OWS</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -2461,7 +2446,7 @@
         <v>9</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -2470,10 +2455,10 @@
         <v>1</v>
       </c>
       <c r="F52" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>19</v>
@@ -2481,19 +2466,19 @@
       <c r="I52" s="1"/>
       <c r="K52" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210815VMS</v>
+        <v>20210815VMF</v>
       </c>
       <c r="L52" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210815VWS</v>
+        <v>20210815VWF</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>20210905</v>
+        <v>20210815</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>11</v>
@@ -2505,30 +2490,30 @@
         <v>1</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I53" s="1"/>
       <c r="K53" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210905U1720MF</v>
+        <v>20210815OMF</v>
       </c>
       <c r="L53" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210905U1720WF</v>
+        <v>20210815OWF</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>20210905</v>
+        <v>20210815</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>12</v>
@@ -2543,27 +2528,27 @@
         <v>32</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I54" s="1"/>
       <c r="K54" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210905OBME</v>
+        <v>20210815VME</v>
       </c>
       <c r="L54" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210905OBWE</v>
+        <v>20210815VWE</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>20210905</v>
+        <v>20210815</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>13</v>
@@ -2575,30 +2560,30 @@
         <v>1</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I55" s="1"/>
       <c r="K55" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210905U1720MS</v>
+        <v>20210815VMS</v>
       </c>
       <c r="L55" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210905U1720WS</v>
+        <v>20210815VWS</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>20210905</v>
+        <v>20210822</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>11</v>
@@ -2610,22 +2595,22 @@
         <v>1</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="I56" s="1"/>
       <c r="K56" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210905OBMF</v>
+        <v>20210822U17MF</v>
       </c>
       <c r="L56" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210905OBWF</v>
+        <v>20210822U17WF</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -2633,34 +2618,34 @@
         <v>20210905</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="E57">
-        <v>1</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="G57" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I57" s="1"/>
       <c r="K57" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210905U1720ME</v>
+        <v>20210905U1720MF</v>
       </c>
       <c r="L57" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210905U1720WE</v>
+        <v>20210905U1720WF</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -2671,7 +2656,7 @@
         <v>7</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -2680,33 +2665,33 @@
         <v>1</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I58" s="1"/>
       <c r="K58" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210905OBMS</v>
+        <v>20210905OBME</v>
       </c>
       <c r="L58" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210905OBWS</v>
+        <v>20210905OBWE</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>20210919</v>
+        <v>20210905</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -2715,33 +2700,33 @@
         <v>1</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I59" s="1"/>
       <c r="K59" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210919OME</v>
+        <v>20210905U1720MS</v>
       </c>
       <c r="L59" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210919OWE</v>
+        <v>20210905U1720WS</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>20210919</v>
+        <v>20210905</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -2750,33 +2735,33 @@
         <v>1</v>
       </c>
       <c r="F60" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G60" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G60" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="H60" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I60" s="1"/>
       <c r="K60" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210919OMS</v>
+        <v>20210905OBMF</v>
       </c>
       <c r="L60" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210919OWS</v>
+        <v>20210905OBWF</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>20210919</v>
+        <v>20210905</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -2785,33 +2770,33 @@
         <v>1</v>
       </c>
       <c r="F61" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G61" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G61" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="H61" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I61" s="1"/>
       <c r="K61" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210919VMF</v>
+        <v>20210905U1720ME</v>
       </c>
       <c r="L61" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210919VWF</v>
+        <v>20210905U1720WE</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>20210919</v>
+        <v>20210905</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -2820,22 +2805,22 @@
         <v>1</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I62" s="1"/>
       <c r="K62" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210919OMF</v>
+        <v>20210905OBMS</v>
       </c>
       <c r="L62" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210919OWF</v>
+        <v>20210905OBWS</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -2843,45 +2828,45 @@
         <v>20210919</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="I63" s="1"/>
       <c r="K63" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210919VME</v>
+        <v>20210919U17TF</v>
       </c>
       <c r="L63" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210919VWE</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>20210919</v>
+        <v>20211017</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -2890,22 +2875,22 @@
         <v>1</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I64" s="1"/>
       <c r="K64" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210919VMS</v>
+        <v>20211017OME</v>
       </c>
       <c r="L64" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210919VWS</v>
+        <v>20211017OWE</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -2916,7 +2901,7 @@
         <v>18</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -2928,19 +2913,19 @@
         <v>31</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I65" s="1"/>
       <c r="K65" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211017OME</v>
+        <v>20211017OMS</v>
       </c>
       <c r="L65" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211017OWE</v>
+        <v>20211017OWS</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -2948,10 +2933,10 @@
         <v>20211017</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -2960,22 +2945,22 @@
         <v>1</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I66" s="1"/>
       <c r="K66" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211017OMS</v>
+        <v>20211017VMF</v>
       </c>
       <c r="L66" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211017OWS</v>
+        <v>20211017VWF</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -2983,7 +2968,7 @@
         <v>20211017</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>11</v>
@@ -2995,22 +2980,22 @@
         <v>1</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I67" s="1"/>
       <c r="K67" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211017VMF</v>
+        <v>20211017OMF</v>
       </c>
       <c r="L67" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211017VWF</v>
+        <v>20211017OWF</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -3018,10 +3003,10 @@
         <v>20211017</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -3030,22 +3015,22 @@
         <v>1</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I68" s="1"/>
       <c r="K68" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211017OMF</v>
+        <v>20211017VME</v>
       </c>
       <c r="L68" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211017OWF</v>
+        <v>20211017VWE</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -3056,7 +3041,7 @@
         <v>9</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -3065,33 +3050,33 @@
         <v>1</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I69" s="1"/>
       <c r="K69" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211017VME</v>
+        <v>20211017VMS</v>
       </c>
       <c r="L69" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211017VWE</v>
+        <v>20211017VWS</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>20211017</v>
+        <v>20211024</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -3100,22 +3085,22 @@
         <v>1</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I70" s="1"/>
       <c r="K70" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211017VMS</v>
+        <v>20211024U1720MF</v>
       </c>
       <c r="L70" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211017VWS</v>
+        <v>20211024U1720WF</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -3123,10 +3108,10 @@
         <v>20211024</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -3135,10 +3120,10 @@
         <v>1</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>19</v>
@@ -3146,11 +3131,11 @@
       <c r="I71" s="1"/>
       <c r="K71" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024U1720MF</v>
+        <v>20211024OBME</v>
       </c>
       <c r="L71" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024U1720WF</v>
+        <v>20211024OBWE</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -3158,10 +3143,10 @@
         <v>20211024</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -3170,10 +3155,10 @@
         <v>1</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>19</v>
@@ -3181,11 +3166,11 @@
       <c r="I72" s="1"/>
       <c r="K72" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024OBME</v>
+        <v>20211024U1720MS</v>
       </c>
       <c r="L72" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024OBWE</v>
+        <v>20211024U1720WS</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -3193,10 +3178,10 @@
         <v>20211024</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -3205,10 +3190,10 @@
         <v>1</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>19</v>
@@ -3216,11 +3201,11 @@
       <c r="I73" s="1"/>
       <c r="K73" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024U1720MS</v>
+        <v>20211024OBMF</v>
       </c>
       <c r="L73" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024U1720WS</v>
+        <v>20211024OBWF</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -3228,10 +3213,10 @@
         <v>20211024</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -3240,10 +3225,10 @@
         <v>1</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>19</v>
@@ -3251,11 +3236,11 @@
       <c r="I74" s="1"/>
       <c r="K74" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024OBMF</v>
+        <v>20211024U1720ME</v>
       </c>
       <c r="L74" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024OBWF</v>
+        <v>20211024U1720WE</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -3263,10 +3248,10 @@
         <v>20211024</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -3275,10 +3260,10 @@
         <v>1</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>19</v>
@@ -3286,22 +3271,22 @@
       <c r="I75" s="1"/>
       <c r="K75" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024U1720ME</v>
+        <v>20211024OBMS</v>
       </c>
       <c r="L75" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024U1720WE</v>
+        <v>20211024OBWS</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>20211024</v>
+        <v>20211107</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -3310,22 +3295,22 @@
         <v>1</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I76" s="1"/>
       <c r="K76" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024OBMS</v>
+        <v>20211107U13BE</v>
       </c>
       <c r="L76" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024OBWS</v>
+        <v>20211107U13GE</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -3333,10 +3318,10 @@
         <v>20211107</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -3345,22 +3330,22 @@
         <v>1</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I77" s="1"/>
       <c r="K77" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U13BE</v>
+        <v>20211107U15MF</v>
       </c>
       <c r="L77" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U13GE</v>
+        <v>20211107U15WF</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -3368,7 +3353,7 @@
         <v>20211107</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>11</v>
@@ -3380,22 +3365,22 @@
         <v>1</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I78" s="1"/>
       <c r="K78" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U15MF</v>
+        <v>20211107U11BF</v>
       </c>
       <c r="L78" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U15WF</v>
+        <v>20211107U11GF</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -3406,7 +3391,7 @@
         <v>20</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -3418,19 +3403,19 @@
         <v>32</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I79" s="1"/>
       <c r="K79" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U11BF</v>
+        <v>20211107U11BE</v>
       </c>
       <c r="L79" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U11GF</v>
+        <v>20211107U11GE</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
@@ -3438,10 +3423,10 @@
         <v>20211107</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -3450,22 +3435,22 @@
         <v>1</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I80" s="1"/>
       <c r="K80" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U11BE</v>
+        <v>20211107U13BF</v>
       </c>
       <c r="L80" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U11GE</v>
+        <v>20211107U13GF</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
@@ -3473,10 +3458,10 @@
         <v>20211107</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -3485,30 +3470,30 @@
         <v>1</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I81" s="1"/>
       <c r="K81" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U13BF</v>
+        <v>20211107U15ME</v>
       </c>
       <c r="L81" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U13GF</v>
+        <v>20211107U15WE</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>20211107</v>
+        <v>20211121</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>12</v>
@@ -3520,33 +3505,33 @@
         <v>1</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I82" s="1"/>
       <c r="K82" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U15ME</v>
+        <v>20211121OME</v>
       </c>
       <c r="L82" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U15WE</v>
+        <v>20211121OWE</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>20211114</v>
+        <v>20211121</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -3558,30 +3543,30 @@
         <v>31</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I83" s="1"/>
       <c r="K83" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211114OME</v>
+        <v>20211121OMS</v>
       </c>
       <c r="L83" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211114OWE</v>
+        <v>20211121OWS</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>20211114</v>
+        <v>20211121</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -3590,30 +3575,30 @@
         <v>1</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I84" s="1"/>
       <c r="K84" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211114OMS</v>
+        <v>20211121VMF</v>
       </c>
       <c r="L84" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211114OWS</v>
+        <v>20211121VWF</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>20211114</v>
+        <v>20211121</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>11</v>
@@ -3625,33 +3610,33 @@
         <v>1</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I85" s="1"/>
       <c r="K85" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211114VMF</v>
+        <v>20211121OMF</v>
       </c>
       <c r="L85" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211114VWF</v>
+        <v>20211121OWF</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>20211114</v>
+        <v>20211121</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -3660,33 +3645,33 @@
         <v>1</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I86" s="1"/>
       <c r="K86" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211114OMF</v>
+        <v>20211121VME</v>
       </c>
       <c r="L86" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211114OWF</v>
+        <v>20211121VWE</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>20211114</v>
+        <v>20211121</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -3695,68 +3680,68 @@
         <v>1</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I87" s="1"/>
       <c r="K87" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211114VME</v>
+        <v>20211121VMS</v>
       </c>
       <c r="L87" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211114VWE</v>
+        <v>20211121VWS</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>20211114</v>
+        <v>20211128</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D88">
         <v>0</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I88" s="1"/>
       <c r="K88" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211114VMS</v>
+        <v>20211128U13TE</v>
       </c>
       <c r="L88" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211114VWS</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>20211121</v>
+        <v>20211128</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -3765,10 +3750,10 @@
         <v>0</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>19</v>
@@ -3776,7 +3761,7 @@
       <c r="I89" s="1"/>
       <c r="K89" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121U13TE</v>
+        <v>20211128U13TF</v>
       </c>
       <c r="L89" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
@@ -3785,13 +3770,13 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>20211121</v>
+        <v>20211128</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -3800,10 +3785,10 @@
         <v>0</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>19</v>
@@ -3811,7 +3796,7 @@
       <c r="I90" s="1"/>
       <c r="K90" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121U13TF</v>
+        <v>20211128U17TE</v>
       </c>
       <c r="L90" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
@@ -3820,13 +3805,13 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>20211121</v>
+        <v>20211128</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -3835,10 +3820,10 @@
         <v>0</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>19</v>
@@ -3846,7 +3831,7 @@
       <c r="I91" s="1"/>
       <c r="K91" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121U17TE</v>
+        <v>20211128U17TF</v>
       </c>
       <c r="L91" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
@@ -3855,14 +3840,12 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>20211121</v>
+        <v>20211128</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C92" s="1"/>
       <c r="D92">
         <v>0</v>
       </c>
@@ -3873,7 +3856,7 @@
         <v>32</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>19</v>
@@ -3881,42 +3864,9 @@
       <c r="I92" s="1"/>
       <c r="K92" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121U17TF</v>
+        <v>20211128OT</v>
       </c>
       <c r="L92" t="str">
-        <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>20211121</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C93" s="1"/>
-      <c r="D93">
-        <v>0</v>
-      </c>
-      <c r="E93">
-        <v>0</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I93" s="1"/>
-      <c r="K93" t="str">
-        <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121OT</v>
-      </c>
-      <c r="L93" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
         <v>N/A</v>
       </c>

--- a/2021/2021FSAdates.xlsx
+++ b/2021/2021FSAdates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robert.thomas\Dropbox\Competitions\2021\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FSA\Dropbox\Competitions\2021\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B207B571-9D5E-4B40-AFB3-FECBAF5C6D62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544E055F-2AC6-4494-8DF7-4C72F233A8EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16965" yWindow="-16395" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -769,7 +769,7 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -786,11 +786,11 @@
       <c r="I4" s="3"/>
       <c r="K4" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210228VMF</v>
+        <v>N/A</v>
       </c>
       <c r="L4" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210228VWF</v>
+        <v/>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -874,7 +874,7 @@
         <v>13</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -891,11 +891,11 @@
       <c r="I7" s="3"/>
       <c r="K7" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210228VMS</v>
+        <v>N/A</v>
       </c>
       <c r="L7" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210228VWS</v>
+        <v/>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">

--- a/2021/2021FSAdates.xlsx
+++ b/2021/2021FSAdates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FSA\Dropbox\Competitions\2021\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544E055F-2AC6-4494-8DF7-4C72F233A8EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362ED9D3-F880-4119-98AF-0FB5E33747C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="47">
   <si>
     <t>Date</t>
   </si>
@@ -297,12 +297,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I92" tableType="xml" totalsRowShown="0" connectionId="2">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I92">
-    <sortCondition ref="A8:A92"/>
-    <sortCondition ref="F8:F92"/>
-    <sortCondition ref="B8:B92"/>
-    <sortCondition ref="C8:C92"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I93" tableType="xml" totalsRowShown="0" connectionId="2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I93">
+    <sortCondition ref="A9:A93"/>
+    <sortCondition ref="F9:F93"/>
+    <sortCondition ref="B9:B93"/>
+    <sortCondition ref="C9:C93"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="Date" name="Date">
@@ -634,7 +634,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L92"/>
+  <dimension ref="A1:L93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>31</v>
@@ -751,11 +751,11 @@
       <c r="I3" s="3"/>
       <c r="K3" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210228OMS</v>
+        <v>20210228OS</v>
       </c>
       <c r="L3" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210228OWS</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -842,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>32</v>
@@ -856,11 +856,11 @@
       <c r="I6" s="3"/>
       <c r="K6" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210228VME</v>
+        <v>20210228VE</v>
       </c>
       <c r="L6" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210228VWE</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -871,10 +871,10 @@
         <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -891,34 +891,34 @@
       <c r="I7" s="3"/>
       <c r="K7" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>N/A</v>
+        <v>20210228VME</v>
       </c>
       <c r="L7" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v/>
+        <v>20210228VWE</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>20210314</v>
+        <v>20210228</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>19</v>
@@ -926,11 +926,11 @@
       <c r="I8" s="3"/>
       <c r="K8" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210314U13BE</v>
+        <v>N/A</v>
       </c>
       <c r="L8" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210314U13GE</v>
+        <v/>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -938,10 +938,10 @@
         <v>20210314</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -961,11 +961,11 @@
       <c r="I9" s="3"/>
       <c r="K9" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210314U15MF</v>
+        <v>20210314U13BE</v>
       </c>
       <c r="L9" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210314U15WF</v>
+        <v>20210314U13GE</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -973,7 +973,7 @@
         <v>20210314</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>11</v>
@@ -985,10 +985,10 @@
         <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>19</v>
@@ -996,11 +996,11 @@
       <c r="I10" s="3"/>
       <c r="K10" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210314U11BF</v>
+        <v>20210314U15MF</v>
       </c>
       <c r="L10" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210314U11GF</v>
+        <v>20210314U15WF</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1011,7 +1011,7 @@
         <v>20</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>19</v>
@@ -1031,11 +1031,11 @@
       <c r="I11" s="3"/>
       <c r="K11" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210314U11BE</v>
+        <v>20210314U11BF</v>
       </c>
       <c r="L11" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210314U11GE</v>
+        <v>20210314U11GF</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1043,10 +1043,10 @@
         <v>20210314</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1066,11 +1066,11 @@
       <c r="I12" s="3"/>
       <c r="K12" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210314U13BF</v>
+        <v>20210314U11BE</v>
       </c>
       <c r="L12" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210314U13GF</v>
+        <v>20210314U11GE</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1078,10 +1078,10 @@
         <v>20210314</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1090,10 +1090,10 @@
         <v>1</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>19</v>
@@ -1101,19 +1101,19 @@
       <c r="I13" s="3"/>
       <c r="K13" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210314U15ME</v>
+        <v>20210314U13BF</v>
       </c>
       <c r="L13" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210314U15WE</v>
+        <v>20210314U13GF</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>20210321</v>
+        <v>20210314</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -1125,10 +1125,10 @@
         <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>19</v>
@@ -1136,11 +1136,11 @@
       <c r="I14" s="3"/>
       <c r="K14" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210321OME</v>
+        <v>20210314U15ME</v>
       </c>
       <c r="L14" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210321OWE</v>
+        <v>20210314U15WE</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1151,7 +1151,7 @@
         <v>18</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1160,10 +1160,10 @@
         <v>1</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>19</v>
@@ -1171,11 +1171,11 @@
       <c r="I15" s="3"/>
       <c r="K15" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210321OMS</v>
+        <v>20210321OME</v>
       </c>
       <c r="L15" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210321OWS</v>
+        <v>20210321OWE</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1183,10 +1183,10 @@
         <v>20210321</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1206,11 +1206,11 @@
       <c r="I16" s="3"/>
       <c r="K16" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210321VMF</v>
+        <v>20210321OMS</v>
       </c>
       <c r="L16" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210321VWF</v>
+        <v>20210321OWS</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1218,7 +1218,7 @@
         <v>20210321</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>11</v>
@@ -1230,10 +1230,10 @@
         <v>1</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>19</v>
@@ -1241,11 +1241,11 @@
       <c r="I17" s="3"/>
       <c r="K17" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210321OMF</v>
+        <v>20210321VMF</v>
       </c>
       <c r="L17" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210321OWF</v>
+        <v>20210321VWF</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1253,10 +1253,10 @@
         <v>20210321</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1276,11 +1276,11 @@
       <c r="I18" s="3"/>
       <c r="K18" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210321VME</v>
+        <v>20210321OMF</v>
       </c>
       <c r="L18" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210321VWE</v>
+        <v>20210321OWF</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1291,7 +1291,7 @@
         <v>9</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1311,22 +1311,22 @@
       <c r="I19" s="3"/>
       <c r="K19" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210321VMS</v>
+        <v>20210321VME</v>
       </c>
       <c r="L19" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210321VWS</v>
+        <v>20210321VWE</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>20210502</v>
+        <v>20210321</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>1</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>19</v>
@@ -1346,11 +1346,11 @@
       <c r="I20" s="3"/>
       <c r="K20" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210502U1720MF</v>
+        <v>20210321VMS</v>
       </c>
       <c r="L20" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210502U1720WF</v>
+        <v>20210321VWS</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1358,10 +1358,10 @@
         <v>20210502</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1370,10 +1370,10 @@
         <v>1</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>19</v>
@@ -1381,11 +1381,11 @@
       <c r="I21" s="3"/>
       <c r="K21" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210502OBME</v>
+        <v>20210502U1720MF</v>
       </c>
       <c r="L21" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210502OBWE</v>
+        <v>20210502U1720WF</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1393,10 +1393,10 @@
         <v>20210502</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1405,10 +1405,10 @@
         <v>1</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>19</v>
@@ -1416,11 +1416,11 @@
       <c r="I22" s="3"/>
       <c r="K22" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210502U1720MS</v>
+        <v>20210502OBME</v>
       </c>
       <c r="L22" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210502U1720WS</v>
+        <v>20210502OBWE</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -1428,10 +1428,10 @@
         <v>20210502</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1440,10 +1440,10 @@
         <v>1</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>19</v>
@@ -1451,11 +1451,11 @@
       <c r="I23" s="3"/>
       <c r="K23" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210502OBMF</v>
+        <v>20210502U1720MS</v>
       </c>
       <c r="L23" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210502OBWF</v>
+        <v>20210502U1720WS</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -1463,10 +1463,10 @@
         <v>20210502</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1475,10 +1475,10 @@
         <v>1</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>19</v>
@@ -1486,11 +1486,11 @@
       <c r="I24" s="3"/>
       <c r="K24" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210502U1720ME</v>
+        <v>20210502OBMF</v>
       </c>
       <c r="L24" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210502U1720WE</v>
+        <v>20210502OBWF</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -1498,10 +1498,10 @@
         <v>20210502</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1510,7 +1510,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>36</v>
@@ -1521,22 +1521,22 @@
       <c r="I25" s="3"/>
       <c r="K25" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210502OBMS</v>
+        <v>20210502U1720ME</v>
       </c>
       <c r="L25" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210502OBWS</v>
+        <v>20210502U1720WE</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>20210516</v>
+        <v>20210502</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>1</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>19</v>
@@ -1556,11 +1556,11 @@
       <c r="I26" s="3"/>
       <c r="K26" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210516U13BE</v>
+        <v>20210502OBMS</v>
       </c>
       <c r="L26" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210516U13GE</v>
+        <v>20210502OBWS</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -1568,10 +1568,10 @@
         <v>20210516</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1591,11 +1591,11 @@
       <c r="I27" s="3"/>
       <c r="K27" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210516U15MF</v>
+        <v>20210516U13BE</v>
       </c>
       <c r="L27" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210516U15WF</v>
+        <v>20210516U13GE</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -1603,7 +1603,7 @@
         <v>20210516</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>11</v>
@@ -1615,10 +1615,10 @@
         <v>1</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>19</v>
@@ -1626,11 +1626,11 @@
       <c r="I28" s="3"/>
       <c r="K28" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210516U11BF</v>
+        <v>20210516U15MF</v>
       </c>
       <c r="L28" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210516U11GF</v>
+        <v>20210516U15WF</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -1641,7 +1641,7 @@
         <v>20</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1650,10 +1650,10 @@
         <v>1</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>19</v>
@@ -1661,11 +1661,11 @@
       <c r="I29" s="3"/>
       <c r="K29" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210516U11BE</v>
+        <v>20210516U11BF</v>
       </c>
       <c r="L29" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210516U11GE</v>
+        <v>20210516U11GF</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -1673,10 +1673,10 @@
         <v>20210516</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1696,11 +1696,11 @@
       <c r="I30" s="3"/>
       <c r="K30" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210516U13BF</v>
+        <v>20210516U11BE</v>
       </c>
       <c r="L30" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210516U13GF</v>
+        <v>20210516U11GE</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -1708,10 +1708,10 @@
         <v>20210516</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1720,10 +1720,10 @@
         <v>1</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>19</v>
@@ -1731,19 +1731,19 @@
       <c r="I31" s="3"/>
       <c r="K31" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210516U15ME</v>
+        <v>20210516U13BF</v>
       </c>
       <c r="L31" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210516U15WE</v>
+        <v>20210516U13GF</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>20210530</v>
+        <v>20210516</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>12</v>
@@ -1755,22 +1755,22 @@
         <v>1</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I32" s="3"/>
       <c r="K32" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210530OME</v>
+        <v>20210516U15ME</v>
       </c>
       <c r="L32" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210530OWE</v>
+        <v>20210516U15WE</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -1781,7 +1781,7 @@
         <v>18</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1790,22 +1790,22 @@
         <v>1</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I33" s="3"/>
       <c r="K33" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210530OMS</v>
+        <v>20210530OME</v>
       </c>
       <c r="L33" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210530OWS</v>
+        <v>20210530OWE</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -1813,10 +1813,10 @@
         <v>20210530</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1831,16 +1831,16 @@
         <v>37</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I34" s="3"/>
       <c r="K34" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210530VMF</v>
+        <v>20210530OMS</v>
       </c>
       <c r="L34" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210530VWF</v>
+        <v>20210530OWS</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -1848,7 +1848,7 @@
         <v>20210530</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>11</v>
@@ -1860,22 +1860,22 @@
         <v>1</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I35" s="3"/>
       <c r="K35" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210530OMF</v>
+        <v>20210530VMF</v>
       </c>
       <c r="L35" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210530OWF</v>
+        <v>20210530VWF</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -1883,10 +1883,10 @@
         <v>20210530</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>38</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I36" s="3"/>
       <c r="K36" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210530VME</v>
+        <v>20210530OMF</v>
       </c>
       <c r="L36" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210530VWE</v>
+        <v>20210530OWF</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -1921,7 +1921,7 @@
         <v>9</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1941,22 +1941,22 @@
       <c r="I37" s="3"/>
       <c r="K37" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210530VMS</v>
+        <v>20210530VME</v>
       </c>
       <c r="L37" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210530VWS</v>
+        <v>20210530VWE</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>20210627</v>
+        <v>20210530</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1965,10 +1965,10 @@
         <v>1</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>19</v>
@@ -1976,11 +1976,11 @@
       <c r="I38" s="3"/>
       <c r="K38" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210627U1720MF</v>
+        <v>20210530VMS</v>
       </c>
       <c r="L38" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210627U1720WF</v>
+        <v>20210530VWS</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -1988,10 +1988,10 @@
         <v>20210627</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -2000,10 +2000,10 @@
         <v>1</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>19</v>
@@ -2011,11 +2011,11 @@
       <c r="I39" s="3"/>
       <c r="K39" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210627OBME</v>
+        <v>20210627U1720MF</v>
       </c>
       <c r="L39" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210627OBWE</v>
+        <v>20210627U1720WF</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -2023,10 +2023,10 @@
         <v>20210627</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -2035,10 +2035,10 @@
         <v>1</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>19</v>
@@ -2046,11 +2046,11 @@
       <c r="I40" s="3"/>
       <c r="K40" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210627U1720MS</v>
+        <v>20210627OBME</v>
       </c>
       <c r="L40" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210627U1720WS</v>
+        <v>20210627OBWE</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -2058,10 +2058,10 @@
         <v>20210627</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -2070,10 +2070,10 @@
         <v>1</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>19</v>
@@ -2081,11 +2081,11 @@
       <c r="I41" s="3"/>
       <c r="K41" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210627OBMF</v>
+        <v>20210627U1720MS</v>
       </c>
       <c r="L41" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210627OBWF</v>
+        <v>20210627U1720WS</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -2093,10 +2093,10 @@
         <v>20210627</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -2105,10 +2105,10 @@
         <v>1</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>19</v>
@@ -2116,11 +2116,11 @@
       <c r="I42" s="3"/>
       <c r="K42" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210627U1720ME</v>
+        <v>20210627OBMF</v>
       </c>
       <c r="L42" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210627U1720WE</v>
+        <v>20210627OBWF</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -2128,10 +2128,10 @@
         <v>20210627</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -2140,7 +2140,7 @@
         <v>1</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>36</v>
@@ -2151,22 +2151,22 @@
       <c r="I43" s="3"/>
       <c r="K43" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210627OBMS</v>
+        <v>20210627U1720ME</v>
       </c>
       <c r="L43" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210627OBWS</v>
+        <v>20210627U1720WE</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>20210801</v>
+        <v>20210627</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -2175,22 +2175,22 @@
         <v>1</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I44" s="1"/>
+      <c r="I44" s="3"/>
       <c r="K44" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210801U13BE</v>
+        <v>20210627OBMS</v>
       </c>
       <c r="L44" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210801U13GE</v>
+        <v>20210627OBWS</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -2198,10 +2198,10 @@
         <v>20210801</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -2221,11 +2221,11 @@
       <c r="I45" s="1"/>
       <c r="K45" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210801U15MF</v>
+        <v>20210801U13BE</v>
       </c>
       <c r="L45" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210801U15WF</v>
+        <v>20210801U13GE</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -2233,7 +2233,7 @@
         <v>20210801</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>11</v>
@@ -2245,10 +2245,10 @@
         <v>1</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>19</v>
@@ -2256,11 +2256,11 @@
       <c r="I46" s="1"/>
       <c r="K46" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210801U11BF</v>
+        <v>20210801U15MF</v>
       </c>
       <c r="L46" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210801U11GF</v>
+        <v>20210801U15WF</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -2271,7 +2271,7 @@
         <v>20</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -2280,10 +2280,10 @@
         <v>1</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>19</v>
@@ -2291,11 +2291,11 @@
       <c r="I47" s="1"/>
       <c r="K47" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210801U11BE</v>
+        <v>20210801U11BF</v>
       </c>
       <c r="L47" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210801U11GE</v>
+        <v>20210801U11GF</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -2303,10 +2303,10 @@
         <v>20210801</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -2326,11 +2326,11 @@
       <c r="I48" s="1"/>
       <c r="K48" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210801U13BF</v>
+        <v>20210801U11BE</v>
       </c>
       <c r="L48" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210801U13GF</v>
+        <v>20210801U11GE</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -2338,10 +2338,10 @@
         <v>20210801</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -2350,10 +2350,10 @@
         <v>1</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>19</v>
@@ -2361,19 +2361,19 @@
       <c r="I49" s="1"/>
       <c r="K49" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210801U15ME</v>
+        <v>20210801U13BF</v>
       </c>
       <c r="L49" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210801U15WE</v>
+        <v>20210801U13GF</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>20210815</v>
+        <v>20210801</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>12</v>
@@ -2385,22 +2385,22 @@
         <v>1</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I50" s="1"/>
       <c r="K50" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210815OME</v>
+        <v>20210801U15ME</v>
       </c>
       <c r="L50" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210815OWE</v>
+        <v>20210801U15WE</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -2411,7 +2411,7 @@
         <v>18</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -2420,22 +2420,22 @@
         <v>1</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I51" s="1"/>
       <c r="K51" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210815OMS</v>
+        <v>20210815OME</v>
       </c>
       <c r="L51" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210815OWS</v>
+        <v>20210815OWE</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -2443,10 +2443,10 @@
         <v>20210815</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -2461,16 +2461,16 @@
         <v>37</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I52" s="1"/>
       <c r="K52" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210815VMF</v>
+        <v>20210815OMS</v>
       </c>
       <c r="L52" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210815VWF</v>
+        <v>20210815OWS</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -2478,7 +2478,7 @@
         <v>20210815</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>11</v>
@@ -2490,22 +2490,22 @@
         <v>1</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I53" s="1"/>
       <c r="K53" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210815OMF</v>
+        <v>20210815VMF</v>
       </c>
       <c r="L53" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210815OWF</v>
+        <v>20210815VWF</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -2513,10 +2513,10 @@
         <v>20210815</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -2531,16 +2531,16 @@
         <v>38</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I54" s="1"/>
       <c r="K54" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210815VME</v>
+        <v>20210815OMF</v>
       </c>
       <c r="L54" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210815VWE</v>
+        <v>20210815OWF</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -2551,7 +2551,7 @@
         <v>9</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -2571,22 +2571,22 @@
       <c r="I55" s="1"/>
       <c r="K55" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210815VMS</v>
+        <v>20210815VME</v>
       </c>
       <c r="L55" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210815VWS</v>
+        <v>20210815VWE</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>20210822</v>
+        <v>20210815</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -2595,30 +2595,30 @@
         <v>1</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="I56" s="1"/>
       <c r="K56" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210822U17MF</v>
+        <v>20210815VMS</v>
       </c>
       <c r="L56" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210822U17WF</v>
+        <v>20210815VWS</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>20210905</v>
+        <v>20210822</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>11</v>
@@ -2636,16 +2636,16 @@
         <v>33</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="I57" s="1"/>
       <c r="K57" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210905U1720MF</v>
+        <v>20210822U17MF</v>
       </c>
       <c r="L57" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210905U1720WF</v>
+        <v>20210822U17WF</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -2653,10 +2653,10 @@
         <v>20210905</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -2665,10 +2665,10 @@
         <v>1</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>24</v>
@@ -2676,11 +2676,11 @@
       <c r="I58" s="1"/>
       <c r="K58" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210905OBME</v>
+        <v>20210905U1720MF</v>
       </c>
       <c r="L58" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210905OBWE</v>
+        <v>20210905U1720WF</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -2688,10 +2688,10 @@
         <v>20210905</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -2700,10 +2700,10 @@
         <v>1</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>24</v>
@@ -2711,11 +2711,11 @@
       <c r="I59" s="1"/>
       <c r="K59" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210905U1720MS</v>
+        <v>20210905OBME</v>
       </c>
       <c r="L59" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210905U1720WS</v>
+        <v>20210905OBWE</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -2723,10 +2723,10 @@
         <v>20210905</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -2735,10 +2735,10 @@
         <v>1</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>24</v>
@@ -2746,11 +2746,11 @@
       <c r="I60" s="1"/>
       <c r="K60" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210905OBMF</v>
+        <v>20210905U1720MS</v>
       </c>
       <c r="L60" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210905OBWF</v>
+        <v>20210905U1720WS</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -2758,10 +2758,10 @@
         <v>20210905</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -2781,11 +2781,11 @@
       <c r="I61" s="1"/>
       <c r="K61" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210905U1720ME</v>
+        <v>20210905OBMF</v>
       </c>
       <c r="L61" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210905U1720WE</v>
+        <v>20210905OBWF</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -2793,10 +2793,10 @@
         <v>20210905</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -2805,7 +2805,7 @@
         <v>1</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>36</v>
@@ -2816,63 +2816,63 @@
       <c r="I62" s="1"/>
       <c r="K62" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210905OBMS</v>
+        <v>20210905U1720ME</v>
       </c>
       <c r="L62" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210905OBWS</v>
+        <v>20210905U1720WE</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>20210919</v>
+        <v>20210905</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="I63" s="1"/>
       <c r="K63" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210919U17TF</v>
+        <v>20210905OBMS</v>
       </c>
       <c r="L63" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
+        <v>20210905OBWS</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>20211017</v>
+        <v>20210919</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>26</v>
@@ -2881,16 +2881,16 @@
         <v>33</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="I64" s="1"/>
       <c r="K64" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211017OME</v>
+        <v>20210919U17TF</v>
       </c>
       <c r="L64" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211017OWE</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -2901,7 +2901,7 @@
         <v>18</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -2910,10 +2910,10 @@
         <v>1</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>24</v>
@@ -2921,11 +2921,11 @@
       <c r="I65" s="1"/>
       <c r="K65" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211017OMS</v>
+        <v>20211017OME</v>
       </c>
       <c r="L65" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211017OWS</v>
+        <v>20211017OWE</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -2933,10 +2933,10 @@
         <v>20211017</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -2956,11 +2956,11 @@
       <c r="I66" s="1"/>
       <c r="K66" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211017VMF</v>
+        <v>20211017OMS</v>
       </c>
       <c r="L66" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211017VWF</v>
+        <v>20211017OWS</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -2968,7 +2968,7 @@
         <v>20211017</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>11</v>
@@ -2980,10 +2980,10 @@
         <v>1</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>24</v>
@@ -2991,11 +2991,11 @@
       <c r="I67" s="1"/>
       <c r="K67" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211017OMF</v>
+        <v>20211017VMF</v>
       </c>
       <c r="L67" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211017OWF</v>
+        <v>20211017VWF</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -3003,10 +3003,10 @@
         <v>20211017</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -3026,11 +3026,11 @@
       <c r="I68" s="1"/>
       <c r="K68" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211017VME</v>
+        <v>20211017OMF</v>
       </c>
       <c r="L68" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211017VWE</v>
+        <v>20211017OWF</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -3041,7 +3041,7 @@
         <v>9</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -3061,22 +3061,22 @@
       <c r="I69" s="1"/>
       <c r="K69" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211017VMS</v>
+        <v>20211017VME</v>
       </c>
       <c r="L69" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211017VWS</v>
+        <v>20211017VWE</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>20211024</v>
+        <v>20211017</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -3085,22 +3085,22 @@
         <v>1</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I70" s="1"/>
       <c r="K70" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024U1720MF</v>
+        <v>20211017VMS</v>
       </c>
       <c r="L70" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024U1720WF</v>
+        <v>20211017VWS</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -3108,10 +3108,10 @@
         <v>20211024</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -3120,10 +3120,10 @@
         <v>1</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>19</v>
@@ -3131,11 +3131,11 @@
       <c r="I71" s="1"/>
       <c r="K71" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024OBME</v>
+        <v>20211024U1720MF</v>
       </c>
       <c r="L71" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024OBWE</v>
+        <v>20211024U1720WF</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -3143,10 +3143,10 @@
         <v>20211024</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -3155,10 +3155,10 @@
         <v>1</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>19</v>
@@ -3166,11 +3166,11 @@
       <c r="I72" s="1"/>
       <c r="K72" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024U1720MS</v>
+        <v>20211024OBME</v>
       </c>
       <c r="L72" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024U1720WS</v>
+        <v>20211024OBWE</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -3178,10 +3178,10 @@
         <v>20211024</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -3190,10 +3190,10 @@
         <v>1</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>19</v>
@@ -3201,11 +3201,11 @@
       <c r="I73" s="1"/>
       <c r="K73" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024OBMF</v>
+        <v>20211024U1720MS</v>
       </c>
       <c r="L73" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024OBWF</v>
+        <v>20211024U1720WS</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -3213,10 +3213,10 @@
         <v>20211024</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -3236,11 +3236,11 @@
       <c r="I74" s="1"/>
       <c r="K74" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024U1720ME</v>
+        <v>20211024OBMF</v>
       </c>
       <c r="L74" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024U1720WE</v>
+        <v>20211024OBWF</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -3248,10 +3248,10 @@
         <v>20211024</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -3260,7 +3260,7 @@
         <v>1</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>36</v>
@@ -3271,22 +3271,22 @@
       <c r="I75" s="1"/>
       <c r="K75" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024OBMS</v>
+        <v>20211024U1720ME</v>
       </c>
       <c r="L75" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024OBWS</v>
+        <v>20211024U1720WE</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>20211107</v>
+        <v>20211024</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -3295,22 +3295,22 @@
         <v>1</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I76" s="1"/>
       <c r="K76" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U13BE</v>
+        <v>20211024OBMS</v>
       </c>
       <c r="L76" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U13GE</v>
+        <v>20211024OBWS</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -3318,10 +3318,10 @@
         <v>20211107</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -3341,11 +3341,11 @@
       <c r="I77" s="1"/>
       <c r="K77" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U15MF</v>
+        <v>20211107U13BE</v>
       </c>
       <c r="L77" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U15WF</v>
+        <v>20211107U13GE</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -3353,7 +3353,7 @@
         <v>20211107</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>11</v>
@@ -3365,10 +3365,10 @@
         <v>1</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>24</v>
@@ -3376,11 +3376,11 @@
       <c r="I78" s="1"/>
       <c r="K78" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U11BF</v>
+        <v>20211107U15MF</v>
       </c>
       <c r="L78" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U11GF</v>
+        <v>20211107U15WF</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -3391,7 +3391,7 @@
         <v>20</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -3400,10 +3400,10 @@
         <v>1</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>24</v>
@@ -3411,11 +3411,11 @@
       <c r="I79" s="1"/>
       <c r="K79" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U11BE</v>
+        <v>20211107U11BF</v>
       </c>
       <c r="L79" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U11GE</v>
+        <v>20211107U11GF</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
@@ -3423,10 +3423,10 @@
         <v>20211107</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -3446,11 +3446,11 @@
       <c r="I80" s="1"/>
       <c r="K80" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U13BF</v>
+        <v>20211107U11BE</v>
       </c>
       <c r="L80" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U13GF</v>
+        <v>20211107U11GE</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
@@ -3458,10 +3458,10 @@
         <v>20211107</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -3470,10 +3470,10 @@
         <v>1</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>24</v>
@@ -3481,19 +3481,19 @@
       <c r="I81" s="1"/>
       <c r="K81" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U15ME</v>
+        <v>20211107U13BF</v>
       </c>
       <c r="L81" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U15WE</v>
+        <v>20211107U13GF</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>20211121</v>
+        <v>20211107</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>12</v>
@@ -3505,22 +3505,22 @@
         <v>1</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I82" s="1"/>
       <c r="K82" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121OME</v>
+        <v>20211107U15ME</v>
       </c>
       <c r="L82" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121OWE</v>
+        <v>20211107U15WE</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
@@ -3531,7 +3531,7 @@
         <v>18</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -3540,10 +3540,10 @@
         <v>1</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>19</v>
@@ -3551,11 +3551,11 @@
       <c r="I83" s="1"/>
       <c r="K83" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121OMS</v>
+        <v>20211121OME</v>
       </c>
       <c r="L83" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121OWS</v>
+        <v>20211121OWE</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
@@ -3563,10 +3563,10 @@
         <v>20211121</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -3586,11 +3586,11 @@
       <c r="I84" s="1"/>
       <c r="K84" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121VMF</v>
+        <v>20211121OMS</v>
       </c>
       <c r="L84" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121VWF</v>
+        <v>20211121OWS</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
@@ -3598,7 +3598,7 @@
         <v>20211121</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>11</v>
@@ -3610,10 +3610,10 @@
         <v>1</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>19</v>
@@ -3621,11 +3621,11 @@
       <c r="I85" s="1"/>
       <c r="K85" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121OMF</v>
+        <v>20211121VMF</v>
       </c>
       <c r="L85" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121OWF</v>
+        <v>20211121VWF</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
@@ -3633,10 +3633,10 @@
         <v>20211121</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -3656,11 +3656,11 @@
       <c r="I86" s="1"/>
       <c r="K86" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121VME</v>
+        <v>20211121OMF</v>
       </c>
       <c r="L86" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121VWE</v>
+        <v>20211121OWF</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
@@ -3671,7 +3671,7 @@
         <v>9</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -3691,34 +3691,34 @@
       <c r="I87" s="1"/>
       <c r="K87" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121VMS</v>
+        <v>20211121VME</v>
       </c>
       <c r="L87" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121VWS</v>
+        <v>20211121VWE</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>20211128</v>
+        <v>20211121</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D88">
         <v>0</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>19</v>
@@ -3726,11 +3726,11 @@
       <c r="I88" s="1"/>
       <c r="K88" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211128U13TE</v>
+        <v>20211121VMS</v>
       </c>
       <c r="L88" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
+        <v>20211121VWS</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
@@ -3741,7 +3741,7 @@
         <v>41</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -3761,7 +3761,7 @@
       <c r="I89" s="1"/>
       <c r="K89" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211128U13TF</v>
+        <v>20211128U13TE</v>
       </c>
       <c r="L89" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
@@ -3773,10 +3773,10 @@
         <v>20211128</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -3785,10 +3785,10 @@
         <v>0</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>19</v>
@@ -3796,7 +3796,7 @@
       <c r="I90" s="1"/>
       <c r="K90" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211128U17TE</v>
+        <v>20211128U13TF</v>
       </c>
       <c r="L90" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
@@ -3811,7 +3811,7 @@
         <v>40</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -3831,7 +3831,7 @@
       <c r="I91" s="1"/>
       <c r="K91" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211128U17TF</v>
+        <v>20211128U17TE</v>
       </c>
       <c r="L91" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
@@ -3843,9 +3843,11 @@
         <v>20211128</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C92" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="D92">
         <v>0</v>
       </c>
@@ -3853,10 +3855,10 @@
         <v>0</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>19</v>
@@ -3864,9 +3866,42 @@
       <c r="I92" s="1"/>
       <c r="K92" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
+        <v>20211128U17TF</v>
+      </c>
+      <c r="L92" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>20211128</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C93" s="1"/>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I93" s="1"/>
+      <c r="K93" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
         <v>20211128OT</v>
       </c>
-      <c r="L92" t="str">
+      <c r="L93" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
         <v>N/A</v>
       </c>

--- a/2021/2021FSAdates.xlsx
+++ b/2021/2021FSAdates.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FSA\Dropbox\Competitions\2021\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362ED9D3-F880-4119-98AF-0FB5E33747C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B5F7F0-0A5E-465C-BE75-C676A1A0CADC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="47">
   <si>
     <t>Date</t>
   </si>
@@ -297,12 +297,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I93" tableType="xml" totalsRowShown="0" connectionId="2">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I93">
-    <sortCondition ref="A9:A93"/>
-    <sortCondition ref="F9:F93"/>
-    <sortCondition ref="B9:B93"/>
-    <sortCondition ref="C9:C93"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I96" tableType="xml" totalsRowShown="0" connectionId="2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I96">
+    <sortCondition ref="A9:A96"/>
+    <sortCondition ref="F9:F96"/>
+    <sortCondition ref="B9:B96"/>
+    <sortCondition ref="C9:C96"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="Date" name="Date">
@@ -634,9 +634,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L93"/>
+  <dimension ref="A1:L96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -947,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>26</v>
@@ -961,11 +963,11 @@
       <c r="I9" s="3"/>
       <c r="K9" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210314U13BE</v>
+        <v>20210314U13E</v>
       </c>
       <c r="L9" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210314U13GE</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -982,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>26</v>
@@ -996,11 +998,11 @@
       <c r="I10" s="3"/>
       <c r="K10" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210314U15MF</v>
+        <v>20210314U15F</v>
       </c>
       <c r="L10" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210314U15WF</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1008,7 +1010,7 @@
         <v>20210314</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>11</v>
@@ -1020,10 +1022,10 @@
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>19</v>
@@ -1031,11 +1033,11 @@
       <c r="I11" s="3"/>
       <c r="K11" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210314U11BF</v>
+        <v>20210314U15MF</v>
       </c>
       <c r="L11" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210314U11GF</v>
+        <v>20210314U15WF</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1046,19 +1048,19 @@
         <v>20</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>19</v>
@@ -1066,11 +1068,11 @@
       <c r="I12" s="3"/>
       <c r="K12" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210314U11BE</v>
+        <v>20210314U11F</v>
       </c>
       <c r="L12" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210314U11GE</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1078,7 +1080,7 @@
         <v>20210314</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>11</v>
@@ -1090,10 +1092,10 @@
         <v>1</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>19</v>
@@ -1101,11 +1103,11 @@
       <c r="I13" s="3"/>
       <c r="K13" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210314U13BF</v>
+        <v>20210314U11BF</v>
       </c>
       <c r="L13" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210314U13GF</v>
+        <v>20210314U11GF</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1113,22 +1115,22 @@
         <v>20210314</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>19</v>
@@ -1136,34 +1138,34 @@
       <c r="I14" s="3"/>
       <c r="K14" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210314U15ME</v>
+        <v>N/A</v>
       </c>
       <c r="L14" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210314U15WE</v>
+        <v/>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>20210321</v>
+        <v>20210314</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>19</v>
@@ -1171,34 +1173,34 @@
       <c r="I15" s="3"/>
       <c r="K15" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210321OME</v>
+        <v>20210314U13F</v>
       </c>
       <c r="L15" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210321OWE</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>20210321</v>
+        <v>20210314</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>19</v>
@@ -1206,22 +1208,22 @@
       <c r="I16" s="3"/>
       <c r="K16" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210321OMS</v>
+        <v>20210314U15E</v>
       </c>
       <c r="L16" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210321OWS</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>20210321</v>
+        <v>20210314</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1230,10 +1232,10 @@
         <v>1</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>19</v>
@@ -1241,11 +1243,11 @@
       <c r="I17" s="3"/>
       <c r="K17" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210321VMF</v>
+        <v>20210314U15ME</v>
       </c>
       <c r="L17" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210321VWF</v>
+        <v>20210314U15WE</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1256,7 +1258,7 @@
         <v>18</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1265,10 +1267,10 @@
         <v>1</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>19</v>
@@ -1276,11 +1278,11 @@
       <c r="I18" s="3"/>
       <c r="K18" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210321OMF</v>
+        <v>20210321OME</v>
       </c>
       <c r="L18" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210321OWF</v>
+        <v>20210321OWE</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1288,10 +1290,10 @@
         <v>20210321</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1300,10 +1302,10 @@
         <v>1</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>19</v>
@@ -1311,11 +1313,11 @@
       <c r="I19" s="3"/>
       <c r="K19" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210321VME</v>
+        <v>20210321OMS</v>
       </c>
       <c r="L19" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210321VWE</v>
+        <v>20210321OWS</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1326,7 +1328,7 @@
         <v>9</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1335,10 +1337,10 @@
         <v>1</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>19</v>
@@ -1346,19 +1348,19 @@
       <c r="I20" s="3"/>
       <c r="K20" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210321VMS</v>
+        <v>20210321VMF</v>
       </c>
       <c r="L20" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210321VWS</v>
+        <v>20210321VWF</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20210502</v>
+        <v>20210321</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>11</v>
@@ -1370,10 +1372,10 @@
         <v>1</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>19</v>
@@ -1381,19 +1383,19 @@
       <c r="I21" s="3"/>
       <c r="K21" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210502U1720MF</v>
+        <v>20210321OMF</v>
       </c>
       <c r="L21" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210502U1720WF</v>
+        <v>20210321OWF</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>20210502</v>
+        <v>20210321</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>12</v>
@@ -1405,10 +1407,10 @@
         <v>1</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>19</v>
@@ -1416,19 +1418,19 @@
       <c r="I22" s="3"/>
       <c r="K22" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210502OBME</v>
+        <v>20210321VME</v>
       </c>
       <c r="L22" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210502OBWE</v>
+        <v>20210321VWE</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>20210502</v>
+        <v>20210321</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>13</v>
@@ -1440,10 +1442,10 @@
         <v>1</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>19</v>
@@ -1451,11 +1453,11 @@
       <c r="I23" s="3"/>
       <c r="K23" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210502U1720MS</v>
+        <v>20210321VMS</v>
       </c>
       <c r="L23" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210502U1720WS</v>
+        <v>20210321VWS</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -1463,7 +1465,7 @@
         <v>20210502</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>11</v>
@@ -1475,10 +1477,10 @@
         <v>1</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>19</v>
@@ -1486,11 +1488,11 @@
       <c r="I24" s="3"/>
       <c r="K24" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210502OBMF</v>
+        <v>20210502U1720MF</v>
       </c>
       <c r="L24" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210502OBWF</v>
+        <v>20210502U1720WF</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -1498,7 +1500,7 @@
         <v>20210502</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>12</v>
@@ -1510,10 +1512,10 @@
         <v>1</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>19</v>
@@ -1521,11 +1523,11 @@
       <c r="I25" s="3"/>
       <c r="K25" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210502U1720ME</v>
+        <v>20210502OBME</v>
       </c>
       <c r="L25" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210502U1720WE</v>
+        <v>20210502OBWE</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -1533,7 +1535,7 @@
         <v>20210502</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>13</v>
@@ -1545,10 +1547,10 @@
         <v>1</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>19</v>
@@ -1556,22 +1558,22 @@
       <c r="I26" s="3"/>
       <c r="K26" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210502OBMS</v>
+        <v>20210502U1720MS</v>
       </c>
       <c r="L26" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210502OBWS</v>
+        <v>20210502U1720WS</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>20210516</v>
+        <v>20210502</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1580,10 +1582,10 @@
         <v>1</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>19</v>
@@ -1591,22 +1593,22 @@
       <c r="I27" s="3"/>
       <c r="K27" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210516U13BE</v>
+        <v>20210502OBMF</v>
       </c>
       <c r="L27" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210516U13GE</v>
+        <v>20210502OBWF</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>20210516</v>
+        <v>20210502</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1615,10 +1617,10 @@
         <v>1</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>19</v>
@@ -1626,22 +1628,22 @@
       <c r="I28" s="3"/>
       <c r="K28" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210516U15MF</v>
+        <v>20210502U1720ME</v>
       </c>
       <c r="L28" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210516U15WF</v>
+        <v>20210502U1720WE</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>20210516</v>
+        <v>20210502</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1650,10 +1652,10 @@
         <v>1</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>19</v>
@@ -1661,11 +1663,11 @@
       <c r="I29" s="3"/>
       <c r="K29" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210516U11BF</v>
+        <v>20210502OBMS</v>
       </c>
       <c r="L29" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210516U11GF</v>
+        <v>20210502OBWS</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -1673,7 +1675,7 @@
         <v>20210516</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>12</v>
@@ -1685,10 +1687,10 @@
         <v>1</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>19</v>
@@ -1696,11 +1698,11 @@
       <c r="I30" s="3"/>
       <c r="K30" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210516U11BE</v>
+        <v>20210516U13BE</v>
       </c>
       <c r="L30" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210516U11GE</v>
+        <v>20210516U13GE</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -1708,7 +1710,7 @@
         <v>20210516</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>11</v>
@@ -1720,10 +1722,10 @@
         <v>1</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>19</v>
@@ -1731,11 +1733,11 @@
       <c r="I31" s="3"/>
       <c r="K31" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210516U13BF</v>
+        <v>20210516U15MF</v>
       </c>
       <c r="L31" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210516U13GF</v>
+        <v>20210516U15WF</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -1743,10 +1745,10 @@
         <v>20210516</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1755,10 +1757,10 @@
         <v>1</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>19</v>
@@ -1766,19 +1768,19 @@
       <c r="I32" s="3"/>
       <c r="K32" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210516U15ME</v>
+        <v>20210516U11BF</v>
       </c>
       <c r="L32" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210516U15WE</v>
+        <v>20210516U11GF</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>20210530</v>
+        <v>20210516</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>12</v>
@@ -1790,33 +1792,33 @@
         <v>1</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I33" s="3"/>
       <c r="K33" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210530OME</v>
+        <v>20210516U11BE</v>
       </c>
       <c r="L33" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210530OWE</v>
+        <v>20210516U11GE</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>20210530</v>
+        <v>20210516</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1825,33 +1827,33 @@
         <v>1</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I34" s="3"/>
       <c r="K34" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210530OMS</v>
+        <v>20210516U13BF</v>
       </c>
       <c r="L34" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210530OWS</v>
+        <v>20210516U13GF</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>20210530</v>
+        <v>20210516</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1860,10 +1862,10 @@
         <v>1</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>19</v>
@@ -1871,11 +1873,11 @@
       <c r="I35" s="3"/>
       <c r="K35" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210530VMF</v>
+        <v>20210516U15ME</v>
       </c>
       <c r="L35" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210530VWF</v>
+        <v>20210516U15WE</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -1886,7 +1888,7 @@
         <v>18</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1895,22 +1897,22 @@
         <v>1</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I36" s="3"/>
       <c r="K36" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210530OMF</v>
+        <v>20210530OME</v>
       </c>
       <c r="L36" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210530OWF</v>
+        <v>20210530OWE</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -1918,10 +1920,10 @@
         <v>20210530</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1930,22 +1932,22 @@
         <v>1</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I37" s="3"/>
       <c r="K37" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210530VME</v>
+        <v>20210530OMS</v>
       </c>
       <c r="L37" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210530VWE</v>
+        <v>20210530OWS</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -1956,7 +1958,7 @@
         <v>9</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1965,10 +1967,10 @@
         <v>1</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>19</v>
@@ -1976,19 +1978,19 @@
       <c r="I38" s="3"/>
       <c r="K38" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210530VMS</v>
+        <v>20210530VMF</v>
       </c>
       <c r="L38" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210530VWS</v>
+        <v>20210530VWF</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>20210627</v>
+        <v>20210530</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>11</v>
@@ -2000,30 +2002,30 @@
         <v>1</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I39" s="3"/>
       <c r="K39" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210627U1720MF</v>
+        <v>20210530OMF</v>
       </c>
       <c r="L39" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210627U1720WF</v>
+        <v>20210530OWF</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>20210627</v>
+        <v>20210530</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>12</v>
@@ -2035,10 +2037,10 @@
         <v>1</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>19</v>
@@ -2046,19 +2048,19 @@
       <c r="I40" s="3"/>
       <c r="K40" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210627OBME</v>
+        <v>20210530VME</v>
       </c>
       <c r="L40" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210627OBWE</v>
+        <v>20210530VWE</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>20210627</v>
+        <v>20210530</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>13</v>
@@ -2070,10 +2072,10 @@
         <v>1</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>19</v>
@@ -2081,11 +2083,11 @@
       <c r="I41" s="3"/>
       <c r="K41" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210627U1720MS</v>
+        <v>20210530VMS</v>
       </c>
       <c r="L41" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210627U1720WS</v>
+        <v>20210530VWS</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -2093,7 +2095,7 @@
         <v>20210627</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>11</v>
@@ -2105,10 +2107,10 @@
         <v>1</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>19</v>
@@ -2116,11 +2118,11 @@
       <c r="I42" s="3"/>
       <c r="K42" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210627OBMF</v>
+        <v>20210627U1720MF</v>
       </c>
       <c r="L42" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210627OBWF</v>
+        <v>20210627U1720WF</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -2128,7 +2130,7 @@
         <v>20210627</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>12</v>
@@ -2140,10 +2142,10 @@
         <v>1</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>19</v>
@@ -2151,11 +2153,11 @@
       <c r="I43" s="3"/>
       <c r="K43" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210627U1720ME</v>
+        <v>20210627OBME</v>
       </c>
       <c r="L43" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210627U1720WE</v>
+        <v>20210627OBWE</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -2163,7 +2165,7 @@
         <v>20210627</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>13</v>
@@ -2175,10 +2177,10 @@
         <v>1</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>19</v>
@@ -2186,22 +2188,22 @@
       <c r="I44" s="3"/>
       <c r="K44" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210627OBMS</v>
+        <v>20210627U1720MS</v>
       </c>
       <c r="L44" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210627OBWS</v>
+        <v>20210627U1720WS</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>20210801</v>
+        <v>20210627</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -2210,33 +2212,33 @@
         <v>1</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I45" s="1"/>
+      <c r="I45" s="3"/>
       <c r="K45" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210801U13BE</v>
+        <v>20210627OBMF</v>
       </c>
       <c r="L45" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210801U13GE</v>
+        <v>20210627OBWF</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>20210801</v>
+        <v>20210627</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -2245,33 +2247,33 @@
         <v>1</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I46" s="1"/>
+      <c r="I46" s="3"/>
       <c r="K46" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210801U15MF</v>
+        <v>20210627U1720ME</v>
       </c>
       <c r="L46" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210801U15WF</v>
+        <v>20210627U1720WE</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>20210801</v>
+        <v>20210627</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -2280,22 +2282,22 @@
         <v>1</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I47" s="1"/>
+      <c r="I47" s="3"/>
       <c r="K47" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210801U11BF</v>
+        <v>20210627OBMS</v>
       </c>
       <c r="L47" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210801U11GF</v>
+        <v>20210627OBWS</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -2303,7 +2305,7 @@
         <v>20210801</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>12</v>
@@ -2315,10 +2317,10 @@
         <v>1</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>19</v>
@@ -2326,11 +2328,11 @@
       <c r="I48" s="1"/>
       <c r="K48" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210801U11BE</v>
+        <v>20210801U13BE</v>
       </c>
       <c r="L48" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210801U11GE</v>
+        <v>20210801U13GE</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -2338,7 +2340,7 @@
         <v>20210801</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>11</v>
@@ -2350,10 +2352,10 @@
         <v>1</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>19</v>
@@ -2361,11 +2363,11 @@
       <c r="I49" s="1"/>
       <c r="K49" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210801U13BF</v>
+        <v>20210801U15MF</v>
       </c>
       <c r="L49" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210801U13GF</v>
+        <v>20210801U15WF</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -2373,10 +2375,10 @@
         <v>20210801</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -2385,10 +2387,10 @@
         <v>1</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>19</v>
@@ -2396,19 +2398,19 @@
       <c r="I50" s="1"/>
       <c r="K50" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210801U15ME</v>
+        <v>20210801U11BF</v>
       </c>
       <c r="L50" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210801U15WE</v>
+        <v>20210801U11GF</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>20210815</v>
+        <v>20210801</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>12</v>
@@ -2420,33 +2422,33 @@
         <v>1</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I51" s="1"/>
       <c r="K51" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210815OME</v>
+        <v>20210801U11BE</v>
       </c>
       <c r="L51" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210815OWE</v>
+        <v>20210801U11GE</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>20210815</v>
+        <v>20210801</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -2455,33 +2457,33 @@
         <v>1</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I52" s="1"/>
       <c r="K52" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210815OMS</v>
+        <v>20210801U13BF</v>
       </c>
       <c r="L52" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210815OWS</v>
+        <v>20210801U13GF</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>20210815</v>
+        <v>20210801</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -2490,10 +2492,10 @@
         <v>1</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>19</v>
@@ -2501,11 +2503,11 @@
       <c r="I53" s="1"/>
       <c r="K53" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210815VMF</v>
+        <v>20210801U15ME</v>
       </c>
       <c r="L53" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210815VWF</v>
+        <v>20210801U15WE</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -2516,7 +2518,7 @@
         <v>18</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -2525,22 +2527,22 @@
         <v>1</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I54" s="1"/>
       <c r="K54" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210815OMF</v>
+        <v>20210815OME</v>
       </c>
       <c r="L54" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210815OWF</v>
+        <v>20210815OWE</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -2548,10 +2550,10 @@
         <v>20210815</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -2560,22 +2562,22 @@
         <v>1</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I55" s="1"/>
       <c r="K55" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210815VME</v>
+        <v>20210815OMS</v>
       </c>
       <c r="L55" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210815VWE</v>
+        <v>20210815OWS</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -2586,7 +2588,7 @@
         <v>9</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -2595,10 +2597,10 @@
         <v>1</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>19</v>
@@ -2606,19 +2608,19 @@
       <c r="I56" s="1"/>
       <c r="K56" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210815VMS</v>
+        <v>20210815VMF</v>
       </c>
       <c r="L56" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210815VWS</v>
+        <v>20210815VWF</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>20210822</v>
+        <v>20210815</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>11</v>
@@ -2630,33 +2632,33 @@
         <v>1</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="I57" s="1"/>
       <c r="K57" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210822U17MF</v>
+        <v>20210815OMF</v>
       </c>
       <c r="L57" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210822U17WF</v>
+        <v>20210815OWF</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>20210905</v>
+        <v>20210815</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -2665,33 +2667,33 @@
         <v>1</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I58" s="1"/>
       <c r="K58" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210905U1720MF</v>
+        <v>20210815VME</v>
       </c>
       <c r="L58" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210905U1720WF</v>
+        <v>20210815VWE</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>20210905</v>
+        <v>20210815</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -2700,33 +2702,33 @@
         <v>1</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I59" s="1"/>
       <c r="K59" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210905OBME</v>
+        <v>20210815VMS</v>
       </c>
       <c r="L59" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210905OBWE</v>
+        <v>20210815VWS</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>20210905</v>
+        <v>20210822</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -2735,22 +2737,22 @@
         <v>1</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="I60" s="1"/>
       <c r="K60" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210905U1720MS</v>
+        <v>20210822U17MF</v>
       </c>
       <c r="L60" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210905U1720WS</v>
+        <v>20210822U17WF</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -2758,7 +2760,7 @@
         <v>20210905</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>11</v>
@@ -2770,10 +2772,10 @@
         <v>1</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>24</v>
@@ -2781,11 +2783,11 @@
       <c r="I61" s="1"/>
       <c r="K61" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210905OBMF</v>
+        <v>20210905U1720MF</v>
       </c>
       <c r="L61" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210905OBWF</v>
+        <v>20210905U1720WF</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -2793,7 +2795,7 @@
         <v>20210905</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>12</v>
@@ -2805,10 +2807,10 @@
         <v>1</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>24</v>
@@ -2816,11 +2818,11 @@
       <c r="I62" s="1"/>
       <c r="K62" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210905U1720ME</v>
+        <v>20210905OBME</v>
       </c>
       <c r="L62" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210905U1720WE</v>
+        <v>20210905OBWE</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -2828,7 +2830,7 @@
         <v>20210905</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>13</v>
@@ -2840,10 +2842,10 @@
         <v>1</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>24</v>
@@ -2851,19 +2853,19 @@
       <c r="I63" s="1"/>
       <c r="K63" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210905OBMS</v>
+        <v>20210905U1720MS</v>
       </c>
       <c r="L63" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210905OBWS</v>
+        <v>20210905U1720WS</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>20210919</v>
+        <v>20210905</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>11</v>
@@ -2872,33 +2874,33 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="I64" s="1"/>
       <c r="K64" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210919U17TF</v>
+        <v>20210905OBMF</v>
       </c>
       <c r="L64" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
+        <v>20210905OBWF</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>20211017</v>
+        <v>20210905</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>12</v>
@@ -2910,10 +2912,10 @@
         <v>1</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>24</v>
@@ -2921,19 +2923,19 @@
       <c r="I65" s="1"/>
       <c r="K65" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211017OME</v>
+        <v>20210905U1720ME</v>
       </c>
       <c r="L65" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211017OWE</v>
+        <v>20210905U1720WE</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>20211017</v>
+        <v>20210905</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>13</v>
@@ -2945,10 +2947,10 @@
         <v>1</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>24</v>
@@ -2956,19 +2958,19 @@
       <c r="I66" s="1"/>
       <c r="K66" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211017OMS</v>
+        <v>20210905OBMS</v>
       </c>
       <c r="L66" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211017OWS</v>
+        <v>20210905OBWS</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>20211017</v>
+        <v>20210919</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>11</v>
@@ -2977,25 +2979,25 @@
         <v>0</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="I67" s="1"/>
       <c r="K67" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211017VMF</v>
+        <v>20210919U17TF</v>
       </c>
       <c r="L67" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211017VWF</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -3006,7 +3008,7 @@
         <v>18</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -3015,10 +3017,10 @@
         <v>1</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>24</v>
@@ -3026,11 +3028,11 @@
       <c r="I68" s="1"/>
       <c r="K68" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211017OMF</v>
+        <v>20211017OME</v>
       </c>
       <c r="L68" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211017OWF</v>
+        <v>20211017OWE</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -3038,10 +3040,10 @@
         <v>20211017</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -3050,10 +3052,10 @@
         <v>1</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>24</v>
@@ -3061,11 +3063,11 @@
       <c r="I69" s="1"/>
       <c r="K69" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211017VME</v>
+        <v>20211017OMS</v>
       </c>
       <c r="L69" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211017VWE</v>
+        <v>20211017OWS</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -3076,7 +3078,7 @@
         <v>9</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -3085,10 +3087,10 @@
         <v>1</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>24</v>
@@ -3096,19 +3098,19 @@
       <c r="I70" s="1"/>
       <c r="K70" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211017VMS</v>
+        <v>20211017VMF</v>
       </c>
       <c r="L70" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211017VWS</v>
+        <v>20211017VWF</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>20211024</v>
+        <v>20211017</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>11</v>
@@ -3120,30 +3122,30 @@
         <v>1</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I71" s="1"/>
       <c r="K71" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024U1720MF</v>
+        <v>20211017OMF</v>
       </c>
       <c r="L71" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024U1720WF</v>
+        <v>20211017OWF</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>20211024</v>
+        <v>20211017</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>12</v>
@@ -3155,30 +3157,30 @@
         <v>1</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I72" s="1"/>
       <c r="K72" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024OBME</v>
+        <v>20211017VME</v>
       </c>
       <c r="L72" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024OBWE</v>
+        <v>20211017VWE</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>20211024</v>
+        <v>20211017</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>13</v>
@@ -3190,22 +3192,22 @@
         <v>1</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I73" s="1"/>
       <c r="K73" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024U1720MS</v>
+        <v>20211017VMS</v>
       </c>
       <c r="L73" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024U1720WS</v>
+        <v>20211017VWS</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -3213,7 +3215,7 @@
         <v>20211024</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>11</v>
@@ -3225,10 +3227,10 @@
         <v>1</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>19</v>
@@ -3236,11 +3238,11 @@
       <c r="I74" s="1"/>
       <c r="K74" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024OBMF</v>
+        <v>20211024U1720MF</v>
       </c>
       <c r="L74" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024OBWF</v>
+        <v>20211024U1720WF</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -3248,7 +3250,7 @@
         <v>20211024</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>12</v>
@@ -3260,10 +3262,10 @@
         <v>1</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>19</v>
@@ -3271,11 +3273,11 @@
       <c r="I75" s="1"/>
       <c r="K75" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024U1720ME</v>
+        <v>20211024OBME</v>
       </c>
       <c r="L75" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024U1720WE</v>
+        <v>20211024OBWE</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -3283,7 +3285,7 @@
         <v>20211024</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>13</v>
@@ -3295,10 +3297,10 @@
         <v>1</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>19</v>
@@ -3306,22 +3308,22 @@
       <c r="I76" s="1"/>
       <c r="K76" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024OBMS</v>
+        <v>20211024U1720MS</v>
       </c>
       <c r="L76" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024OBWS</v>
+        <v>20211024U1720WS</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>20211107</v>
+        <v>20211024</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -3330,33 +3332,33 @@
         <v>1</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I77" s="1"/>
       <c r="K77" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U13BE</v>
+        <v>20211024OBMF</v>
       </c>
       <c r="L77" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U13GE</v>
+        <v>20211024OBWF</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>20211107</v>
+        <v>20211024</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -3365,33 +3367,33 @@
         <v>1</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I78" s="1"/>
       <c r="K78" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U15MF</v>
+        <v>20211024U1720ME</v>
       </c>
       <c r="L78" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U15WF</v>
+        <v>20211024U1720WE</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>20211107</v>
+        <v>20211024</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -3400,22 +3402,22 @@
         <v>1</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I79" s="1"/>
       <c r="K79" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U11BF</v>
+        <v>20211024OBMS</v>
       </c>
       <c r="L79" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U11GF</v>
+        <v>20211024OBWS</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
@@ -3423,7 +3425,7 @@
         <v>20211107</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>12</v>
@@ -3435,10 +3437,10 @@
         <v>1</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>24</v>
@@ -3446,11 +3448,11 @@
       <c r="I80" s="1"/>
       <c r="K80" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U11BE</v>
+        <v>20211107U13BE</v>
       </c>
       <c r="L80" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U11GE</v>
+        <v>20211107U13GE</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
@@ -3458,7 +3460,7 @@
         <v>20211107</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>11</v>
@@ -3470,10 +3472,10 @@
         <v>1</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>24</v>
@@ -3481,11 +3483,11 @@
       <c r="I81" s="1"/>
       <c r="K81" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U13BF</v>
+        <v>20211107U15MF</v>
       </c>
       <c r="L81" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U13GF</v>
+        <v>20211107U15WF</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
@@ -3493,10 +3495,10 @@
         <v>20211107</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -3505,10 +3507,10 @@
         <v>1</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>24</v>
@@ -3516,19 +3518,19 @@
       <c r="I82" s="1"/>
       <c r="K82" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U15ME</v>
+        <v>20211107U11BF</v>
       </c>
       <c r="L82" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U15WE</v>
+        <v>20211107U11GF</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>20211121</v>
+        <v>20211107</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>12</v>
@@ -3540,33 +3542,33 @@
         <v>1</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I83" s="1"/>
       <c r="K83" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121OME</v>
+        <v>20211107U11BE</v>
       </c>
       <c r="L83" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121OWE</v>
+        <v>20211107U11GE</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>20211121</v>
+        <v>20211107</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -3575,33 +3577,33 @@
         <v>1</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I84" s="1"/>
       <c r="K84" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121OMS</v>
+        <v>20211107U13BF</v>
       </c>
       <c r="L84" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121OWS</v>
+        <v>20211107U13GF</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>20211121</v>
+        <v>20211107</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -3610,22 +3612,22 @@
         <v>1</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I85" s="1"/>
       <c r="K85" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121VMF</v>
+        <v>20211107U15ME</v>
       </c>
       <c r="L85" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121VWF</v>
+        <v>20211107U15WE</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
@@ -3636,7 +3638,7 @@
         <v>18</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -3645,10 +3647,10 @@
         <v>1</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>19</v>
@@ -3656,11 +3658,11 @@
       <c r="I86" s="1"/>
       <c r="K86" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121OMF</v>
+        <v>20211121OME</v>
       </c>
       <c r="L86" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121OWF</v>
+        <v>20211121OWE</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
@@ -3668,10 +3670,10 @@
         <v>20211121</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -3680,10 +3682,10 @@
         <v>1</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>19</v>
@@ -3691,11 +3693,11 @@
       <c r="I87" s="1"/>
       <c r="K87" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121VME</v>
+        <v>20211121OMS</v>
       </c>
       <c r="L87" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121VWE</v>
+        <v>20211121OWS</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
@@ -3706,7 +3708,7 @@
         <v>9</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -3715,10 +3717,10 @@
         <v>1</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>19</v>
@@ -3726,34 +3728,34 @@
       <c r="I88" s="1"/>
       <c r="K88" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121VMS</v>
+        <v>20211121VMF</v>
       </c>
       <c r="L88" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121VWS</v>
+        <v>20211121VWF</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>20211128</v>
+        <v>20211121</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D89">
         <v>0</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>19</v>
@@ -3761,34 +3763,34 @@
       <c r="I89" s="1"/>
       <c r="K89" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211128U13TE</v>
+        <v>20211121OMF</v>
       </c>
       <c r="L89" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
+        <v>20211121OWF</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>20211128</v>
+        <v>20211121</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D90">
         <v>0</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>19</v>
@@ -3796,34 +3798,34 @@
       <c r="I90" s="1"/>
       <c r="K90" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211128U13TF</v>
+        <v>20211121VME</v>
       </c>
       <c r="L90" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
+        <v>20211121VWE</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>20211128</v>
+        <v>20211121</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D91">
         <v>0</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>19</v>
@@ -3831,11 +3833,11 @@
       <c r="I91" s="1"/>
       <c r="K91" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211128U17TE</v>
+        <v>20211121VMS</v>
       </c>
       <c r="L91" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
+        <v>20211121VWS</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
@@ -3843,10 +3845,10 @@
         <v>20211128</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -3855,10 +3857,10 @@
         <v>0</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>19</v>
@@ -3866,7 +3868,7 @@
       <c r="I92" s="1"/>
       <c r="K92" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211128U17TF</v>
+        <v>20211128U13TE</v>
       </c>
       <c r="L92" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
@@ -3878,9 +3880,11 @@
         <v>20211128</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C93" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="D93">
         <v>0</v>
       </c>
@@ -3888,10 +3892,10 @@
         <v>0</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>19</v>
@@ -3899,9 +3903,112 @@
       <c r="I93" s="1"/>
       <c r="K93" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
+        <v>20211128U13TF</v>
+      </c>
+      <c r="L93" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>20211128</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I94" s="1"/>
+      <c r="K94" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
+        <v>20211128U17TE</v>
+      </c>
+      <c r="L94" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>20211128</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I95" s="1"/>
+      <c r="K95" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
+        <v>20211128U17TF</v>
+      </c>
+      <c r="L95" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>20211128</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C96" s="1"/>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I96" s="1"/>
+      <c r="K96" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
         <v>20211128OT</v>
       </c>
-      <c r="L93" t="str">
+      <c r="L96" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
         <v>N/A</v>
       </c>

--- a/2021/2021FSAdates.xlsx
+++ b/2021/2021FSAdates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FSA\Dropbox\Competitions\2021\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B5F7F0-0A5E-465C-BE75-C676A1A0CADC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F245A7-1B55-42D3-BE0C-92ABCEC7B524}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6465" yWindow="1485" windowWidth="10635" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="47">
   <si>
     <t>Date</t>
   </si>
@@ -297,12 +297,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I96" tableType="xml" totalsRowShown="0" connectionId="2">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I96">
-    <sortCondition ref="A9:A96"/>
-    <sortCondition ref="F9:F96"/>
-    <sortCondition ref="B9:B96"/>
-    <sortCondition ref="C9:C96"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I97" tableType="xml" totalsRowShown="0" connectionId="2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I97">
+    <sortCondition ref="A9:A97"/>
+    <sortCondition ref="F9:F97"/>
+    <sortCondition ref="B9:B97"/>
+    <sortCondition ref="C9:C97"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="Date" name="Date">
@@ -634,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L96"/>
+  <dimension ref="A1:L97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>31</v>
@@ -1313,11 +1313,11 @@
       <c r="I19" s="3"/>
       <c r="K19" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210321OMS</v>
+        <v>20210321OS</v>
       </c>
       <c r="L19" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210321OWS</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1325,10 +1325,10 @@
         <v>20210321</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1348,11 +1348,11 @@
       <c r="I20" s="3"/>
       <c r="K20" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210321VMF</v>
+        <v>20210321OMS</v>
       </c>
       <c r="L20" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210321VWF</v>
+        <v>20210321OWS</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1360,22 +1360,22 @@
         <v>20210321</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>19</v>
@@ -1383,11 +1383,11 @@
       <c r="I21" s="3"/>
       <c r="K21" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210321OMF</v>
+        <v>N/A</v>
       </c>
       <c r="L21" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210321OWF</v>
+        <v/>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1395,10 +1395,10 @@
         <v>20210321</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1418,11 +1418,11 @@
       <c r="I22" s="3"/>
       <c r="K22" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210321VME</v>
+        <v>20210321OMF</v>
       </c>
       <c r="L22" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210321VWE</v>
+        <v>20210321OWF</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -1433,13 +1433,13 @@
         <v>9</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>32</v>
@@ -1453,34 +1453,34 @@
       <c r="I23" s="3"/>
       <c r="K23" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210321VMS</v>
+        <v>20210321VE</v>
       </c>
       <c r="L23" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210321VWS</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>20210502</v>
+        <v>20210321</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>19</v>
@@ -1488,11 +1488,11 @@
       <c r="I24" s="3"/>
       <c r="K24" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210502U1720MF</v>
+        <v>N/A</v>
       </c>
       <c r="L24" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210502U1720WF</v>
+        <v/>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -1500,10 +1500,10 @@
         <v>20210502</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1512,10 +1512,10 @@
         <v>1</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>19</v>
@@ -1523,11 +1523,11 @@
       <c r="I25" s="3"/>
       <c r="K25" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210502OBME</v>
+        <v>20210502U1720MF</v>
       </c>
       <c r="L25" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210502OBWE</v>
+        <v>20210502U1720WF</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -1535,10 +1535,10 @@
         <v>20210502</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1547,10 +1547,10 @@
         <v>1</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>19</v>
@@ -1558,11 +1558,11 @@
       <c r="I26" s="3"/>
       <c r="K26" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210502U1720MS</v>
+        <v>20210502OBME</v>
       </c>
       <c r="L26" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210502U1720WS</v>
+        <v>20210502OBWE</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -1570,10 +1570,10 @@
         <v>20210502</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1582,10 +1582,10 @@
         <v>1</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>19</v>
@@ -1593,11 +1593,11 @@
       <c r="I27" s="3"/>
       <c r="K27" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210502OBMF</v>
+        <v>20210502U1720MS</v>
       </c>
       <c r="L27" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210502OBWF</v>
+        <v>20210502U1720WS</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -1605,10 +1605,10 @@
         <v>20210502</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1617,10 +1617,10 @@
         <v>1</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>19</v>
@@ -1628,11 +1628,11 @@
       <c r="I28" s="3"/>
       <c r="K28" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210502U1720ME</v>
+        <v>20210502OBMF</v>
       </c>
       <c r="L28" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210502U1720WE</v>
+        <v>20210502OBWF</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -1640,10 +1640,10 @@
         <v>20210502</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1652,7 +1652,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>36</v>
@@ -1663,22 +1663,22 @@
       <c r="I29" s="3"/>
       <c r="K29" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210502OBMS</v>
+        <v>20210502U1720ME</v>
       </c>
       <c r="L29" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210502OBWS</v>
+        <v>20210502U1720WE</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>20210516</v>
+        <v>20210502</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1687,10 +1687,10 @@
         <v>1</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>19</v>
@@ -1698,11 +1698,11 @@
       <c r="I30" s="3"/>
       <c r="K30" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210516U13BE</v>
+        <v>20210502OBMS</v>
       </c>
       <c r="L30" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210516U13GE</v>
+        <v>20210502OBWS</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -1710,10 +1710,10 @@
         <v>20210516</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1733,11 +1733,11 @@
       <c r="I31" s="3"/>
       <c r="K31" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210516U15MF</v>
+        <v>20210516U13BE</v>
       </c>
       <c r="L31" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210516U15WF</v>
+        <v>20210516U13GE</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -1745,7 +1745,7 @@
         <v>20210516</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>11</v>
@@ -1757,10 +1757,10 @@
         <v>1</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>19</v>
@@ -1768,11 +1768,11 @@
       <c r="I32" s="3"/>
       <c r="K32" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210516U11BF</v>
+        <v>20210516U15MF</v>
       </c>
       <c r="L32" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210516U11GF</v>
+        <v>20210516U15WF</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -1783,7 +1783,7 @@
         <v>20</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1792,10 +1792,10 @@
         <v>1</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>19</v>
@@ -1803,11 +1803,11 @@
       <c r="I33" s="3"/>
       <c r="K33" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210516U11BE</v>
+        <v>20210516U11BF</v>
       </c>
       <c r="L33" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210516U11GE</v>
+        <v>20210516U11GF</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -1815,10 +1815,10 @@
         <v>20210516</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1838,11 +1838,11 @@
       <c r="I34" s="3"/>
       <c r="K34" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210516U13BF</v>
+        <v>20210516U11BE</v>
       </c>
       <c r="L34" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210516U13GF</v>
+        <v>20210516U11GE</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -1850,10 +1850,10 @@
         <v>20210516</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1862,10 +1862,10 @@
         <v>1</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>19</v>
@@ -1873,19 +1873,19 @@
       <c r="I35" s="3"/>
       <c r="K35" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210516U15ME</v>
+        <v>20210516U13BF</v>
       </c>
       <c r="L35" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210516U15WE</v>
+        <v>20210516U13GF</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>20210530</v>
+        <v>20210516</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>12</v>
@@ -1897,22 +1897,22 @@
         <v>1</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I36" s="3"/>
       <c r="K36" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210530OME</v>
+        <v>20210516U15ME</v>
       </c>
       <c r="L36" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210530OWE</v>
+        <v>20210516U15WE</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -1923,7 +1923,7 @@
         <v>18</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1932,22 +1932,22 @@
         <v>1</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I37" s="3"/>
       <c r="K37" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210530OMS</v>
+        <v>20210530OME</v>
       </c>
       <c r="L37" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210530OWS</v>
+        <v>20210530OWE</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -1955,10 +1955,10 @@
         <v>20210530</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1973,16 +1973,16 @@
         <v>37</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I38" s="3"/>
       <c r="K38" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210530VMF</v>
+        <v>20210530OMS</v>
       </c>
       <c r="L38" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210530VWF</v>
+        <v>20210530OWS</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -1990,7 +1990,7 @@
         <v>20210530</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>11</v>
@@ -2002,22 +2002,22 @@
         <v>1</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I39" s="3"/>
       <c r="K39" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210530OMF</v>
+        <v>20210530VMF</v>
       </c>
       <c r="L39" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210530OWF</v>
+        <v>20210530VWF</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -2025,10 +2025,10 @@
         <v>20210530</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -2043,16 +2043,16 @@
         <v>38</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I40" s="3"/>
       <c r="K40" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210530VME</v>
+        <v>20210530OMF</v>
       </c>
       <c r="L40" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210530VWE</v>
+        <v>20210530OWF</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -2063,7 +2063,7 @@
         <v>9</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -2083,22 +2083,22 @@
       <c r="I41" s="3"/>
       <c r="K41" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210530VMS</v>
+        <v>20210530VME</v>
       </c>
       <c r="L41" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210530VWS</v>
+        <v>20210530VWE</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>20210627</v>
+        <v>20210530</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -2107,10 +2107,10 @@
         <v>1</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>19</v>
@@ -2118,11 +2118,11 @@
       <c r="I42" s="3"/>
       <c r="K42" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210627U1720MF</v>
+        <v>20210530VMS</v>
       </c>
       <c r="L42" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210627U1720WF</v>
+        <v>20210530VWS</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -2130,10 +2130,10 @@
         <v>20210627</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -2142,10 +2142,10 @@
         <v>1</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>19</v>
@@ -2153,11 +2153,11 @@
       <c r="I43" s="3"/>
       <c r="K43" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210627OBME</v>
+        <v>20210627U1720MF</v>
       </c>
       <c r="L43" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210627OBWE</v>
+        <v>20210627U1720WF</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -2165,10 +2165,10 @@
         <v>20210627</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -2177,10 +2177,10 @@
         <v>1</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>19</v>
@@ -2188,11 +2188,11 @@
       <c r="I44" s="3"/>
       <c r="K44" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210627U1720MS</v>
+        <v>20210627OBME</v>
       </c>
       <c r="L44" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210627U1720WS</v>
+        <v>20210627OBWE</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -2200,10 +2200,10 @@
         <v>20210627</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -2212,10 +2212,10 @@
         <v>1</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>19</v>
@@ -2223,11 +2223,11 @@
       <c r="I45" s="3"/>
       <c r="K45" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210627OBMF</v>
+        <v>20210627U1720MS</v>
       </c>
       <c r="L45" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210627OBWF</v>
+        <v>20210627U1720WS</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -2235,10 +2235,10 @@
         <v>20210627</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -2247,10 +2247,10 @@
         <v>1</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>19</v>
@@ -2258,11 +2258,11 @@
       <c r="I46" s="3"/>
       <c r="K46" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210627U1720ME</v>
+        <v>20210627OBMF</v>
       </c>
       <c r="L46" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210627U1720WE</v>
+        <v>20210627OBWF</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -2270,10 +2270,10 @@
         <v>20210627</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -2282,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>36</v>
@@ -2293,22 +2293,22 @@
       <c r="I47" s="3"/>
       <c r="K47" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210627OBMS</v>
+        <v>20210627U1720ME</v>
       </c>
       <c r="L47" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210627OBWS</v>
+        <v>20210627U1720WE</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>20210801</v>
+        <v>20210627</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -2317,22 +2317,22 @@
         <v>1</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I48" s="1"/>
+      <c r="I48" s="3"/>
       <c r="K48" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210801U13BE</v>
+        <v>20210627OBMS</v>
       </c>
       <c r="L48" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210801U13GE</v>
+        <v>20210627OBWS</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -2340,10 +2340,10 @@
         <v>20210801</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -2363,11 +2363,11 @@
       <c r="I49" s="1"/>
       <c r="K49" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210801U15MF</v>
+        <v>20210801U13BE</v>
       </c>
       <c r="L49" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210801U15WF</v>
+        <v>20210801U13GE</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -2375,7 +2375,7 @@
         <v>20210801</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>11</v>
@@ -2387,10 +2387,10 @@
         <v>1</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>19</v>
@@ -2398,11 +2398,11 @@
       <c r="I50" s="1"/>
       <c r="K50" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210801U11BF</v>
+        <v>20210801U15MF</v>
       </c>
       <c r="L50" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210801U11GF</v>
+        <v>20210801U15WF</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -2413,7 +2413,7 @@
         <v>20</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -2422,10 +2422,10 @@
         <v>1</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>19</v>
@@ -2433,11 +2433,11 @@
       <c r="I51" s="1"/>
       <c r="K51" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210801U11BE</v>
+        <v>20210801U11BF</v>
       </c>
       <c r="L51" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210801U11GE</v>
+        <v>20210801U11GF</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -2445,10 +2445,10 @@
         <v>20210801</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -2468,11 +2468,11 @@
       <c r="I52" s="1"/>
       <c r="K52" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210801U13BF</v>
+        <v>20210801U11BE</v>
       </c>
       <c r="L52" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210801U13GF</v>
+        <v>20210801U11GE</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -2480,10 +2480,10 @@
         <v>20210801</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -2492,10 +2492,10 @@
         <v>1</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>19</v>
@@ -2503,19 +2503,19 @@
       <c r="I53" s="1"/>
       <c r="K53" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210801U15ME</v>
+        <v>20210801U13BF</v>
       </c>
       <c r="L53" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210801U15WE</v>
+        <v>20210801U13GF</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>20210815</v>
+        <v>20210801</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>12</v>
@@ -2527,22 +2527,22 @@
         <v>1</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I54" s="1"/>
       <c r="K54" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210815OME</v>
+        <v>20210801U15ME</v>
       </c>
       <c r="L54" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210815OWE</v>
+        <v>20210801U15WE</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -2553,7 +2553,7 @@
         <v>18</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -2562,22 +2562,22 @@
         <v>1</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I55" s="1"/>
       <c r="K55" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210815OMS</v>
+        <v>20210815OME</v>
       </c>
       <c r="L55" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210815OWS</v>
+        <v>20210815OWE</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -2585,10 +2585,10 @@
         <v>20210815</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -2603,16 +2603,16 @@
         <v>37</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I56" s="1"/>
       <c r="K56" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210815VMF</v>
+        <v>20210815OMS</v>
       </c>
       <c r="L56" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210815VWF</v>
+        <v>20210815OWS</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -2620,7 +2620,7 @@
         <v>20210815</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>11</v>
@@ -2632,22 +2632,22 @@
         <v>1</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I57" s="1"/>
       <c r="K57" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210815OMF</v>
+        <v>20210815VMF</v>
       </c>
       <c r="L57" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210815OWF</v>
+        <v>20210815VWF</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -2655,10 +2655,10 @@
         <v>20210815</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -2673,16 +2673,16 @@
         <v>38</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I58" s="1"/>
       <c r="K58" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210815VME</v>
+        <v>20210815OMF</v>
       </c>
       <c r="L58" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210815VWE</v>
+        <v>20210815OWF</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -2693,7 +2693,7 @@
         <v>9</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -2713,22 +2713,22 @@
       <c r="I59" s="1"/>
       <c r="K59" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210815VMS</v>
+        <v>20210815VME</v>
       </c>
       <c r="L59" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210815VWS</v>
+        <v>20210815VWE</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>20210822</v>
+        <v>20210815</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -2737,30 +2737,30 @@
         <v>1</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="I60" s="1"/>
       <c r="K60" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210822U17MF</v>
+        <v>20210815VMS</v>
       </c>
       <c r="L60" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210822U17WF</v>
+        <v>20210815VWS</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>20210905</v>
+        <v>20210822</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>11</v>
@@ -2778,16 +2778,16 @@
         <v>33</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="I61" s="1"/>
       <c r="K61" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210905U1720MF</v>
+        <v>20210822U17MF</v>
       </c>
       <c r="L61" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210905U1720WF</v>
+        <v>20210822U17WF</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -2795,10 +2795,10 @@
         <v>20210905</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -2807,10 +2807,10 @@
         <v>1</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>24</v>
@@ -2818,11 +2818,11 @@
       <c r="I62" s="1"/>
       <c r="K62" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210905OBME</v>
+        <v>20210905U1720MF</v>
       </c>
       <c r="L62" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210905OBWE</v>
+        <v>20210905U1720WF</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -2830,10 +2830,10 @@
         <v>20210905</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>1</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>24</v>
@@ -2853,11 +2853,11 @@
       <c r="I63" s="1"/>
       <c r="K63" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210905U1720MS</v>
+        <v>20210905OBME</v>
       </c>
       <c r="L63" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210905U1720WS</v>
+        <v>20210905OBWE</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -2865,10 +2865,10 @@
         <v>20210905</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -2877,10 +2877,10 @@
         <v>1</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>24</v>
@@ -2888,11 +2888,11 @@
       <c r="I64" s="1"/>
       <c r="K64" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210905OBMF</v>
+        <v>20210905U1720MS</v>
       </c>
       <c r="L64" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210905OBWF</v>
+        <v>20210905U1720WS</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -2900,10 +2900,10 @@
         <v>20210905</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -2923,11 +2923,11 @@
       <c r="I65" s="1"/>
       <c r="K65" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210905U1720ME</v>
+        <v>20210905OBMF</v>
       </c>
       <c r="L65" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210905U1720WE</v>
+        <v>20210905OBWF</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -2935,10 +2935,10 @@
         <v>20210905</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -2947,7 +2947,7 @@
         <v>1</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>36</v>
@@ -2958,63 +2958,63 @@
       <c r="I66" s="1"/>
       <c r="K66" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210905OBMS</v>
+        <v>20210905U1720ME</v>
       </c>
       <c r="L66" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210905OBWS</v>
+        <v>20210905U1720WE</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>20210919</v>
+        <v>20210905</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="I67" s="1"/>
       <c r="K67" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210919U17TF</v>
+        <v>20210905OBMS</v>
       </c>
       <c r="L67" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
+        <v>20210905OBWS</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>20211017</v>
+        <v>20210919</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>26</v>
@@ -3023,16 +3023,16 @@
         <v>33</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="I68" s="1"/>
       <c r="K68" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211017OME</v>
+        <v>20210919U17TF</v>
       </c>
       <c r="L68" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211017OWE</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -3043,7 +3043,7 @@
         <v>18</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -3052,10 +3052,10 @@
         <v>1</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>24</v>
@@ -3063,11 +3063,11 @@
       <c r="I69" s="1"/>
       <c r="K69" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211017OMS</v>
+        <v>20211017OME</v>
       </c>
       <c r="L69" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211017OWS</v>
+        <v>20211017OWE</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -3075,10 +3075,10 @@
         <v>20211017</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -3098,11 +3098,11 @@
       <c r="I70" s="1"/>
       <c r="K70" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211017VMF</v>
+        <v>20211017OMS</v>
       </c>
       <c r="L70" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211017VWF</v>
+        <v>20211017OWS</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -3110,7 +3110,7 @@
         <v>20211017</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>11</v>
@@ -3122,10 +3122,10 @@
         <v>1</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>24</v>
@@ -3133,11 +3133,11 @@
       <c r="I71" s="1"/>
       <c r="K71" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211017OMF</v>
+        <v>20211017VMF</v>
       </c>
       <c r="L71" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211017OWF</v>
+        <v>20211017VWF</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -3145,10 +3145,10 @@
         <v>20211017</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -3168,11 +3168,11 @@
       <c r="I72" s="1"/>
       <c r="K72" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211017VME</v>
+        <v>20211017OMF</v>
       </c>
       <c r="L72" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211017VWE</v>
+        <v>20211017OWF</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -3183,7 +3183,7 @@
         <v>9</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -3203,22 +3203,22 @@
       <c r="I73" s="1"/>
       <c r="K73" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211017VMS</v>
+        <v>20211017VME</v>
       </c>
       <c r="L73" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211017VWS</v>
+        <v>20211017VWE</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>20211024</v>
+        <v>20211017</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -3227,22 +3227,22 @@
         <v>1</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I74" s="1"/>
       <c r="K74" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024U1720MF</v>
+        <v>20211017VMS</v>
       </c>
       <c r="L74" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024U1720WF</v>
+        <v>20211017VWS</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -3250,10 +3250,10 @@
         <v>20211024</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -3262,10 +3262,10 @@
         <v>1</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>19</v>
@@ -3273,11 +3273,11 @@
       <c r="I75" s="1"/>
       <c r="K75" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024OBME</v>
+        <v>20211024U1720MF</v>
       </c>
       <c r="L75" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024OBWE</v>
+        <v>20211024U1720WF</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -3285,10 +3285,10 @@
         <v>20211024</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -3297,10 +3297,10 @@
         <v>1</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>19</v>
@@ -3308,11 +3308,11 @@
       <c r="I76" s="1"/>
       <c r="K76" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024U1720MS</v>
+        <v>20211024OBME</v>
       </c>
       <c r="L76" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024U1720WS</v>
+        <v>20211024OBWE</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -3320,10 +3320,10 @@
         <v>20211024</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -3332,10 +3332,10 @@
         <v>1</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>19</v>
@@ -3343,11 +3343,11 @@
       <c r="I77" s="1"/>
       <c r="K77" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024OBMF</v>
+        <v>20211024U1720MS</v>
       </c>
       <c r="L77" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024OBWF</v>
+        <v>20211024U1720WS</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -3355,10 +3355,10 @@
         <v>20211024</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -3378,11 +3378,11 @@
       <c r="I78" s="1"/>
       <c r="K78" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024U1720ME</v>
+        <v>20211024OBMF</v>
       </c>
       <c r="L78" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024U1720WE</v>
+        <v>20211024OBWF</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -3390,10 +3390,10 @@
         <v>20211024</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>36</v>
@@ -3413,22 +3413,22 @@
       <c r="I79" s="1"/>
       <c r="K79" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024OBMS</v>
+        <v>20211024U1720ME</v>
       </c>
       <c r="L79" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024OBWS</v>
+        <v>20211024U1720WE</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>20211107</v>
+        <v>20211024</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -3437,22 +3437,22 @@
         <v>1</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I80" s="1"/>
       <c r="K80" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U13BE</v>
+        <v>20211024OBMS</v>
       </c>
       <c r="L80" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U13GE</v>
+        <v>20211024OBWS</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
@@ -3460,10 +3460,10 @@
         <v>20211107</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -3483,11 +3483,11 @@
       <c r="I81" s="1"/>
       <c r="K81" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U15MF</v>
+        <v>20211107U13BE</v>
       </c>
       <c r="L81" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U15WF</v>
+        <v>20211107U13GE</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
@@ -3495,7 +3495,7 @@
         <v>20211107</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>11</v>
@@ -3507,10 +3507,10 @@
         <v>1</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>24</v>
@@ -3518,11 +3518,11 @@
       <c r="I82" s="1"/>
       <c r="K82" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U11BF</v>
+        <v>20211107U15MF</v>
       </c>
       <c r="L82" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U11GF</v>
+        <v>20211107U15WF</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
@@ -3533,7 +3533,7 @@
         <v>20</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -3542,10 +3542,10 @@
         <v>1</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>24</v>
@@ -3553,11 +3553,11 @@
       <c r="I83" s="1"/>
       <c r="K83" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U11BE</v>
+        <v>20211107U11BF</v>
       </c>
       <c r="L83" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U11GE</v>
+        <v>20211107U11GF</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
@@ -3565,10 +3565,10 @@
         <v>20211107</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -3588,11 +3588,11 @@
       <c r="I84" s="1"/>
       <c r="K84" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U13BF</v>
+        <v>20211107U11BE</v>
       </c>
       <c r="L84" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U13GF</v>
+        <v>20211107U11GE</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
@@ -3600,10 +3600,10 @@
         <v>20211107</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -3612,10 +3612,10 @@
         <v>1</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>24</v>
@@ -3623,19 +3623,19 @@
       <c r="I85" s="1"/>
       <c r="K85" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U15ME</v>
+        <v>20211107U13BF</v>
       </c>
       <c r="L85" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U15WE</v>
+        <v>20211107U13GF</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>20211121</v>
+        <v>20211107</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>12</v>
@@ -3647,22 +3647,22 @@
         <v>1</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I86" s="1"/>
       <c r="K86" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121OME</v>
+        <v>20211107U15ME</v>
       </c>
       <c r="L86" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121OWE</v>
+        <v>20211107U15WE</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
@@ -3673,7 +3673,7 @@
         <v>18</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -3682,10 +3682,10 @@
         <v>1</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>19</v>
@@ -3693,11 +3693,11 @@
       <c r="I87" s="1"/>
       <c r="K87" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121OMS</v>
+        <v>20211121OME</v>
       </c>
       <c r="L87" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121OWS</v>
+        <v>20211121OWE</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
@@ -3705,10 +3705,10 @@
         <v>20211121</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -3728,11 +3728,11 @@
       <c r="I88" s="1"/>
       <c r="K88" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121VMF</v>
+        <v>20211121OMS</v>
       </c>
       <c r="L88" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121VWF</v>
+        <v>20211121OWS</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
@@ -3740,7 +3740,7 @@
         <v>20211121</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>11</v>
@@ -3752,10 +3752,10 @@
         <v>1</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>19</v>
@@ -3763,11 +3763,11 @@
       <c r="I89" s="1"/>
       <c r="K89" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121OMF</v>
+        <v>20211121VMF</v>
       </c>
       <c r="L89" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121OWF</v>
+        <v>20211121VWF</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
@@ -3775,10 +3775,10 @@
         <v>20211121</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -3798,11 +3798,11 @@
       <c r="I90" s="1"/>
       <c r="K90" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121VME</v>
+        <v>20211121OMF</v>
       </c>
       <c r="L90" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121VWE</v>
+        <v>20211121OWF</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
@@ -3813,7 +3813,7 @@
         <v>9</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -3833,34 +3833,34 @@
       <c r="I91" s="1"/>
       <c r="K91" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121VMS</v>
+        <v>20211121VME</v>
       </c>
       <c r="L91" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121VWS</v>
+        <v>20211121VWE</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>20211128</v>
+        <v>20211121</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D92">
         <v>0</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>19</v>
@@ -3868,11 +3868,11 @@
       <c r="I92" s="1"/>
       <c r="K92" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211128U13TE</v>
+        <v>20211121VMS</v>
       </c>
       <c r="L92" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
+        <v>20211121VWS</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
@@ -3883,7 +3883,7 @@
         <v>41</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -3903,7 +3903,7 @@
       <c r="I93" s="1"/>
       <c r="K93" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211128U13TF</v>
+        <v>20211128U13TE</v>
       </c>
       <c r="L93" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
@@ -3915,10 +3915,10 @@
         <v>20211128</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -3927,10 +3927,10 @@
         <v>0</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>19</v>
@@ -3938,7 +3938,7 @@
       <c r="I94" s="1"/>
       <c r="K94" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211128U17TE</v>
+        <v>20211128U13TF</v>
       </c>
       <c r="L94" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
@@ -3953,7 +3953,7 @@
         <v>40</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -3973,7 +3973,7 @@
       <c r="I95" s="1"/>
       <c r="K95" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211128U17TF</v>
+        <v>20211128U17TE</v>
       </c>
       <c r="L95" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
@@ -3985,9 +3985,11 @@
         <v>20211128</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C96" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="D96">
         <v>0</v>
       </c>
@@ -3995,10 +3997,10 @@
         <v>0</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>19</v>
@@ -4006,9 +4008,42 @@
       <c r="I96" s="1"/>
       <c r="K96" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
+        <v>20211128U17TF</v>
+      </c>
+      <c r="L96" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>20211128</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C97" s="1"/>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I97" s="1"/>
+      <c r="K97" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
         <v>20211128OT</v>
       </c>
-      <c r="L96" t="str">
+      <c r="L97" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
         <v>N/A</v>
       </c>

--- a/2021/2021FSAdates.xlsx
+++ b/2021/2021FSAdates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FSA\Dropbox\Competitions\2021\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F245A7-1B55-42D3-BE0C-92ABCEC7B524}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ECC0677-B018-42E8-AC18-F9D8904D6C20}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6465" yWindow="1485" windowWidth="10635" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="47">
   <si>
     <t>Date</t>
   </si>
@@ -297,12 +297,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I97" tableType="xml" totalsRowShown="0" connectionId="2">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I97">
-    <sortCondition ref="A9:A97"/>
-    <sortCondition ref="F9:F97"/>
-    <sortCondition ref="B9:B97"/>
-    <sortCondition ref="C9:C97"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I99" tableType="xml" totalsRowShown="0" connectionId="2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I99">
+    <sortCondition ref="A9:A99"/>
+    <sortCondition ref="F9:F99"/>
+    <sortCondition ref="B9:B99"/>
+    <sortCondition ref="C9:C99"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="Date" name="Date">
@@ -634,28 +634,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L97"/>
+  <dimension ref="A1:L99"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -690,7 +690,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>20210228</v>
       </c>
@@ -725,7 +725,7 @@
         <v>20210228OWE</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>20210228</v>
       </c>
@@ -760,7 +760,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>20210228</v>
       </c>
@@ -795,7 +795,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>20210228</v>
       </c>
@@ -830,7 +830,7 @@
         <v>20210228OWF</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>20210228</v>
       </c>
@@ -865,7 +865,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>20210228</v>
       </c>
@@ -900,7 +900,7 @@
         <v>20210228VWE</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>20210228</v>
       </c>
@@ -935,7 +935,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>20210314</v>
       </c>
@@ -970,7 +970,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20210314</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>20210314</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>20210314U15WF</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>20210314</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>20210314</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>20210314U11GF</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>20210314</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>20210314</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>20210314</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>20210314</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>20210314U15WE</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>20210321</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>20210321OWE</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>20210321</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>20210321</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>20210321OWS</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20210321</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20210321</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>20210321OWF</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>20210321</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>20210321</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>20210502</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>20210502U1720WF</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>20210502</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>20210502OBWE</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>20210502</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>20210502U1720WS</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>20210502</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>20210502OBWF</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>20210502</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>20210502U1720WE</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>20210502</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>20210502OBWS</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>20210516</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>12</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -1733,14 +1733,14 @@
       <c r="I31" s="3"/>
       <c r="K31" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210516U13BE</v>
+        <v>N/A</v>
       </c>
       <c r="L31" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210516U13GE</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>20210516</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>20210516U15WF</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>20210516</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>27</v>
@@ -1803,14 +1803,14 @@
       <c r="I33" s="3"/>
       <c r="K33" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210516U11BF</v>
+        <v>20210516U11F</v>
       </c>
       <c r="L33" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210516U11GF</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>20210516</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>20</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1827,10 +1827,10 @@
         <v>1</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>19</v>
@@ -1838,25 +1838,25 @@
       <c r="I34" s="3"/>
       <c r="K34" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210516U11BE</v>
+        <v>20210516U11BF</v>
       </c>
       <c r="L34" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210516U11GE</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20210516U11GF</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>20210516</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -1873,34 +1873,34 @@
       <c r="I35" s="3"/>
       <c r="K35" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210516U13BF</v>
+        <v>N/A</v>
       </c>
       <c r="L35" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210516U13GF</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>20210516</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>19</v>
@@ -1908,22 +1908,22 @@
       <c r="I36" s="3"/>
       <c r="K36" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210516U15ME</v>
+        <v>20210516U13F</v>
       </c>
       <c r="L36" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210516U15WE</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>20210530</v>
+        <v>20210516</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1932,68 +1932,68 @@
         <v>1</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I37" s="3"/>
       <c r="K37" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210530OME</v>
+        <v>20210516U13BF</v>
       </c>
       <c r="L37" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210530OWE</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20210516U13GF</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>20210530</v>
+        <v>20210516</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38">
         <v>1</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I38" s="3"/>
       <c r="K38" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210530OMS</v>
+        <v>N/A</v>
       </c>
       <c r="L38" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210530OWS</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>20210530</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -2002,25 +2002,25 @@
         <v>1</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I39" s="3"/>
       <c r="K39" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210530VMF</v>
+        <v>20210530OME</v>
       </c>
       <c r="L39" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210530VWF</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20210530OWE</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>20210530</v>
       </c>
@@ -2028,7 +2028,7 @@
         <v>18</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -2037,25 +2037,25 @@
         <v>1</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I40" s="3"/>
       <c r="K40" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210530OMF</v>
+        <v>20210530OMS</v>
       </c>
       <c r="L40" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210530OWF</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20210530OWS</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>20210530</v>
       </c>
@@ -2063,7 +2063,7 @@
         <v>9</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -2072,10 +2072,10 @@
         <v>1</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>19</v>
@@ -2083,22 +2083,22 @@
       <c r="I41" s="3"/>
       <c r="K41" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210530VME</v>
+        <v>20210530VMF</v>
       </c>
       <c r="L41" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210530VWE</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20210530VWF</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>20210530</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -2113,27 +2113,27 @@
         <v>38</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I42" s="3"/>
       <c r="K42" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210530VMS</v>
+        <v>20210530OMF</v>
       </c>
       <c r="L42" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210530VWS</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20210530OWF</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>20210627</v>
+        <v>20210530</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -2142,10 +2142,10 @@
         <v>1</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>19</v>
@@ -2153,22 +2153,22 @@
       <c r="I43" s="3"/>
       <c r="K43" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210627U1720MF</v>
+        <v>20210530VME</v>
       </c>
       <c r="L43" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210627U1720WF</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20210530VWE</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>20210627</v>
+        <v>20210530</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -2177,10 +2177,10 @@
         <v>1</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>19</v>
@@ -2188,14 +2188,14 @@
       <c r="I44" s="3"/>
       <c r="K44" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210627OBME</v>
+        <v>20210530VMS</v>
       </c>
       <c r="L44" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210627OBWE</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20210530VWS</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>20210627</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>25</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -2212,10 +2212,10 @@
         <v>1</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>19</v>
@@ -2223,14 +2223,14 @@
       <c r="I45" s="3"/>
       <c r="K45" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210627U1720MS</v>
+        <v>20210627U1720MF</v>
       </c>
       <c r="L45" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210627U1720WS</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20210627U1720WF</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>20210627</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>7</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -2247,10 +2247,10 @@
         <v>1</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>19</v>
@@ -2258,14 +2258,14 @@
       <c r="I46" s="3"/>
       <c r="K46" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210627OBMF</v>
+        <v>20210627OBME</v>
       </c>
       <c r="L46" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210627OBWF</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20210627OBWE</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>20210627</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>25</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -2282,10 +2282,10 @@
         <v>1</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>19</v>
@@ -2293,14 +2293,14 @@
       <c r="I47" s="3"/>
       <c r="K47" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210627U1720ME</v>
+        <v>20210627U1720MS</v>
       </c>
       <c r="L47" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210627U1720WE</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20210627U1720WS</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>20210627</v>
       </c>
@@ -2308,7 +2308,7 @@
         <v>7</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -2317,10 +2317,10 @@
         <v>1</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>19</v>
@@ -2328,19 +2328,19 @@
       <c r="I48" s="3"/>
       <c r="K48" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210627OBMS</v>
+        <v>20210627OBMF</v>
       </c>
       <c r="L48" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210627OBWS</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20210627OBWF</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>20210801</v>
+        <v>20210627</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>12</v>
@@ -2352,33 +2352,33 @@
         <v>1</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I49" s="1"/>
+      <c r="I49" s="3"/>
       <c r="K49" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210801U13BE</v>
+        <v>20210627U1720ME</v>
       </c>
       <c r="L49" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210801U13GE</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20210627U1720WE</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>20210801</v>
+        <v>20210627</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -2387,33 +2387,33 @@
         <v>1</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I50" s="1"/>
+      <c r="I50" s="3"/>
       <c r="K50" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210801U15MF</v>
+        <v>20210627OBMS</v>
       </c>
       <c r="L50" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210801U15WF</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20210627OBWS</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>20210801</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -2422,10 +2422,10 @@
         <v>1</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>19</v>
@@ -2433,22 +2433,22 @@
       <c r="I51" s="1"/>
       <c r="K51" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210801U11BF</v>
+        <v>20210801U13BE</v>
       </c>
       <c r="L51" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210801U11GF</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20210801U13GE</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>20210801</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -2457,10 +2457,10 @@
         <v>1</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>19</v>
@@ -2468,19 +2468,19 @@
       <c r="I52" s="1"/>
       <c r="K52" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210801U11BE</v>
+        <v>20210801U15MF</v>
       </c>
       <c r="L52" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210801U11GE</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20210801U15WF</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>20210801</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>11</v>
@@ -2492,10 +2492,10 @@
         <v>1</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>19</v>
@@ -2503,19 +2503,19 @@
       <c r="I53" s="1"/>
       <c r="K53" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210801U13BF</v>
+        <v>20210801U11BF</v>
       </c>
       <c r="L53" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210801U13GF</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20210801U11GF</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>20210801</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>12</v>
@@ -2527,10 +2527,10 @@
         <v>1</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>19</v>
@@ -2538,22 +2538,22 @@
       <c r="I54" s="1"/>
       <c r="K54" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210801U15ME</v>
+        <v>20210801U11BE</v>
       </c>
       <c r="L54" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210801U15WE</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20210801U11GE</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>20210815</v>
+        <v>20210801</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -2562,33 +2562,33 @@
         <v>1</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I55" s="1"/>
       <c r="K55" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210815OME</v>
+        <v>20210801U13BF</v>
       </c>
       <c r="L55" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210815OWE</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20210801U13GF</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>20210815</v>
+        <v>20210801</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -2597,33 +2597,33 @@
         <v>1</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I56" s="1"/>
       <c r="K56" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210815OMS</v>
+        <v>20210801U15ME</v>
       </c>
       <c r="L56" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210815OWS</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20210801U15WE</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>20210815</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -2632,25 +2632,25 @@
         <v>1</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I57" s="1"/>
       <c r="K57" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210815VMF</v>
+        <v>20210815OME</v>
       </c>
       <c r="L57" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210815VWF</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20210815OWE</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>20210815</v>
       </c>
@@ -2658,7 +2658,7 @@
         <v>18</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -2667,25 +2667,25 @@
         <v>1</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I58" s="1"/>
       <c r="K58" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210815OMF</v>
+        <v>20210815OMS</v>
       </c>
       <c r="L58" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210815OWF</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20210815OWS</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>20210815</v>
       </c>
@@ -2693,7 +2693,7 @@
         <v>9</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -2702,10 +2702,10 @@
         <v>1</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>19</v>
@@ -2713,22 +2713,22 @@
       <c r="I59" s="1"/>
       <c r="K59" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210815VME</v>
+        <v>20210815VMF</v>
       </c>
       <c r="L59" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210815VWE</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20210815VWF</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>20210815</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -2743,27 +2743,27 @@
         <v>38</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I60" s="1"/>
       <c r="K60" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210815VMS</v>
+        <v>20210815OMF</v>
       </c>
       <c r="L60" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210815VWS</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20210815OWF</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>20210822</v>
+        <v>20210815</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -2772,33 +2772,33 @@
         <v>1</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="I61" s="1"/>
       <c r="K61" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210822U17MF</v>
+        <v>20210815VME</v>
       </c>
       <c r="L61" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210822U17WF</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20210815VWE</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>20210905</v>
+        <v>20210815</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -2807,33 +2807,33 @@
         <v>1</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I62" s="1"/>
       <c r="K62" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210905U1720MF</v>
+        <v>20210815VMS</v>
       </c>
       <c r="L62" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210905U1720WF</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20210815VWS</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>20210905</v>
+        <v>20210822</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>1</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="I63" s="1"/>
       <c r="K63" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210905OBME</v>
+        <v>20210822U17MF</v>
       </c>
       <c r="L63" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210905OBWE</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20210822U17WF</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>20210905</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>25</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -2877,10 +2877,10 @@
         <v>1</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>24</v>
@@ -2888,14 +2888,14 @@
       <c r="I64" s="1"/>
       <c r="K64" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210905U1720MS</v>
+        <v>20210905U1720MF</v>
       </c>
       <c r="L64" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210905U1720WS</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20210905U1720WF</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>20210905</v>
       </c>
@@ -2903,7 +2903,7 @@
         <v>7</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -2912,10 +2912,10 @@
         <v>1</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>24</v>
@@ -2923,14 +2923,14 @@
       <c r="I65" s="1"/>
       <c r="K65" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210905OBMF</v>
+        <v>20210905OBME</v>
       </c>
       <c r="L65" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210905OBWF</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20210905OBWE</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>20210905</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>25</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -2947,10 +2947,10 @@
         <v>1</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>24</v>
@@ -2958,14 +2958,14 @@
       <c r="I66" s="1"/>
       <c r="K66" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210905U1720ME</v>
+        <v>20210905U1720MS</v>
       </c>
       <c r="L66" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210905U1720WE</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20210905U1720WS</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>20210905</v>
       </c>
@@ -2973,7 +2973,7 @@
         <v>7</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>36</v>
@@ -2993,57 +2993,57 @@
       <c r="I67" s="1"/>
       <c r="K67" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210905OBMS</v>
+        <v>20210905OBMF</v>
       </c>
       <c r="L67" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210905OBWS</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20210905OBWF</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>20210919</v>
+        <v>20210905</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="I68" s="1"/>
       <c r="K68" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210919U17TF</v>
+        <v>20210905U1720ME</v>
       </c>
       <c r="L68" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20210905U1720WE</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>20211017</v>
+        <v>20210905</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -3052,10 +3052,10 @@
         <v>1</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>24</v>
@@ -3063,57 +3063,57 @@
       <c r="I69" s="1"/>
       <c r="K69" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211017OME</v>
+        <v>20210905OBMS</v>
       </c>
       <c r="L69" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211017OWE</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20210905OBWS</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>20211017</v>
+        <v>20210919</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
       <c r="E70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="I70" s="1"/>
       <c r="K70" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211017OMS</v>
+        <v>20210919U17TF</v>
       </c>
       <c r="L70" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211017OWS</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>20211017</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -3122,10 +3122,10 @@
         <v>1</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>24</v>
@@ -3133,14 +3133,14 @@
       <c r="I71" s="1"/>
       <c r="K71" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211017VMF</v>
+        <v>20211017OME</v>
       </c>
       <c r="L71" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211017VWF</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20211017OWE</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>20211017</v>
       </c>
@@ -3148,7 +3148,7 @@
         <v>18</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -3157,10 +3157,10 @@
         <v>1</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>24</v>
@@ -3168,14 +3168,14 @@
       <c r="I72" s="1"/>
       <c r="K72" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211017OMF</v>
+        <v>20211017OMS</v>
       </c>
       <c r="L72" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211017OWF</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20211017OWS</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>20211017</v>
       </c>
@@ -3183,7 +3183,7 @@
         <v>9</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -3192,10 +3192,10 @@
         <v>1</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>24</v>
@@ -3203,22 +3203,22 @@
       <c r="I73" s="1"/>
       <c r="K73" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211017VME</v>
+        <v>20211017VMF</v>
       </c>
       <c r="L73" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211017VWE</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20211017VWF</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>20211017</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -3238,22 +3238,22 @@
       <c r="I74" s="1"/>
       <c r="K74" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211017VMS</v>
+        <v>20211017OMF</v>
       </c>
       <c r="L74" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211017VWS</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20211017OWF</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>20211024</v>
+        <v>20211017</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -3262,33 +3262,33 @@
         <v>1</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I75" s="1"/>
       <c r="K75" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024U1720MF</v>
+        <v>20211017VME</v>
       </c>
       <c r="L75" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024U1720WF</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20211017VWE</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>20211024</v>
+        <v>20211017</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -3297,25 +3297,25 @@
         <v>1</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I76" s="1"/>
       <c r="K76" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024OBME</v>
+        <v>20211017VMS</v>
       </c>
       <c r="L76" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024OBWE</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20211017VWS</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>20211024</v>
       </c>
@@ -3323,7 +3323,7 @@
         <v>25</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -3332,10 +3332,10 @@
         <v>1</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>19</v>
@@ -3343,14 +3343,14 @@
       <c r="I77" s="1"/>
       <c r="K77" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024U1720MS</v>
+        <v>20211024U1720MF</v>
       </c>
       <c r="L77" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024U1720WS</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20211024U1720WF</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>20211024</v>
       </c>
@@ -3358,7 +3358,7 @@
         <v>7</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -3367,10 +3367,10 @@
         <v>1</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>19</v>
@@ -3378,14 +3378,14 @@
       <c r="I78" s="1"/>
       <c r="K78" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024OBMF</v>
+        <v>20211024OBME</v>
       </c>
       <c r="L78" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024OBWF</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20211024OBWE</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>20211024</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>25</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -3402,10 +3402,10 @@
         <v>1</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>19</v>
@@ -3413,14 +3413,14 @@
       <c r="I79" s="1"/>
       <c r="K79" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024U1720ME</v>
+        <v>20211024U1720MS</v>
       </c>
       <c r="L79" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024U1720WE</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20211024U1720WS</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>20211024</v>
       </c>
@@ -3428,7 +3428,7 @@
         <v>7</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -3437,7 +3437,7 @@
         <v>1</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>36</v>
@@ -3448,19 +3448,19 @@
       <c r="I80" s="1"/>
       <c r="K80" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024OBMS</v>
+        <v>20211024OBMF</v>
       </c>
       <c r="L80" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024OBWS</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20211024OBWF</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>20211107</v>
+        <v>20211024</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>12</v>
@@ -3472,33 +3472,33 @@
         <v>1</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I81" s="1"/>
       <c r="K81" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U13BE</v>
+        <v>20211024U1720ME</v>
       </c>
       <c r="L81" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U13GE</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20211024U1720WE</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>20211107</v>
+        <v>20211024</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -3507,33 +3507,33 @@
         <v>1</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I82" s="1"/>
       <c r="K82" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U15MF</v>
+        <v>20211024OBMS</v>
       </c>
       <c r="L82" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U15WF</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20211024OBWS</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>20211107</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -3542,10 +3542,10 @@
         <v>1</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>24</v>
@@ -3553,22 +3553,22 @@
       <c r="I83" s="1"/>
       <c r="K83" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U11BF</v>
+        <v>20211107U13BE</v>
       </c>
       <c r="L83" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U11GF</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20211107U13GE</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>20211107</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -3577,10 +3577,10 @@
         <v>1</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>24</v>
@@ -3588,19 +3588,19 @@
       <c r="I84" s="1"/>
       <c r="K84" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U11BE</v>
+        <v>20211107U15MF</v>
       </c>
       <c r="L84" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U11GE</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20211107U15WF</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>20211107</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>11</v>
@@ -3612,10 +3612,10 @@
         <v>1</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>24</v>
@@ -3623,19 +3623,19 @@
       <c r="I85" s="1"/>
       <c r="K85" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U13BF</v>
+        <v>20211107U11BF</v>
       </c>
       <c r="L85" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U13GF</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20211107U11GF</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>20211107</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>12</v>
@@ -3647,10 +3647,10 @@
         <v>1</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>24</v>
@@ -3658,22 +3658,22 @@
       <c r="I86" s="1"/>
       <c r="K86" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U15ME</v>
+        <v>20211107U11BE</v>
       </c>
       <c r="L86" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U15WE</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20211107U11GE</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>20211121</v>
+        <v>20211107</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -3682,33 +3682,33 @@
         <v>1</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I87" s="1"/>
       <c r="K87" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121OME</v>
+        <v>20211107U13BF</v>
       </c>
       <c r="L87" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121OWE</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20211107U13GF</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>20211121</v>
+        <v>20211107</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -3717,33 +3717,33 @@
         <v>1</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I88" s="1"/>
       <c r="K88" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121OMS</v>
+        <v>20211107U15ME</v>
       </c>
       <c r="L88" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121OWS</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20211107U15WE</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>20211121</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -3752,10 +3752,10 @@
         <v>1</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>19</v>
@@ -3763,14 +3763,14 @@
       <c r="I89" s="1"/>
       <c r="K89" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121VMF</v>
+        <v>20211121OME</v>
       </c>
       <c r="L89" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121VWF</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20211121OWE</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>20211121</v>
       </c>
@@ -3778,7 +3778,7 @@
         <v>18</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -3787,10 +3787,10 @@
         <v>1</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>19</v>
@@ -3798,14 +3798,14 @@
       <c r="I90" s="1"/>
       <c r="K90" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121OMF</v>
+        <v>20211121OMS</v>
       </c>
       <c r="L90" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121OWF</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20211121OWS</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>20211121</v>
       </c>
@@ -3813,7 +3813,7 @@
         <v>9</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -3822,10 +3822,10 @@
         <v>1</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>19</v>
@@ -3833,22 +3833,22 @@
       <c r="I91" s="1"/>
       <c r="K91" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121VME</v>
+        <v>20211121VMF</v>
       </c>
       <c r="L91" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121VWE</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20211121VWF</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>20211121</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -3868,19 +3868,19 @@
       <c r="I92" s="1"/>
       <c r="K92" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121VMS</v>
+        <v>20211121OMF</v>
       </c>
       <c r="L92" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121VWS</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20211121OWF</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>20211128</v>
+        <v>20211121</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>12</v>
@@ -3889,13 +3889,13 @@
         <v>0</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>19</v>
@@ -3903,34 +3903,34 @@
       <c r="I93" s="1"/>
       <c r="K93" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211128U13TE</v>
+        <v>20211121VME</v>
       </c>
       <c r="L93" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20211121VWE</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>20211128</v>
+        <v>20211121</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D94">
         <v>0</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>19</v>
@@ -3938,19 +3938,19 @@
       <c r="I94" s="1"/>
       <c r="K94" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211128U13TF</v>
+        <v>20211121VMS</v>
       </c>
       <c r="L94" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20211121VWS</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>20211128</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>12</v>
@@ -3962,10 +3962,10 @@
         <v>0</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>19</v>
@@ -3973,19 +3973,19 @@
       <c r="I95" s="1"/>
       <c r="K95" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211128U17TE</v>
+        <v>20211128U13TE</v>
       </c>
       <c r="L95" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
         <v>N/A</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>20211128</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>11</v>
@@ -3997,10 +3997,10 @@
         <v>0</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>19</v>
@@ -4008,21 +4008,23 @@
       <c r="I96" s="1"/>
       <c r="K96" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211128U17TF</v>
+        <v>20211128U13TF</v>
       </c>
       <c r="L96" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
         <v>N/A</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>20211128</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C97" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D97">
         <v>0</v>
       </c>
@@ -4030,10 +4032,10 @@
         <v>0</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>19</v>
@@ -4041,9 +4043,77 @@
       <c r="I97" s="1"/>
       <c r="K97" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
+        <v>20211128U17TE</v>
+      </c>
+      <c r="L97" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>20211128</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I98" s="1"/>
+      <c r="K98" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
+        <v>20211128U17TF</v>
+      </c>
+      <c r="L98" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>20211128</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C99" s="1"/>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I99" s="1"/>
+      <c r="K99" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
         <v>20211128OT</v>
       </c>
-      <c r="L97" t="str">
+      <c r="L99" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
         <v>N/A</v>
       </c>

--- a/2021/2021FSAdates.xlsx
+++ b/2021/2021FSAdates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FSA\Dropbox\Competitions\2021\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ECC0677-B018-42E8-AC18-F9D8904D6C20}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2620643C-669A-4B8F-8037-2C041481CB36}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="47">
   <si>
     <t>Date</t>
   </si>
@@ -297,12 +297,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I99" tableType="xml" totalsRowShown="0" connectionId="2">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I99">
-    <sortCondition ref="A9:A99"/>
-    <sortCondition ref="F9:F99"/>
-    <sortCondition ref="B9:B99"/>
-    <sortCondition ref="C9:C99"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I101" tableType="xml" totalsRowShown="0" connectionId="2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I101">
+    <sortCondition ref="A2:A101"/>
+    <sortCondition ref="F2:F101"/>
+    <sortCondition ref="B2:B101"/>
+    <sortCondition ref="C2:C101"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="Date" name="Date">
@@ -634,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L99"/>
+  <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1987,19 +1987,19 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>20210530</v>
+        <v>20210523</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>26</v>
@@ -2008,27 +2008,27 @@
         <v>33</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I39" s="3"/>
       <c r="K39" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210530OME</v>
+        <v>20210523U1720F</v>
       </c>
       <c r="L39" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210530OWE</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>20210530</v>
+        <v>20210523</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -2037,45 +2037,45 @@
         <v>1</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I40" s="3"/>
       <c r="K40" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210530OMS</v>
+        <v>20210523U1720MF</v>
       </c>
       <c r="L40" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210530OWS</v>
+        <v>20210523U1720WF</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>20210530</v>
+        <v>20210523</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>19</v>
@@ -2083,22 +2083,22 @@
       <c r="I41" s="3"/>
       <c r="K41" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210530VMF</v>
+        <v>20210523OBE</v>
       </c>
       <c r="L41" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210530VWF</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>20210530</v>
+        <v>20210523</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -2107,45 +2107,45 @@
         <v>1</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I42" s="3"/>
       <c r="K42" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210530OMF</v>
+        <v>20210523OBME</v>
       </c>
       <c r="L42" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210530OWF</v>
+        <v>20210523OBWE</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>20210530</v>
+        <v>20210523</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43">
         <v>1</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>19</v>
@@ -2153,22 +2153,22 @@
       <c r="I43" s="3"/>
       <c r="K43" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210530VME</v>
+        <v>N/A</v>
       </c>
       <c r="L43" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210530VWE</v>
+        <v/>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>20210530</v>
+        <v>20210523</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -2188,34 +2188,34 @@
       <c r="I44" s="3"/>
       <c r="K44" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210530VMS</v>
+        <v>20210523OBMF</v>
       </c>
       <c r="L44" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210530VWS</v>
+        <v>20210523OBWF</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>20210627</v>
+        <v>20210523</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45">
         <v>1</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>19</v>
@@ -2223,34 +2223,34 @@
       <c r="I45" s="3"/>
       <c r="K45" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210627U1720MF</v>
+        <v>N/A</v>
       </c>
       <c r="L45" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210627U1720WF</v>
+        <v/>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>20210627</v>
+        <v>20210523</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>19</v>
@@ -2258,22 +2258,22 @@
       <c r="I46" s="3"/>
       <c r="K46" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210627OBME</v>
+        <v>20210523OBS</v>
       </c>
       <c r="L46" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210627OBWE</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>20210627</v>
+        <v>20210530</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -2282,33 +2282,33 @@
         <v>1</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I47" s="3"/>
       <c r="K47" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210627U1720MS</v>
+        <v>20210530OME</v>
       </c>
       <c r="L47" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210627U1720WS</v>
+        <v>20210530OWE</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>20210627</v>
+        <v>20210530</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -2317,33 +2317,33 @@
         <v>1</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I48" s="3"/>
       <c r="K48" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210627OBMF</v>
+        <v>20210530OMS</v>
       </c>
       <c r="L48" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210627OBWF</v>
+        <v>20210530OWS</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>20210627</v>
+        <v>20210530</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -2352,10 +2352,10 @@
         <v>1</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>19</v>
@@ -2363,22 +2363,22 @@
       <c r="I49" s="3"/>
       <c r="K49" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210627U1720ME</v>
+        <v>20210530VMF</v>
       </c>
       <c r="L49" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210627U1720WE</v>
+        <v>20210530VWF</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>20210627</v>
+        <v>20210530</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -2387,30 +2387,30 @@
         <v>1</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I50" s="3"/>
       <c r="K50" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210627OBMS</v>
+        <v>20210530OMF</v>
       </c>
       <c r="L50" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210627OBWS</v>
+        <v>20210530OWF</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>20210801</v>
+        <v>20210530</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>12</v>
@@ -2422,33 +2422,33 @@
         <v>1</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I51" s="1"/>
+      <c r="I51" s="3"/>
       <c r="K51" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210801U13BE</v>
+        <v>20210530VME</v>
       </c>
       <c r="L51" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210801U13GE</v>
+        <v>20210530VWE</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>20210801</v>
+        <v>20210530</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -2457,22 +2457,22 @@
         <v>1</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I52" s="1"/>
+      <c r="I52" s="3"/>
       <c r="K52" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210801U15MF</v>
+        <v>20210530VMS</v>
       </c>
       <c r="L52" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210801U15WF</v>
+        <v>20210530VWS</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -2480,10 +2480,10 @@
         <v>20210801</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -2492,10 +2492,10 @@
         <v>1</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>19</v>
@@ -2503,11 +2503,11 @@
       <c r="I53" s="1"/>
       <c r="K53" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210801U11BF</v>
+        <v>20210801U13BE</v>
       </c>
       <c r="L53" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210801U11GF</v>
+        <v>20210801U13GE</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -2515,10 +2515,10 @@
         <v>20210801</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -2527,10 +2527,10 @@
         <v>1</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>19</v>
@@ -2538,11 +2538,11 @@
       <c r="I54" s="1"/>
       <c r="K54" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210801U11BE</v>
+        <v>20210801U15MF</v>
       </c>
       <c r="L54" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210801U11GE</v>
+        <v>20210801U15WF</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -2550,7 +2550,7 @@
         <v>20210801</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>11</v>
@@ -2562,10 +2562,10 @@
         <v>1</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>19</v>
@@ -2573,11 +2573,11 @@
       <c r="I55" s="1"/>
       <c r="K55" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210801U13BF</v>
+        <v>20210801U11BF</v>
       </c>
       <c r="L55" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210801U13GF</v>
+        <v>20210801U11GF</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -2585,7 +2585,7 @@
         <v>20210801</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>12</v>
@@ -2597,10 +2597,10 @@
         <v>1</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>19</v>
@@ -2608,22 +2608,22 @@
       <c r="I56" s="1"/>
       <c r="K56" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210801U15ME</v>
+        <v>20210801U11BE</v>
       </c>
       <c r="L56" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210801U15WE</v>
+        <v>20210801U11GE</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>20210815</v>
+        <v>20210801</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -2632,33 +2632,33 @@
         <v>1</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I57" s="1"/>
       <c r="K57" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210815OME</v>
+        <v>20210801U13BF</v>
       </c>
       <c r="L57" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210815OWE</v>
+        <v>20210801U13GF</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>20210815</v>
+        <v>20210801</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -2667,22 +2667,22 @@
         <v>1</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I58" s="1"/>
       <c r="K58" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210815OMS</v>
+        <v>20210801U15ME</v>
       </c>
       <c r="L58" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210815OWS</v>
+        <v>20210801U15WE</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -2690,10 +2690,10 @@
         <v>20210815</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -2702,22 +2702,22 @@
         <v>1</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I59" s="1"/>
       <c r="K59" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210815VMF</v>
+        <v>20210815OME</v>
       </c>
       <c r="L59" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210815VWF</v>
+        <v>20210815OWE</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -2728,7 +2728,7 @@
         <v>18</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -2737,22 +2737,22 @@
         <v>1</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I60" s="1"/>
       <c r="K60" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210815OMF</v>
+        <v>20210815OMS</v>
       </c>
       <c r="L60" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210815OWF</v>
+        <v>20210815OWS</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -2763,7 +2763,7 @@
         <v>9</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -2772,10 +2772,10 @@
         <v>1</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>19</v>
@@ -2783,11 +2783,11 @@
       <c r="I61" s="1"/>
       <c r="K61" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210815VME</v>
+        <v>20210815VMF</v>
       </c>
       <c r="L61" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210815VWE</v>
+        <v>20210815VWF</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -2795,10 +2795,10 @@
         <v>20210815</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -2813,27 +2813,27 @@
         <v>38</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I62" s="1"/>
       <c r="K62" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210815VMS</v>
+        <v>20210815OMF</v>
       </c>
       <c r="L62" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210815VWS</v>
+        <v>20210815OWF</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>20210822</v>
+        <v>20210815</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -2842,33 +2842,33 @@
         <v>1</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="I63" s="1"/>
       <c r="K63" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210822U17MF</v>
+        <v>20210815VME</v>
       </c>
       <c r="L63" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210822U17WF</v>
+        <v>20210815VWE</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>20210905</v>
+        <v>20210815</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -2877,33 +2877,33 @@
         <v>1</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I64" s="1"/>
       <c r="K64" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210905U1720MF</v>
+        <v>20210815VMS</v>
       </c>
       <c r="L64" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210905U1720WF</v>
+        <v>20210815VWS</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>20210905</v>
+        <v>20210822</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -2912,22 +2912,22 @@
         <v>1</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="I65" s="1"/>
       <c r="K65" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210905OBME</v>
+        <v>20210822U17MF</v>
       </c>
       <c r="L65" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210905OBWE</v>
+        <v>20210822U17WF</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
@@ -2938,7 +2938,7 @@
         <v>25</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -2947,10 +2947,10 @@
         <v>1</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>24</v>
@@ -2958,11 +2958,11 @@
       <c r="I66" s="1"/>
       <c r="K66" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210905U1720MS</v>
+        <v>20210905U1720MF</v>
       </c>
       <c r="L66" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210905U1720WS</v>
+        <v>20210905U1720WF</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -2973,7 +2973,7 @@
         <v>7</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -2982,10 +2982,10 @@
         <v>1</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>24</v>
@@ -2993,11 +2993,11 @@
       <c r="I67" s="1"/>
       <c r="K67" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210905OBMF</v>
+        <v>20210905OBME</v>
       </c>
       <c r="L67" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210905OBWF</v>
+        <v>20210905OBWE</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -3008,7 +3008,7 @@
         <v>25</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -3017,10 +3017,10 @@
         <v>1</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>24</v>
@@ -3028,11 +3028,11 @@
       <c r="I68" s="1"/>
       <c r="K68" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210905U1720ME</v>
+        <v>20210905U1720MS</v>
       </c>
       <c r="L68" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210905U1720WE</v>
+        <v>20210905U1720WS</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -3043,7 +3043,7 @@
         <v>7</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -3052,7 +3052,7 @@
         <v>1</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>36</v>
@@ -3063,57 +3063,57 @@
       <c r="I69" s="1"/>
       <c r="K69" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210905OBMS</v>
+        <v>20210905OBMF</v>
       </c>
       <c r="L69" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210905OBWS</v>
+        <v>20210905OBWF</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>20210919</v>
+        <v>20210905</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="I70" s="1"/>
       <c r="K70" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210919U17TF</v>
+        <v>20210905U1720ME</v>
       </c>
       <c r="L70" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
+        <v>20210905U1720WE</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>20211017</v>
+        <v>20210905</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -3122,10 +3122,10 @@
         <v>1</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>24</v>
@@ -3133,46 +3133,46 @@
       <c r="I71" s="1"/>
       <c r="K71" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211017OME</v>
+        <v>20210905OBMS</v>
       </c>
       <c r="L71" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211017OWE</v>
+        <v>20210905OBWS</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>20211017</v>
+        <v>20210919</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="I72" s="1"/>
       <c r="K72" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211017OMS</v>
+        <v>20210919U17TF</v>
       </c>
       <c r="L72" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211017OWS</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -3180,10 +3180,10 @@
         <v>20211017</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -3192,10 +3192,10 @@
         <v>1</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>24</v>
@@ -3203,11 +3203,11 @@
       <c r="I73" s="1"/>
       <c r="K73" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211017VMF</v>
+        <v>20211017OME</v>
       </c>
       <c r="L73" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211017VWF</v>
+        <v>20211017OWE</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
@@ -3218,7 +3218,7 @@
         <v>18</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -3227,10 +3227,10 @@
         <v>1</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>24</v>
@@ -3238,11 +3238,11 @@
       <c r="I74" s="1"/>
       <c r="K74" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211017OMF</v>
+        <v>20211017OMS</v>
       </c>
       <c r="L74" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211017OWF</v>
+        <v>20211017OWS</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -3253,7 +3253,7 @@
         <v>9</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -3262,10 +3262,10 @@
         <v>1</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>24</v>
@@ -3273,11 +3273,11 @@
       <c r="I75" s="1"/>
       <c r="K75" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211017VME</v>
+        <v>20211017VMF</v>
       </c>
       <c r="L75" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211017VWE</v>
+        <v>20211017VWF</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -3285,10 +3285,10 @@
         <v>20211017</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -3308,22 +3308,22 @@
       <c r="I76" s="1"/>
       <c r="K76" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211017VMS</v>
+        <v>20211017OMF</v>
       </c>
       <c r="L76" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211017VWS</v>
+        <v>20211017OWF</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>20211024</v>
+        <v>20211017</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -3332,33 +3332,33 @@
         <v>1</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I77" s="1"/>
       <c r="K77" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024U1720MF</v>
+        <v>20211017VME</v>
       </c>
       <c r="L77" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024U1720WF</v>
+        <v>20211017VWE</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>20211024</v>
+        <v>20211017</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -3367,22 +3367,22 @@
         <v>1</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I78" s="1"/>
       <c r="K78" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024OBME</v>
+        <v>20211017VMS</v>
       </c>
       <c r="L78" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024OBWE</v>
+        <v>20211017VWS</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
@@ -3393,7 +3393,7 @@
         <v>25</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -3402,10 +3402,10 @@
         <v>1</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>19</v>
@@ -3413,11 +3413,11 @@
       <c r="I79" s="1"/>
       <c r="K79" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024U1720MS</v>
+        <v>20211024U1720MF</v>
       </c>
       <c r="L79" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024U1720WS</v>
+        <v>20211024U1720WF</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
@@ -3428,7 +3428,7 @@
         <v>7</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -3437,10 +3437,10 @@
         <v>1</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>19</v>
@@ -3448,11 +3448,11 @@
       <c r="I80" s="1"/>
       <c r="K80" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024OBMF</v>
+        <v>20211024OBME</v>
       </c>
       <c r="L80" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024OBWF</v>
+        <v>20211024OBWE</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
@@ -3463,7 +3463,7 @@
         <v>25</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -3472,10 +3472,10 @@
         <v>1</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>19</v>
@@ -3483,11 +3483,11 @@
       <c r="I81" s="1"/>
       <c r="K81" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024U1720ME</v>
+        <v>20211024U1720MS</v>
       </c>
       <c r="L81" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024U1720WE</v>
+        <v>20211024U1720WS</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
@@ -3498,7 +3498,7 @@
         <v>7</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -3507,7 +3507,7 @@
         <v>1</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>36</v>
@@ -3518,19 +3518,19 @@
       <c r="I82" s="1"/>
       <c r="K82" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024OBMS</v>
+        <v>20211024OBMF</v>
       </c>
       <c r="L82" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024OBWS</v>
+        <v>20211024OBWF</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>20211107</v>
+        <v>20211024</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>12</v>
@@ -3542,33 +3542,33 @@
         <v>1</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I83" s="1"/>
       <c r="K83" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U13BE</v>
+        <v>20211024U1720ME</v>
       </c>
       <c r="L83" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U13GE</v>
+        <v>20211024U1720WE</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>20211107</v>
+        <v>20211024</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -3577,22 +3577,22 @@
         <v>1</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I84" s="1"/>
       <c r="K84" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U15MF</v>
+        <v>20211024OBMS</v>
       </c>
       <c r="L84" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U15WF</v>
+        <v>20211024OBWS</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
@@ -3600,10 +3600,10 @@
         <v>20211107</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -3612,10 +3612,10 @@
         <v>1</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>24</v>
@@ -3623,11 +3623,11 @@
       <c r="I85" s="1"/>
       <c r="K85" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U11BF</v>
+        <v>20211107U13BE</v>
       </c>
       <c r="L85" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U11GF</v>
+        <v>20211107U13GE</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
@@ -3635,10 +3635,10 @@
         <v>20211107</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -3647,10 +3647,10 @@
         <v>1</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>24</v>
@@ -3658,11 +3658,11 @@
       <c r="I86" s="1"/>
       <c r="K86" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U11BE</v>
+        <v>20211107U15MF</v>
       </c>
       <c r="L86" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U11GE</v>
+        <v>20211107U15WF</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
@@ -3670,7 +3670,7 @@
         <v>20211107</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>11</v>
@@ -3682,10 +3682,10 @@
         <v>1</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>24</v>
@@ -3693,11 +3693,11 @@
       <c r="I87" s="1"/>
       <c r="K87" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U13BF</v>
+        <v>20211107U11BF</v>
       </c>
       <c r="L87" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U13GF</v>
+        <v>20211107U11GF</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
@@ -3705,7 +3705,7 @@
         <v>20211107</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>12</v>
@@ -3717,10 +3717,10 @@
         <v>1</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>24</v>
@@ -3728,22 +3728,22 @@
       <c r="I88" s="1"/>
       <c r="K88" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U15ME</v>
+        <v>20211107U11BE</v>
       </c>
       <c r="L88" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U15WE</v>
+        <v>20211107U11GE</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>20211121</v>
+        <v>20211107</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -3752,33 +3752,33 @@
         <v>1</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I89" s="1"/>
       <c r="K89" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121OME</v>
+        <v>20211107U13BF</v>
       </c>
       <c r="L89" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121OWE</v>
+        <v>20211107U13GF</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>20211121</v>
+        <v>20211107</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -3787,22 +3787,22 @@
         <v>1</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I90" s="1"/>
       <c r="K90" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121OMS</v>
+        <v>20211107U15ME</v>
       </c>
       <c r="L90" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121OWS</v>
+        <v>20211107U15WE</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
@@ -3810,10 +3810,10 @@
         <v>20211121</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -3822,10 +3822,10 @@
         <v>1</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>19</v>
@@ -3833,11 +3833,11 @@
       <c r="I91" s="1"/>
       <c r="K91" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121VMF</v>
+        <v>20211121OME</v>
       </c>
       <c r="L91" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121VWF</v>
+        <v>20211121OWE</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
@@ -3848,7 +3848,7 @@
         <v>18</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -3857,10 +3857,10 @@
         <v>1</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>19</v>
@@ -3868,11 +3868,11 @@
       <c r="I92" s="1"/>
       <c r="K92" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121OMF</v>
+        <v>20211121OMS</v>
       </c>
       <c r="L92" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121OWF</v>
+        <v>20211121OWS</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
@@ -3883,7 +3883,7 @@
         <v>9</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -3892,10 +3892,10 @@
         <v>1</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>19</v>
@@ -3903,11 +3903,11 @@
       <c r="I93" s="1"/>
       <c r="K93" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121VME</v>
+        <v>20211121VMF</v>
       </c>
       <c r="L93" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121VWE</v>
+        <v>20211121VWF</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
@@ -3915,10 +3915,10 @@
         <v>20211121</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -3938,19 +3938,19 @@
       <c r="I94" s="1"/>
       <c r="K94" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121VMS</v>
+        <v>20211121OMF</v>
       </c>
       <c r="L94" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121VWS</v>
+        <v>20211121OWF</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>20211128</v>
+        <v>20211121</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>12</v>
@@ -3959,13 +3959,13 @@
         <v>0</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>19</v>
@@ -3973,34 +3973,34 @@
       <c r="I95" s="1"/>
       <c r="K95" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211128U13TE</v>
+        <v>20211121VME</v>
       </c>
       <c r="L95" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
+        <v>20211121VWE</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>20211128</v>
+        <v>20211121</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D96">
         <v>0</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>19</v>
@@ -4008,11 +4008,11 @@
       <c r="I96" s="1"/>
       <c r="K96" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211128U13TF</v>
+        <v>20211121VMS</v>
       </c>
       <c r="L96" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
+        <v>20211121VWS</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
@@ -4020,7 +4020,7 @@
         <v>20211128</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>12</v>
@@ -4032,10 +4032,10 @@
         <v>0</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>19</v>
@@ -4043,7 +4043,7 @@
       <c r="I97" s="1"/>
       <c r="K97" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211128U17TE</v>
+        <v>20211128U13TE</v>
       </c>
       <c r="L97" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
@@ -4055,7 +4055,7 @@
         <v>20211128</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>11</v>
@@ -4067,10 +4067,10 @@
         <v>0</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>19</v>
@@ -4078,7 +4078,7 @@
       <c r="I98" s="1"/>
       <c r="K98" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211128U17TF</v>
+        <v>20211128U13TF</v>
       </c>
       <c r="L98" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
@@ -4090,9 +4090,11 @@
         <v>20211128</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C99" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D99">
         <v>0</v>
       </c>
@@ -4100,10 +4102,10 @@
         <v>0</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>19</v>
@@ -4111,9 +4113,77 @@
       <c r="I99" s="1"/>
       <c r="K99" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
+        <v>20211128U17TE</v>
+      </c>
+      <c r="L99" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>20211128</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I100" s="1"/>
+      <c r="K100" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
+        <v>20211128U17TF</v>
+      </c>
+      <c r="L100" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>20211128</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C101" s="1"/>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I101" s="1"/>
+      <c r="K101" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
         <v>20211128OT</v>
       </c>
-      <c r="L99" t="str">
+      <c r="L101" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
         <v>N/A</v>
       </c>

--- a/2021/2021FSAdates.xlsx
+++ b/2021/2021FSAdates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FSA\Dropbox\Competitions\2021\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robert.thomas\Dropbox\Competitions\2021\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2620643C-669A-4B8F-8037-2C041481CB36}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE932691-80A8-4A53-A62B-43E7E5F5FDC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="47">
   <si>
     <t>Date</t>
   </si>
@@ -297,12 +297,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I101" tableType="xml" totalsRowShown="0" connectionId="2">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I101">
-    <sortCondition ref="A2:A101"/>
-    <sortCondition ref="F2:F101"/>
-    <sortCondition ref="B2:B101"/>
-    <sortCondition ref="C2:C101"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I107" tableType="xml" totalsRowShown="0" connectionId="2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I107">
+    <sortCondition ref="A2:A107"/>
+    <sortCondition ref="F2:F107"/>
+    <sortCondition ref="B2:B107"/>
+    <sortCondition ref="C2:C107"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="Date" name="Date">
@@ -634,28 +634,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L101"/>
+  <dimension ref="A1:L107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.109375" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -690,7 +690,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>20210228</v>
       </c>
@@ -725,7 +725,7 @@
         <v>20210228OWE</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>20210228</v>
       </c>
@@ -760,7 +760,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>20210228</v>
       </c>
@@ -795,7 +795,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>20210228</v>
       </c>
@@ -830,7 +830,7 @@
         <v>20210228OWF</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>20210228</v>
       </c>
@@ -865,7 +865,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>20210228</v>
       </c>
@@ -900,7 +900,7 @@
         <v>20210228VWE</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>20210228</v>
       </c>
@@ -935,7 +935,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>20210314</v>
       </c>
@@ -970,7 +970,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>20210314</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>20210314</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>20210314U15WF</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>20210314</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>20210314</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>20210314U11GF</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>20210314</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>20210314</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>20210314</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>20210314</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>20210314U15WE</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>20210321</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>20210321OWE</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>20210321</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20210321</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>20210321OWS</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20210321</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20210321</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>20210321OWF</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20210321</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>20210321</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>20210502</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>20210502U1720WF</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>20210502</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>20210502OBWE</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>20210502</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>20210502U1720WS</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>20210502</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>20210502OBWF</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>20210502</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>20210502U1720WE</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>20210502</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>20210502OBWS</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>20210516</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>20210516</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>20210516U15WF</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>20210516</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>20210516</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>20210516U11GF</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>20210516</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>20210516</v>
       </c>
@@ -1915,7 +1915,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>20210516</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>20210516U13GF</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>20210516</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>20210523</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>20210523</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>20210523U1720WF</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>20210523</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>20210523</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>20210523OBWE</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>20210523</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>20210523</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>20210523OBWF</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>20210523</v>
       </c>
@@ -2230,7 +2230,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>20210523</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>20210530</v>
       </c>
@@ -2300,7 +2300,7 @@
         <v>20210530OWE</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>20210530</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>20210530OWS</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>20210530</v>
       </c>
@@ -2370,7 +2370,7 @@
         <v>20210530VWF</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>20210530</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v>20210530OWF</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>20210530</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>20210530VWE</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>20210530</v>
       </c>
@@ -2475,15 +2475,15 @@
         <v>20210530VWS</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>20210801</v>
+        <v>20210627</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -2500,95 +2500,95 @@
       <c r="H53" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I53" s="1"/>
+      <c r="I53" s="3"/>
       <c r="K53" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210801U13BE</v>
+        <v>20210627U1720MF</v>
       </c>
       <c r="L53" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210801U13GE</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20210627U1720WF</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>20210801</v>
+        <v>20210627</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I54" s="3"/>
+      <c r="K54" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
+        <v>20210627OBME</v>
+      </c>
+      <c r="L54" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
+        <v>20210627OBWE</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>20210627</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I55" s="3"/>
+      <c r="K55" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
+        <v>20210627U1720MS</v>
+      </c>
+      <c r="L55" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
+        <v>20210627U1720WS</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>20210627</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>1</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I54" s="1"/>
-      <c r="K54" t="str">
-        <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210801U15MF</v>
-      </c>
-      <c r="L54" t="str">
-        <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210801U15WF</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>20210801</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <v>1</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I55" s="1"/>
-      <c r="K55" t="str">
-        <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210801U11BF</v>
-      </c>
-      <c r="L55" t="str">
-        <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210801U11GF</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>20210801</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -2605,25 +2605,25 @@
       <c r="H56" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I56" s="1"/>
+      <c r="I56" s="3"/>
       <c r="K56" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210801U11BE</v>
+        <v>20210627OBMF</v>
       </c>
       <c r="L56" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210801U11GE</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20210627OBWF</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>20210801</v>
+        <v>20210627</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -2632,33 +2632,33 @@
         <v>1</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I57" s="1"/>
+      <c r="I57" s="3"/>
       <c r="K57" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210801U13BF</v>
+        <v>20210627U1720ME</v>
       </c>
       <c r="L57" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210801U13GF</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20210627U1720WE</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>20210801</v>
+        <v>20210627</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -2667,7 +2667,7 @@
         <v>1</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>36</v>
@@ -2675,22 +2675,22 @@
       <c r="H58" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I58" s="1"/>
+      <c r="I58" s="3"/>
       <c r="K58" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210801U15ME</v>
+        <v>20210627OBMS</v>
       </c>
       <c r="L58" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210801U15WE</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20210627OBWS</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>20210815</v>
+        <v>20210801</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>12</v>
@@ -2708,27 +2708,27 @@
         <v>33</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I59" s="1"/>
       <c r="K59" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210815OME</v>
+        <v>20210801U13BE</v>
       </c>
       <c r="L59" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210815OWE</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20210801U13GE</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>20210815</v>
+        <v>20210801</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -2737,30 +2737,30 @@
         <v>1</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I60" s="1"/>
       <c r="K60" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210815OMS</v>
+        <v>20210801U15MF</v>
       </c>
       <c r="L60" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210815OWS</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20210801U15WF</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>20210815</v>
+        <v>20210801</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>11</v>
@@ -2772,10 +2772,10 @@
         <v>1</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>19</v>
@@ -2783,22 +2783,22 @@
       <c r="I61" s="1"/>
       <c r="K61" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210815VMF</v>
+        <v>20210801U11BF</v>
       </c>
       <c r="L61" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210815VWF</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20210801U11GF</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>20210815</v>
+        <v>20210801</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -2813,27 +2813,27 @@
         <v>38</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I62" s="1"/>
       <c r="K62" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210815OMF</v>
+        <v>20210801U11BE</v>
       </c>
       <c r="L62" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210815OWF</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20210801U11GE</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>20210815</v>
+        <v>20210801</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -2853,22 +2853,22 @@
       <c r="I63" s="1"/>
       <c r="K63" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210815VME</v>
+        <v>20210801U13BF</v>
       </c>
       <c r="L63" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210815VWE</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20210801U13GF</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>20210815</v>
+        <v>20210801</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -2877,10 +2877,10 @@
         <v>1</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>19</v>
@@ -2888,22 +2888,22 @@
       <c r="I64" s="1"/>
       <c r="K64" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210815VMS</v>
+        <v>20210801U15ME</v>
       </c>
       <c r="L64" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210815VWS</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20210801U15WE</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>20210822</v>
+        <v>20210815</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -2918,27 +2918,27 @@
         <v>33</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="I65" s="1"/>
       <c r="K65" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210822U17MF</v>
+        <v>20210815OME</v>
       </c>
       <c r="L65" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210822U17WF</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20210815OWE</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>20210905</v>
+        <v>20210815</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -2947,33 +2947,33 @@
         <v>1</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I66" s="1"/>
       <c r="K66" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210905U1720MF</v>
+        <v>20210815OMS</v>
       </c>
       <c r="L66" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210905U1720WF</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20210815OWS</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>20210905</v>
+        <v>20210815</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -2982,33 +2982,33 @@
         <v>1</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I67" s="1"/>
       <c r="K67" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210905OBME</v>
+        <v>20210815VMF</v>
       </c>
       <c r="L67" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210905OBWE</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20210815VWF</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>20210905</v>
+        <v>20210815</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -3017,33 +3017,33 @@
         <v>1</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I68" s="1"/>
       <c r="K68" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210905U1720MS</v>
+        <v>20210815OMF</v>
       </c>
       <c r="L68" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210905U1720WS</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20210815OWF</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>20210905</v>
+        <v>20210815</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -3052,33 +3052,33 @@
         <v>1</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I69" s="1"/>
       <c r="K69" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210905OBMF</v>
+        <v>20210815VME</v>
       </c>
       <c r="L69" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210905OBWF</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20210815VWE</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>20210905</v>
+        <v>20210815</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -3087,33 +3087,33 @@
         <v>1</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I70" s="1"/>
       <c r="K70" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210905U1720ME</v>
+        <v>20210815VMS</v>
       </c>
       <c r="L70" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210905U1720WE</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20210815VWS</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>20210905</v>
+        <v>20210822</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -3122,30 +3122,30 @@
         <v>1</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="I71" s="1"/>
       <c r="K71" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210905OBMS</v>
+        <v>20210822U17MF</v>
       </c>
       <c r="L71" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210905OBWS</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20210822U17WF</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>20210919</v>
+        <v>20210905</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>11</v>
@@ -3154,7 +3154,7 @@
         <v>0</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>26</v>
@@ -3163,24 +3163,24 @@
         <v>33</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="I72" s="1"/>
       <c r="K72" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210919U17TF</v>
+        <v>20210905U1720MF</v>
       </c>
       <c r="L72" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20210905U1720WF</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>20211017</v>
+        <v>20210905</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>12</v>
@@ -3192,10 +3192,10 @@
         <v>1</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>24</v>
@@ -3203,19 +3203,19 @@
       <c r="I73" s="1"/>
       <c r="K73" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211017OME</v>
+        <v>20210905OBME</v>
       </c>
       <c r="L73" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211017OWE</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20210905OBWE</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>20211017</v>
+        <v>20210905</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>13</v>
@@ -3227,10 +3227,10 @@
         <v>1</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>24</v>
@@ -3238,19 +3238,19 @@
       <c r="I74" s="1"/>
       <c r="K74" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211017OMS</v>
+        <v>20210905U1720MS</v>
       </c>
       <c r="L74" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211017OWS</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20210905U1720WS</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>20211017</v>
+        <v>20210905</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>11</v>
@@ -3262,10 +3262,10 @@
         <v>1</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>24</v>
@@ -3273,22 +3273,22 @@
       <c r="I75" s="1"/>
       <c r="K75" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211017VMF</v>
+        <v>20210905OBMF</v>
       </c>
       <c r="L75" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211017VWF</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20210905OBWF</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>20211017</v>
+        <v>20210905</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -3297,10 +3297,10 @@
         <v>1</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>24</v>
@@ -3308,22 +3308,22 @@
       <c r="I76" s="1"/>
       <c r="K76" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211017OMF</v>
+        <v>20210905U1720ME</v>
       </c>
       <c r="L76" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211017OWF</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20210905U1720WE</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>20211017</v>
+        <v>20210905</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -3332,10 +3332,10 @@
         <v>1</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>24</v>
@@ -3343,57 +3343,57 @@
       <c r="I77" s="1"/>
       <c r="K77" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211017VME</v>
+        <v>20210905OBMS</v>
       </c>
       <c r="L77" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211017VWE</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20210905OBWS</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>20211017</v>
+        <v>20210919</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D78">
         <v>0</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="I78" s="1"/>
       <c r="K78" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211017VMS</v>
+        <v>20210919U17TF</v>
       </c>
       <c r="L78" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211017VWS</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>20211024</v>
+        <v>20211017</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -3408,27 +3408,27 @@
         <v>33</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I79" s="1"/>
       <c r="K79" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024U1720MF</v>
+        <v>20211017OME</v>
       </c>
       <c r="L79" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024U1720WF</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20211017OWE</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>20211024</v>
+        <v>20211017</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -3437,33 +3437,33 @@
         <v>1</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I80" s="1"/>
       <c r="K80" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024OBME</v>
+        <v>20211017OMS</v>
       </c>
       <c r="L80" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024OBWE</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20211017OWS</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>20211024</v>
+        <v>20211017</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -3472,30 +3472,30 @@
         <v>1</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I81" s="1"/>
       <c r="K81" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024U1720MS</v>
+        <v>20211017VMF</v>
       </c>
       <c r="L81" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024U1720WS</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20211017VWF</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>20211024</v>
+        <v>20211017</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>11</v>
@@ -3507,30 +3507,30 @@
         <v>1</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I82" s="1"/>
       <c r="K82" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024OBMF</v>
+        <v>20211017OMF</v>
       </c>
       <c r="L82" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024OBWF</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20211017OWF</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>20211024</v>
+        <v>20211017</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>12</v>
@@ -3542,30 +3542,30 @@
         <v>1</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I83" s="1"/>
       <c r="K83" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024U1720ME</v>
+        <v>20211017VME</v>
       </c>
       <c r="L83" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024U1720WE</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20211017VWE</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>20211024</v>
+        <v>20211017</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>13</v>
@@ -3577,33 +3577,33 @@
         <v>1</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I84" s="1"/>
       <c r="K84" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024OBMS</v>
+        <v>20211017VMS</v>
       </c>
       <c r="L84" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024OBWS</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20211017VWS</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>20211107</v>
+        <v>20211024</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -3618,27 +3618,27 @@
         <v>33</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I85" s="1"/>
       <c r="K85" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U13BE</v>
+        <v>20211024U1720MF</v>
       </c>
       <c r="L85" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U13GE</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20211024U1720WF</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>20211107</v>
+        <v>20211024</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -3647,33 +3647,33 @@
         <v>1</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I86" s="1"/>
       <c r="K86" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U15MF</v>
+        <v>20211024OBME</v>
       </c>
       <c r="L86" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U15WF</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20211024OBWE</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>20211107</v>
+        <v>20211024</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -3682,33 +3682,33 @@
         <v>1</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I87" s="1"/>
       <c r="K87" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U11BF</v>
+        <v>20211024U1720MS</v>
       </c>
       <c r="L87" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U11GF</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20211024U1720WS</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>20211107</v>
+        <v>20211024</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -3717,33 +3717,33 @@
         <v>1</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I88" s="1"/>
       <c r="K88" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U11BE</v>
+        <v>20211024OBMF</v>
       </c>
       <c r="L88" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U11GE</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20211024OBWF</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>20211107</v>
+        <v>20211024</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -3752,33 +3752,33 @@
         <v>1</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I89" s="1"/>
       <c r="K89" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U13BF</v>
+        <v>20211024U1720ME</v>
       </c>
       <c r="L89" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U13GF</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20211024U1720WE</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>20211107</v>
+        <v>20211024</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -3787,30 +3787,30 @@
         <v>1</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>36</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I90" s="1"/>
       <c r="K90" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U15ME</v>
+        <v>20211024OBMS</v>
       </c>
       <c r="L90" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U15WE</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20211024OBWS</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>20211121</v>
+        <v>20211107</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>12</v>
@@ -3828,27 +3828,27 @@
         <v>33</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I91" s="1"/>
       <c r="K91" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121OME</v>
+        <v>20211107U13BE</v>
       </c>
       <c r="L91" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121OWE</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20211107U13GE</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>20211121</v>
+        <v>20211107</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -3857,30 +3857,30 @@
         <v>1</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I92" s="1"/>
       <c r="K92" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121OMS</v>
+        <v>20211107U15MF</v>
       </c>
       <c r="L92" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121OWS</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20211107U15WF</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>20211121</v>
+        <v>20211107</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>11</v>
@@ -3892,33 +3892,33 @@
         <v>1</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I93" s="1"/>
       <c r="K93" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121VMF</v>
+        <v>20211107U11BF</v>
       </c>
       <c r="L93" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121VWF</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20211107U11GF</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>20211121</v>
+        <v>20211107</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -3933,27 +3933,27 @@
         <v>38</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I94" s="1"/>
       <c r="K94" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121OMF</v>
+        <v>20211107U11BE</v>
       </c>
       <c r="L94" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121OWF</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20211107U11GE</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>20211121</v>
+        <v>20211107</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -3968,27 +3968,27 @@
         <v>38</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I95" s="1"/>
       <c r="K95" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121VME</v>
+        <v>20211107U13BF</v>
       </c>
       <c r="L95" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121VWE</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20211107U13GF</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>20211121</v>
+        <v>20211107</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -3997,30 +3997,30 @@
         <v>1</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I96" s="1"/>
       <c r="K96" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121VMS</v>
+        <v>20211107U15ME</v>
       </c>
       <c r="L96" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121VWS</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20211107U15WE</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>20211128</v>
+        <v>20211121</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>12</v>
@@ -4029,13 +4029,13 @@
         <v>0</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>19</v>
@@ -4043,34 +4043,34 @@
       <c r="I97" s="1"/>
       <c r="K97" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211128U13TE</v>
+        <v>20211121OME</v>
       </c>
       <c r="L97" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20211121OWE</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>20211128</v>
+        <v>20211121</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D98">
         <v>0</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>19</v>
@@ -4078,34 +4078,34 @@
       <c r="I98" s="1"/>
       <c r="K98" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211128U13TF</v>
+        <v>20211121OMS</v>
       </c>
       <c r="L98" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20211121OWS</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>20211128</v>
+        <v>20211121</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D99">
         <v>0</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>19</v>
@@ -4113,19 +4113,19 @@
       <c r="I99" s="1"/>
       <c r="K99" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211128U17TE</v>
+        <v>20211121VMF</v>
       </c>
       <c r="L99" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20211121VWF</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>20211128</v>
+        <v>20211121</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>11</v>
@@ -4134,13 +4134,13 @@
         <v>0</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>19</v>
@@ -4148,32 +4148,34 @@
       <c r="I100" s="1"/>
       <c r="K100" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211128U17TF</v>
+        <v>20211121OMF</v>
       </c>
       <c r="L100" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20211121OWF</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>20211128</v>
+        <v>20211121</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C101" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D101">
         <v>0</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>19</v>
@@ -4181,9 +4183,217 @@
       <c r="I101" s="1"/>
       <c r="K101" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
+        <v>20211121VME</v>
+      </c>
+      <c r="L101" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
+        <v>20211121VWE</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>20211121</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I102" s="1"/>
+      <c r="K102" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
+        <v>20211121VMS</v>
+      </c>
+      <c r="L102" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
+        <v>20211121VWS</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>20211128</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I103" s="1"/>
+      <c r="K103" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
+        <v>20211128U13TE</v>
+      </c>
+      <c r="L103" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>20211128</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I104" s="1"/>
+      <c r="K104" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
+        <v>20211128U13TF</v>
+      </c>
+      <c r="L104" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>20211128</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I105" s="1"/>
+      <c r="K105" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
+        <v>20211128U17TE</v>
+      </c>
+      <c r="L105" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>20211128</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I106" s="1"/>
+      <c r="K106" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
+        <v>20211128U17TF</v>
+      </c>
+      <c r="L106" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>20211128</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C107" s="1"/>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I107" s="1"/>
+      <c r="K107" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
         <v>20211128OT</v>
       </c>
-      <c r="L101" t="str">
+      <c r="L107" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
         <v>N/A</v>
       </c>

--- a/2021/2021FSAdates.xlsx
+++ b/2021/2021FSAdates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robert.thomas\Dropbox\Competitions\2021\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FSA\Dropbox\Competitions\GitHub\FencingSAResults\2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE932691-80A8-4A53-A62B-43E7E5F5FDC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6CFBAC2-E536-4CA1-9BFB-4678A1014FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="47">
   <si>
     <t>Date</t>
   </si>
@@ -297,12 +297,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I107" tableType="xml" totalsRowShown="0" connectionId="2">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I107">
-    <sortCondition ref="A2:A107"/>
-    <sortCondition ref="F2:F107"/>
-    <sortCondition ref="B2:B107"/>
-    <sortCondition ref="C2:C107"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I108" tableType="xml" totalsRowShown="0" connectionId="2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I108">
+    <sortCondition ref="A2:A108"/>
+    <sortCondition ref="F2:F108"/>
+    <sortCondition ref="B2:B108"/>
+    <sortCondition ref="C2:C108"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="Date" name="Date">
@@ -634,28 +634,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L107"/>
+  <dimension ref="A1:L108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -690,7 +690,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>20210228</v>
       </c>
@@ -725,7 +725,7 @@
         <v>20210228OWE</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>20210228</v>
       </c>
@@ -760,7 +760,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>20210228</v>
       </c>
@@ -795,7 +795,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>20210228</v>
       </c>
@@ -830,7 +830,7 @@
         <v>20210228OWF</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>20210228</v>
       </c>
@@ -865,7 +865,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>20210228</v>
       </c>
@@ -900,7 +900,7 @@
         <v>20210228VWE</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>20210228</v>
       </c>
@@ -935,7 +935,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>20210314</v>
       </c>
@@ -970,7 +970,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20210314</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>20210314</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>20210314U15WF</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>20210314</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>20210314</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>20210314U11GF</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>20210314</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>20210314</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>20210314</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>20210314</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>20210314U15WE</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>20210321</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>20210321OWE</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>20210321</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>20210321</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>20210321OWS</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20210321</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20210321</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>20210321OWF</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>20210321</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>20210321</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>20210502</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>20210502U1720WF</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>20210502</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>20210502OBWE</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>20210502</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>20210502U1720WS</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>20210502</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>20210502OBWF</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>20210502</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>20210502U1720WE</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>20210502</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>20210502OBWS</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>20210516</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>20210516</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>20210516U15WF</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>20210516</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>20210516</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>20210516U11GF</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>20210516</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>20210516</v>
       </c>
@@ -1915,7 +1915,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>20210516</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>20210516U13GF</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>20210516</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>20210523</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>20210523</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>20210523U1720WF</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>20210523</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>20210523</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>20210523OBWE</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>20210523</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>20210523</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>20210523OBWF</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>20210523</v>
       </c>
@@ -2230,7 +2230,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>20210523</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>20210530</v>
       </c>
@@ -2300,7 +2300,7 @@
         <v>20210530OWE</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>20210530</v>
       </c>
@@ -2314,7 +2314,7 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>31</v>
@@ -2328,22 +2328,22 @@
       <c r="I48" s="3"/>
       <c r="K48" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210530OMS</v>
+        <v>20210530OS</v>
       </c>
       <c r="L48" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210530OWS</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>20210530</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -2358,62 +2358,62 @@
         <v>37</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I49" s="3"/>
       <c r="K49" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210530VMF</v>
+        <v>20210530OMS</v>
       </c>
       <c r="L49" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210530VWF</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20210530OWS</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>20210530</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50">
         <v>1</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I50" s="3"/>
       <c r="K50" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210530OMF</v>
+        <v>N/A</v>
       </c>
       <c r="L50" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210530OWF</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>20210530</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -2428,19 +2428,19 @@
         <v>38</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I51" s="3"/>
       <c r="K51" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210530VME</v>
+        <v>20210530OMF</v>
       </c>
       <c r="L51" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210530VWE</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20210530OWF</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>20210530</v>
       </c>
@@ -2448,13 +2448,13 @@
         <v>9</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>32</v>
@@ -2468,34 +2468,34 @@
       <c r="I52" s="3"/>
       <c r="K52" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210530VMS</v>
+        <v>20210530VE</v>
       </c>
       <c r="L52" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210530VWS</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>20210627</v>
+        <v>20210530</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53">
         <v>1</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>19</v>
@@ -2503,22 +2503,22 @@
       <c r="I53" s="3"/>
       <c r="K53" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210627U1720MF</v>
+        <v>N/A</v>
       </c>
       <c r="L53" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210627U1720WF</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>20210627</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -2527,10 +2527,10 @@
         <v>1</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>19</v>
@@ -2538,22 +2538,22 @@
       <c r="I54" s="3"/>
       <c r="K54" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210627OBME</v>
+        <v>20210627U1720MF</v>
       </c>
       <c r="L54" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210627OBWE</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20210627U1720WF</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>20210627</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -2562,10 +2562,10 @@
         <v>1</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>19</v>
@@ -2573,22 +2573,22 @@
       <c r="I55" s="3"/>
       <c r="K55" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210627U1720MS</v>
+        <v>20210627OBME</v>
       </c>
       <c r="L55" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210627U1720WS</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20210627OBWE</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>20210627</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -2597,10 +2597,10 @@
         <v>1</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>19</v>
@@ -2608,22 +2608,22 @@
       <c r="I56" s="3"/>
       <c r="K56" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210627OBMF</v>
+        <v>20210627U1720MS</v>
       </c>
       <c r="L56" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210627OBWF</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20210627U1720WS</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>20210627</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -2632,10 +2632,10 @@
         <v>1</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>19</v>
@@ -2643,22 +2643,22 @@
       <c r="I57" s="3"/>
       <c r="K57" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210627U1720ME</v>
+        <v>20210627OBMF</v>
       </c>
       <c r="L57" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210627U1720WE</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20210627OBWF</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>20210627</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -2667,7 +2667,7 @@
         <v>1</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>36</v>
@@ -2678,57 +2678,57 @@
       <c r="I58" s="3"/>
       <c r="K58" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
+        <v>20210627U1720ME</v>
+      </c>
+      <c r="L58" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
+        <v>20210627U1720WE</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>20210627</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I59" s="3"/>
+      <c r="K59" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
         <v>20210627OBMS</v>
       </c>
-      <c r="L58" t="str">
+      <c r="L59" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
         <v>20210627OBWS</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>20210801</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="E59">
-        <v>1</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I59" s="1"/>
-      <c r="K59" t="str">
-        <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210801U13BE</v>
-      </c>
-      <c r="L59" t="str">
-        <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210801U13GE</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>20210801</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -2748,19 +2748,19 @@
       <c r="I60" s="1"/>
       <c r="K60" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210801U15MF</v>
+        <v>20210801U13BE</v>
       </c>
       <c r="L60" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210801U15WF</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20210801U13GE</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>20210801</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>11</v>
@@ -2772,10 +2772,10 @@
         <v>1</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>19</v>
@@ -2783,14 +2783,14 @@
       <c r="I61" s="1"/>
       <c r="K61" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210801U11BF</v>
+        <v>20210801U15MF</v>
       </c>
       <c r="L61" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210801U11GF</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20210801U15WF</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>20210801</v>
       </c>
@@ -2798,7 +2798,7 @@
         <v>20</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -2807,10 +2807,10 @@
         <v>1</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>19</v>
@@ -2818,22 +2818,22 @@
       <c r="I62" s="1"/>
       <c r="K62" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210801U11BE</v>
+        <v>20210801U11BF</v>
       </c>
       <c r="L62" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210801U11GE</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20210801U11GF</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>20210801</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -2853,22 +2853,22 @@
       <c r="I63" s="1"/>
       <c r="K63" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210801U13BF</v>
+        <v>20210801U11BE</v>
       </c>
       <c r="L63" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210801U13GF</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20210801U11GE</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>20210801</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -2877,10 +2877,10 @@
         <v>1</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>19</v>
@@ -2888,19 +2888,19 @@
       <c r="I64" s="1"/>
       <c r="K64" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210801U15ME</v>
+        <v>20210801U13BF</v>
       </c>
       <c r="L64" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210801U15WE</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20210801U13GF</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>20210815</v>
+        <v>20210801</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>12</v>
@@ -2912,25 +2912,25 @@
         <v>1</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I65" s="1"/>
       <c r="K65" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210815OME</v>
+        <v>20210801U15ME</v>
       </c>
       <c r="L65" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210815OWE</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20210801U15WE</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>20210815</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>18</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -2947,33 +2947,33 @@
         <v>1</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I66" s="1"/>
       <c r="K66" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210815OMS</v>
+        <v>20210815OME</v>
       </c>
       <c r="L66" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210815OWS</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20210815OWE</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>20210815</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -2988,24 +2988,24 @@
         <v>37</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I67" s="1"/>
       <c r="K67" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210815VMF</v>
+        <v>20210815OMS</v>
       </c>
       <c r="L67" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210815VWF</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20210815OWS</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>20210815</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>11</v>
@@ -3017,33 +3017,33 @@
         <v>1</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I68" s="1"/>
       <c r="K68" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210815OMF</v>
+        <v>20210815VMF</v>
       </c>
       <c r="L68" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210815OWF</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20210815VWF</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>20210815</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -3058,19 +3058,19 @@
         <v>38</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I69" s="1"/>
       <c r="K69" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210815VME</v>
+        <v>20210815OMF</v>
       </c>
       <c r="L69" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210815VWE</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20210815OWF</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>20210815</v>
       </c>
@@ -3078,7 +3078,7 @@
         <v>9</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -3098,22 +3098,22 @@
       <c r="I70" s="1"/>
       <c r="K70" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210815VMS</v>
+        <v>20210815VME</v>
       </c>
       <c r="L70" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210815VWS</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20210815VWE</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>20210822</v>
+        <v>20210815</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -3122,30 +3122,30 @@
         <v>1</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="I71" s="1"/>
       <c r="K71" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210822U17MF</v>
+        <v>20210815VMS</v>
       </c>
       <c r="L71" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210822U17WF</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20210815VWS</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>20210905</v>
+        <v>20210822</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>11</v>
@@ -3163,27 +3163,27 @@
         <v>33</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="I72" s="1"/>
       <c r="K72" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210905U1720MF</v>
+        <v>20210822U17MF</v>
       </c>
       <c r="L72" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210905U1720WF</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20210822U17WF</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>20210905</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -3192,10 +3192,10 @@
         <v>1</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>24</v>
@@ -3203,22 +3203,22 @@
       <c r="I73" s="1"/>
       <c r="K73" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210905OBME</v>
+        <v>20210905U1720MF</v>
       </c>
       <c r="L73" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210905OBWE</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20210905U1720WF</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>20210905</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -3227,10 +3227,10 @@
         <v>1</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>24</v>
@@ -3238,22 +3238,22 @@
       <c r="I74" s="1"/>
       <c r="K74" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210905U1720MS</v>
+        <v>20210905OBME</v>
       </c>
       <c r="L74" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210905U1720WS</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20210905OBWE</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>20210905</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -3262,10 +3262,10 @@
         <v>1</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>24</v>
@@ -3273,22 +3273,22 @@
       <c r="I75" s="1"/>
       <c r="K75" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210905OBMF</v>
+        <v>20210905U1720MS</v>
       </c>
       <c r="L75" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210905OBWF</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20210905U1720WS</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>20210905</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -3308,22 +3308,22 @@
       <c r="I76" s="1"/>
       <c r="K76" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210905U1720ME</v>
+        <v>20210905OBMF</v>
       </c>
       <c r="L76" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210905U1720WE</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20210905OBWF</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>20210905</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>1</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>36</v>
@@ -3343,63 +3343,63 @@
       <c r="I77" s="1"/>
       <c r="K77" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210905OBMS</v>
+        <v>20210905U1720ME</v>
       </c>
       <c r="L77" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210905OBWS</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20210905U1720WE</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>20210919</v>
+        <v>20210905</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D78">
         <v>0</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="I78" s="1"/>
       <c r="K78" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210919U17TF</v>
+        <v>20210905OBMS</v>
       </c>
       <c r="L78" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20210905OBWS</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>20211017</v>
+        <v>20210919</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>26</v>
@@ -3408,19 +3408,19 @@
         <v>33</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="I79" s="1"/>
       <c r="K79" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211017OME</v>
+        <v>20210919U17TF</v>
       </c>
       <c r="L79" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211017OWE</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>20211017</v>
       </c>
@@ -3428,7 +3428,7 @@
         <v>18</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -3437,10 +3437,10 @@
         <v>1</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>24</v>
@@ -3448,22 +3448,22 @@
       <c r="I80" s="1"/>
       <c r="K80" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211017OMS</v>
+        <v>20211017OME</v>
       </c>
       <c r="L80" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211017OWS</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20211017OWE</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>20211017</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -3483,19 +3483,19 @@
       <c r="I81" s="1"/>
       <c r="K81" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211017VMF</v>
+        <v>20211017OMS</v>
       </c>
       <c r="L81" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211017VWF</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20211017OWS</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>20211017</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>11</v>
@@ -3507,10 +3507,10 @@
         <v>1</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>24</v>
@@ -3518,22 +3518,22 @@
       <c r="I82" s="1"/>
       <c r="K82" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211017OMF</v>
+        <v>20211017VMF</v>
       </c>
       <c r="L82" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211017OWF</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20211017VWF</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>20211017</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -3553,14 +3553,14 @@
       <c r="I83" s="1"/>
       <c r="K83" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211017VME</v>
+        <v>20211017OMF</v>
       </c>
       <c r="L83" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211017VWE</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20211017OWF</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>20211017</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>9</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -3588,22 +3588,22 @@
       <c r="I84" s="1"/>
       <c r="K84" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211017VMS</v>
+        <v>20211017VME</v>
       </c>
       <c r="L84" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211017VWS</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20211017VWE</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>20211024</v>
+        <v>20211017</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -3612,33 +3612,33 @@
         <v>1</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I85" s="1"/>
       <c r="K85" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024U1720MF</v>
+        <v>20211017VMS</v>
       </c>
       <c r="L85" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024U1720WF</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20211017VWS</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>20211024</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -3647,10 +3647,10 @@
         <v>1</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>19</v>
@@ -3658,22 +3658,22 @@
       <c r="I86" s="1"/>
       <c r="K86" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024OBME</v>
+        <v>20211024U1720MF</v>
       </c>
       <c r="L86" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024OBWE</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20211024U1720WF</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>20211024</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -3682,10 +3682,10 @@
         <v>1</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>19</v>
@@ -3693,22 +3693,22 @@
       <c r="I87" s="1"/>
       <c r="K87" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024U1720MS</v>
+        <v>20211024OBME</v>
       </c>
       <c r="L87" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024U1720WS</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20211024OBWE</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>20211024</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -3717,10 +3717,10 @@
         <v>1</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>19</v>
@@ -3728,22 +3728,22 @@
       <c r="I88" s="1"/>
       <c r="K88" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024OBMF</v>
+        <v>20211024U1720MS</v>
       </c>
       <c r="L88" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024OBWF</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20211024U1720WS</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>20211024</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -3763,22 +3763,22 @@
       <c r="I89" s="1"/>
       <c r="K89" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024U1720ME</v>
+        <v>20211024OBMF</v>
       </c>
       <c r="L89" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024U1720WE</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20211024OBWF</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>20211024</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>1</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>36</v>
@@ -3798,22 +3798,22 @@
       <c r="I90" s="1"/>
       <c r="K90" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024OBMS</v>
+        <v>20211024U1720ME</v>
       </c>
       <c r="L90" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024OBWS</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20211024U1720WE</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>20211107</v>
+        <v>20211024</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -3822,33 +3822,33 @@
         <v>1</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I91" s="1"/>
       <c r="K91" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U13BE</v>
+        <v>20211024OBMS</v>
       </c>
       <c r="L91" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U13GE</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20211024OBWS</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>20211107</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -3868,19 +3868,19 @@
       <c r="I92" s="1"/>
       <c r="K92" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U15MF</v>
+        <v>20211107U13BE</v>
       </c>
       <c r="L92" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U15WF</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20211107U13GE</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>20211107</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>11</v>
@@ -3892,10 +3892,10 @@
         <v>1</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>24</v>
@@ -3903,14 +3903,14 @@
       <c r="I93" s="1"/>
       <c r="K93" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U11BF</v>
+        <v>20211107U15MF</v>
       </c>
       <c r="L93" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U11GF</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20211107U15WF</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>20211107</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>20</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -3927,10 +3927,10 @@
         <v>1</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>24</v>
@@ -3938,22 +3938,22 @@
       <c r="I94" s="1"/>
       <c r="K94" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U11BE</v>
+        <v>20211107U11BF</v>
       </c>
       <c r="L94" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U11GE</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20211107U11GF</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>20211107</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -3973,22 +3973,22 @@
       <c r="I95" s="1"/>
       <c r="K95" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U13BF</v>
+        <v>20211107U11BE</v>
       </c>
       <c r="L95" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U13GF</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20211107U11GE</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>20211107</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -3997,10 +3997,10 @@
         <v>1</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>24</v>
@@ -4008,19 +4008,19 @@
       <c r="I96" s="1"/>
       <c r="K96" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U15ME</v>
+        <v>20211107U13BF</v>
       </c>
       <c r="L96" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U15WE</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20211107U13GF</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>20211121</v>
+        <v>20211107</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>12</v>
@@ -4032,25 +4032,25 @@
         <v>1</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I97" s="1"/>
       <c r="K97" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121OME</v>
+        <v>20211107U15ME</v>
       </c>
       <c r="L97" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121OWE</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20211107U15WE</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>20211121</v>
       </c>
@@ -4058,7 +4058,7 @@
         <v>18</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -4067,10 +4067,10 @@
         <v>1</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>19</v>
@@ -4078,22 +4078,22 @@
       <c r="I98" s="1"/>
       <c r="K98" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121OMS</v>
+        <v>20211121OME</v>
       </c>
       <c r="L98" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121OWS</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20211121OWE</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>20211121</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -4113,19 +4113,19 @@
       <c r="I99" s="1"/>
       <c r="K99" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121VMF</v>
+        <v>20211121OMS</v>
       </c>
       <c r="L99" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121VWF</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20211121OWS</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>20211121</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>11</v>
@@ -4137,10 +4137,10 @@
         <v>1</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>19</v>
@@ -4148,22 +4148,22 @@
       <c r="I100" s="1"/>
       <c r="K100" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121OMF</v>
+        <v>20211121VMF</v>
       </c>
       <c r="L100" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121OWF</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20211121VWF</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>20211121</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -4183,14 +4183,14 @@
       <c r="I101" s="1"/>
       <c r="K101" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121VME</v>
+        <v>20211121OMF</v>
       </c>
       <c r="L101" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121VWE</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20211121OWF</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>20211121</v>
       </c>
@@ -4198,7 +4198,7 @@
         <v>9</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -4218,34 +4218,34 @@
       <c r="I102" s="1"/>
       <c r="K102" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121VMS</v>
+        <v>20211121VME</v>
       </c>
       <c r="L102" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121VWS</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20211121VWE</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>20211128</v>
+        <v>20211121</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D103">
         <v>0</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>19</v>
@@ -4253,14 +4253,14 @@
       <c r="I103" s="1"/>
       <c r="K103" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211128U13TE</v>
+        <v>20211121VMS</v>
       </c>
       <c r="L103" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20211121VWS</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>20211128</v>
       </c>
@@ -4268,7 +4268,7 @@
         <v>41</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -4288,22 +4288,22 @@
       <c r="I104" s="1"/>
       <c r="K104" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211128U13TF</v>
+        <v>20211128U13TE</v>
       </c>
       <c r="L104" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
         <v>N/A</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>20211128</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -4312,10 +4312,10 @@
         <v>0</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>19</v>
@@ -4323,14 +4323,14 @@
       <c r="I105" s="1"/>
       <c r="K105" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211128U17TE</v>
+        <v>20211128U13TF</v>
       </c>
       <c r="L105" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
         <v>N/A</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>20211128</v>
       </c>
@@ -4338,7 +4338,7 @@
         <v>40</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -4358,21 +4358,23 @@
       <c r="I106" s="1"/>
       <c r="K106" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211128U17TF</v>
+        <v>20211128U17TE</v>
       </c>
       <c r="L106" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
         <v>N/A</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>20211128</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C107" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="D107">
         <v>0</v>
       </c>
@@ -4380,10 +4382,10 @@
         <v>0</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>19</v>
@@ -4391,9 +4393,42 @@
       <c r="I107" s="1"/>
       <c r="K107" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
+        <v>20211128U17TF</v>
+      </c>
+      <c r="L107" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>20211128</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C108" s="1"/>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I108" s="1"/>
+      <c r="K108" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
         <v>20211128OT</v>
       </c>
-      <c r="L107" t="str">
+      <c r="L108" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
         <v>N/A</v>
       </c>

--- a/2021/2021FSAdates.xlsx
+++ b/2021/2021FSAdates.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FSA\Dropbox\Competitions\GitHub\FencingSAResults\2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Dropbox\Competitions\GitHub\FencingSAResults\2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6CFBAC2-E536-4CA1-9BFB-4678A1014FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99709A7A-BA32-4311-AB21-A566BE565A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -637,25 +637,25 @@
   <dimension ref="A1:L108"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.109375" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -690,7 +690,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>20210228</v>
       </c>
@@ -725,7 +725,7 @@
         <v>20210228OWE</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>20210228</v>
       </c>
@@ -760,7 +760,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>20210228</v>
       </c>
@@ -795,7 +795,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>20210228</v>
       </c>
@@ -830,7 +830,7 @@
         <v>20210228OWF</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>20210228</v>
       </c>
@@ -865,7 +865,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>20210228</v>
       </c>
@@ -900,7 +900,7 @@
         <v>20210228VWE</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>20210228</v>
       </c>
@@ -935,7 +935,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>20210314</v>
       </c>
@@ -970,7 +970,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>20210314</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>20210314</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>20210314U15WF</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>20210314</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>20210314</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>20210314U11GF</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>20210314</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>20210314</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>20210314</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>20210314</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>20210314U15WE</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>20210321</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>20210321OWE</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>20210321</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20210321</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>20210321OWS</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20210321</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20210321</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>20210321OWF</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20210321</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>20210321</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>20210502</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>20210502U1720WF</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>20210502</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>20210502OBWE</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>20210502</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>20210502U1720WS</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>20210502</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>20210502OBWF</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>20210502</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>20210502U1720WE</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>20210502</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>20210502OBWS</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>20210516</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>20210516</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>20210516U15WF</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>20210516</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>20210516</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>20210516U11GF</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>20210516</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>20210516</v>
       </c>
@@ -1915,7 +1915,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>20210516</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>20210516U13GF</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>20210516</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>20210523</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>20210523</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>20210523U1720WF</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>20210523</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>20210523</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>20210523OBWE</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>20210523</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>20210523</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>20210523OBWF</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>20210523</v>
       </c>
@@ -2230,7 +2230,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>20210523</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>20210530</v>
       </c>
@@ -2300,7 +2300,7 @@
         <v>20210530OWE</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>20210530</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>20210530</v>
       </c>
@@ -2370,7 +2370,7 @@
         <v>20210530OWS</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>20210530</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>20210530</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>20210530OWF</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>20210530</v>
       </c>
@@ -2475,7 +2475,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>20210530</v>
       </c>
@@ -2510,7 +2510,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>20210627</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>20210627U1720WF</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>20210627</v>
       </c>
@@ -2559,7 +2559,7 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>27</v>
@@ -2573,14 +2573,14 @@
       <c r="I55" s="3"/>
       <c r="K55" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210627OBME</v>
+        <v>20210627OBE</v>
       </c>
       <c r="L55" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210627OBWE</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>20210627</v>
       </c>
@@ -2591,7 +2591,7 @@
         <v>13</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -2608,14 +2608,14 @@
       <c r="I56" s="3"/>
       <c r="K56" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210627U1720MS</v>
+        <v>N/A</v>
       </c>
       <c r="L56" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210627U1720WS</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>20210627</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>20210627OBWF</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>20210627</v>
       </c>
@@ -2661,7 +2661,7 @@
         <v>12</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -2678,14 +2678,14 @@
       <c r="I58" s="3"/>
       <c r="K58" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210627U1720ME</v>
+        <v>N/A</v>
       </c>
       <c r="L58" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210627U1720WE</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>20210627</v>
       </c>
@@ -2696,7 +2696,7 @@
         <v>13</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -2713,14 +2713,14 @@
       <c r="I59" s="3"/>
       <c r="K59" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210627OBMS</v>
+        <v>N/A</v>
       </c>
       <c r="L59" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210627OBWS</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>20210801</v>
       </c>
@@ -2755,7 +2755,7 @@
         <v>20210801U13GE</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>20210801</v>
       </c>
@@ -2790,7 +2790,7 @@
         <v>20210801U15WF</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>20210801</v>
       </c>
@@ -2825,7 +2825,7 @@
         <v>20210801U11GF</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>20210801</v>
       </c>
@@ -2860,7 +2860,7 @@
         <v>20210801U11GE</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>20210801</v>
       </c>
@@ -2895,7 +2895,7 @@
         <v>20210801U13GF</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>20210801</v>
       </c>
@@ -2930,7 +2930,7 @@
         <v>20210801U15WE</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>20210815</v>
       </c>
@@ -2965,7 +2965,7 @@
         <v>20210815OWE</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>20210815</v>
       </c>
@@ -3000,7 +3000,7 @@
         <v>20210815OWS</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>20210815</v>
       </c>
@@ -3035,7 +3035,7 @@
         <v>20210815VWF</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>20210815</v>
       </c>
@@ -3070,7 +3070,7 @@
         <v>20210815OWF</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>20210815</v>
       </c>
@@ -3105,7 +3105,7 @@
         <v>20210815VWE</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>20210815</v>
       </c>
@@ -3140,7 +3140,7 @@
         <v>20210815VWS</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>20210822</v>
       </c>
@@ -3175,7 +3175,7 @@
         <v>20210822U17WF</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>20210905</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>20210905U1720WF</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>20210905</v>
       </c>
@@ -3245,7 +3245,7 @@
         <v>20210905OBWE</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>20210905</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>20210905U1720WS</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>20210905</v>
       </c>
@@ -3315,7 +3315,7 @@
         <v>20210905OBWF</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>20210905</v>
       </c>
@@ -3350,7 +3350,7 @@
         <v>20210905U1720WE</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>20210905</v>
       </c>
@@ -3385,7 +3385,7 @@
         <v>20210905OBWS</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>20210919</v>
       </c>
@@ -3420,7 +3420,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>20211017</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v>20211017OWE</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>20211017</v>
       </c>
@@ -3490,7 +3490,7 @@
         <v>20211017OWS</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>20211017</v>
       </c>
@@ -3525,7 +3525,7 @@
         <v>20211017VWF</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>20211017</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>20211017OWF</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>20211017</v>
       </c>
@@ -3595,7 +3595,7 @@
         <v>20211017VWE</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>20211017</v>
       </c>
@@ -3630,7 +3630,7 @@
         <v>20211017VWS</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>20211024</v>
       </c>
@@ -3665,7 +3665,7 @@
         <v>20211024U1720WF</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>20211024</v>
       </c>
@@ -3700,7 +3700,7 @@
         <v>20211024OBWE</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>20211024</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>20211024U1720WS</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>20211024</v>
       </c>
@@ -3770,7 +3770,7 @@
         <v>20211024OBWF</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>20211024</v>
       </c>
@@ -3805,7 +3805,7 @@
         <v>20211024U1720WE</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>20211024</v>
       </c>
@@ -3840,7 +3840,7 @@
         <v>20211024OBWS</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>20211107</v>
       </c>
@@ -3875,7 +3875,7 @@
         <v>20211107U13GE</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>20211107</v>
       </c>
@@ -3910,7 +3910,7 @@
         <v>20211107U15WF</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>20211107</v>
       </c>
@@ -3945,7 +3945,7 @@
         <v>20211107U11GF</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>20211107</v>
       </c>
@@ -3980,7 +3980,7 @@
         <v>20211107U11GE</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>20211107</v>
       </c>
@@ -4015,7 +4015,7 @@
         <v>20211107U13GF</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>20211107</v>
       </c>
@@ -4050,7 +4050,7 @@
         <v>20211107U15WE</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>20211121</v>
       </c>
@@ -4085,7 +4085,7 @@
         <v>20211121OWE</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>20211121</v>
       </c>
@@ -4120,7 +4120,7 @@
         <v>20211121OWS</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>20211121</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>20211121VWF</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>20211121</v>
       </c>
@@ -4190,7 +4190,7 @@
         <v>20211121OWF</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>20211121</v>
       </c>
@@ -4225,7 +4225,7 @@
         <v>20211121VWE</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>20211121</v>
       </c>
@@ -4260,7 +4260,7 @@
         <v>20211121VWS</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>20211128</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>20211128</v>
       </c>
@@ -4330,7 +4330,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>20211128</v>
       </c>
@@ -4365,7 +4365,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>20211128</v>
       </c>
@@ -4400,7 +4400,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>20211128</v>
       </c>

--- a/2021/2021FSAdates.xlsx
+++ b/2021/2021FSAdates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Dropbox\Competitions\GitHub\FencingSAResults\2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robert.thomas\Dropbox\Competitions\GitHub\FencingSAResults\2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99709A7A-BA32-4311-AB21-A566BE565A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08EFAE7A-0360-42D0-82E9-8D2A46B863EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16305" yWindow="-14610" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="47">
   <si>
     <t>Date</t>
   </si>
@@ -297,12 +297,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I108" tableType="xml" totalsRowShown="0" connectionId="2">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I108">
-    <sortCondition ref="A2:A108"/>
-    <sortCondition ref="F2:F108"/>
-    <sortCondition ref="B2:B108"/>
-    <sortCondition ref="C2:C108"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I113" tableType="xml" totalsRowShown="0" connectionId="2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I113">
+    <sortCondition ref="A2:A113"/>
+    <sortCondition ref="F2:F113"/>
+    <sortCondition ref="B2:B113"/>
+    <sortCondition ref="C2:C113"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="Date" name="Date">
@@ -634,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L108"/>
+  <dimension ref="A1:L113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2731,7 +2731,7 @@
         <v>12</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -2748,11 +2748,11 @@
       <c r="I60" s="1"/>
       <c r="K60" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210801U13BE</v>
+        <v>N/A</v>
       </c>
       <c r="L60" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210801U13GE</v>
+        <v/>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -2766,7 +2766,7 @@
         <v>11</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -2783,11 +2783,11 @@
       <c r="I61" s="1"/>
       <c r="K61" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210801U15MF</v>
+        <v>N/A</v>
       </c>
       <c r="L61" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210801U15WF</v>
+        <v/>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -2801,7 +2801,7 @@
         <v>11</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -2818,11 +2818,11 @@
       <c r="I62" s="1"/>
       <c r="K62" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210801U11BF</v>
+        <v>N/A</v>
       </c>
       <c r="L62" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210801U11GF</v>
+        <v/>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -2833,19 +2833,19 @@
         <v>20</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63">
         <v>1</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>19</v>
@@ -2853,11 +2853,11 @@
       <c r="I63" s="1"/>
       <c r="K63" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210801U11BE</v>
+        <v>N/A</v>
       </c>
       <c r="L63" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210801U11GE</v>
+        <v/>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -2865,13 +2865,13 @@
         <v>20210801</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -2888,11 +2888,11 @@
       <c r="I64" s="1"/>
       <c r="K64" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210801U13BF</v>
+        <v>N/A</v>
       </c>
       <c r="L64" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210801U13GF</v>
+        <v/>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -2900,22 +2900,22 @@
         <v>20210801</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E65">
         <v>1</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>19</v>
@@ -2923,46 +2923,46 @@
       <c r="I65" s="1"/>
       <c r="K65" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210801U15ME</v>
+        <v>N/A</v>
       </c>
       <c r="L65" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210801U15WE</v>
+        <v/>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>20210815</v>
+        <v>20210801</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66">
         <v>1</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I66" s="1"/>
       <c r="K66" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210815OME</v>
+        <v>N/A</v>
       </c>
       <c r="L66" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210815OWE</v>
+        <v/>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -2973,7 +2973,7 @@
         <v>18</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -2982,22 +2982,22 @@
         <v>1</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I67" s="1"/>
       <c r="K67" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210815OMS</v>
+        <v>20210815OME</v>
       </c>
       <c r="L67" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210815OWS</v>
+        <v>20210815OWE</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -3005,10 +3005,10 @@
         <v>20210815</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -3023,16 +3023,16 @@
         <v>37</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I68" s="1"/>
       <c r="K68" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210815VMF</v>
+        <v>20210815OMS</v>
       </c>
       <c r="L68" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210815VWF</v>
+        <v>20210815OWS</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -3040,7 +3040,7 @@
         <v>20210815</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>11</v>
@@ -3052,22 +3052,22 @@
         <v>1</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I69" s="1"/>
       <c r="K69" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210815OMF</v>
+        <v>20210815VMF</v>
       </c>
       <c r="L69" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210815OWF</v>
+        <v>20210815VWF</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -3075,10 +3075,10 @@
         <v>20210815</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -3093,16 +3093,16 @@
         <v>38</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I70" s="1"/>
       <c r="K70" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210815VME</v>
+        <v>20210815OMF</v>
       </c>
       <c r="L70" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210815VWE</v>
+        <v>20210815OWF</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -3113,7 +3113,7 @@
         <v>9</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -3133,22 +3133,22 @@
       <c r="I71" s="1"/>
       <c r="K71" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210815VMS</v>
+        <v>20210815VME</v>
       </c>
       <c r="L71" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210815VWS</v>
+        <v>20210815VWE</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>20210822</v>
+        <v>20210815</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -3157,30 +3157,30 @@
         <v>1</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="I72" s="1"/>
       <c r="K72" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210822U17MF</v>
+        <v>20210815VMS</v>
       </c>
       <c r="L72" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210822U17WF</v>
+        <v>20210815VWS</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>20210905</v>
+        <v>20210822</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>11</v>
@@ -3198,16 +3198,16 @@
         <v>33</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="I73" s="1"/>
       <c r="K73" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210905U1720MF</v>
+        <v>20210822U17MF</v>
       </c>
       <c r="L73" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210905U1720WF</v>
+        <v>20210822U17WF</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -3215,10 +3215,10 @@
         <v>20210905</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -3227,10 +3227,10 @@
         <v>1</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>24</v>
@@ -3238,11 +3238,11 @@
       <c r="I74" s="1"/>
       <c r="K74" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210905OBME</v>
+        <v>20210905U1720MF</v>
       </c>
       <c r="L74" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210905OBWE</v>
+        <v>20210905U1720WF</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -3250,10 +3250,10 @@
         <v>20210905</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -3262,10 +3262,10 @@
         <v>1</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>24</v>
@@ -3273,11 +3273,11 @@
       <c r="I75" s="1"/>
       <c r="K75" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210905U1720MS</v>
+        <v>20210905OBME</v>
       </c>
       <c r="L75" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210905U1720WS</v>
+        <v>20210905OBWE</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -3285,10 +3285,10 @@
         <v>20210905</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -3297,10 +3297,10 @@
         <v>1</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>24</v>
@@ -3308,11 +3308,11 @@
       <c r="I76" s="1"/>
       <c r="K76" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210905OBMF</v>
+        <v>20210905U1720MS</v>
       </c>
       <c r="L76" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210905OBWF</v>
+        <v>20210905U1720WS</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -3320,10 +3320,10 @@
         <v>20210905</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -3343,11 +3343,11 @@
       <c r="I77" s="1"/>
       <c r="K77" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210905U1720ME</v>
+        <v>20210905OBMF</v>
       </c>
       <c r="L77" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210905U1720WE</v>
+        <v>20210905OBWF</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -3355,10 +3355,10 @@
         <v>20210905</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -3367,7 +3367,7 @@
         <v>1</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>36</v>
@@ -3378,63 +3378,63 @@
       <c r="I78" s="1"/>
       <c r="K78" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210905OBMS</v>
+        <v>20210905U1720ME</v>
       </c>
       <c r="L78" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210905OBWS</v>
+        <v>20210905U1720WE</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>20210919</v>
+        <v>20210905</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="I79" s="1"/>
       <c r="K79" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210919U17TF</v>
+        <v>20210905OBMS</v>
       </c>
       <c r="L79" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
+        <v>20210905OBWS</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>20211017</v>
+        <v>20210919</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D80">
         <v>0</v>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>26</v>
@@ -3443,59 +3443,59 @@
         <v>33</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="I80" s="1"/>
       <c r="K80" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211017OME</v>
+        <v>20210919U17TF</v>
       </c>
       <c r="L80" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211017OWE</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>20211017</v>
+        <v>20210919</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D81">
         <v>0</v>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="I81" s="1"/>
       <c r="K81" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211017OMS</v>
+        <v>20210919U17F</v>
       </c>
       <c r="L81" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211017OWS</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>20211017</v>
+        <v>20210919</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>11</v>
@@ -3504,68 +3504,68 @@
         <v>0</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="I82" s="1"/>
       <c r="K82" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211017VMF</v>
+        <v>20210919U15F</v>
       </c>
       <c r="L82" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211017VWF</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>20211017</v>
+        <v>20210919</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D83">
         <v>0</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="I83" s="1"/>
       <c r="K83" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211017OMF</v>
+        <v>20210919U17E</v>
       </c>
       <c r="L83" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211017OWF</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>20211017</v>
+        <v>20210919</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>12</v>
@@ -3574,25 +3574,25 @@
         <v>0</v>
       </c>
       <c r="E84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="I84" s="1"/>
       <c r="K84" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211017VME</v>
+        <v>20210919U15E</v>
       </c>
       <c r="L84" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211017VWE</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
@@ -3600,10 +3600,10 @@
         <v>20211017</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -3612,10 +3612,10 @@
         <v>1</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>24</v>
@@ -3623,22 +3623,22 @@
       <c r="I85" s="1"/>
       <c r="K85" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211017VMS</v>
+        <v>20211017OME</v>
       </c>
       <c r="L85" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211017VWS</v>
+        <v>20211017OWE</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>20211024</v>
+        <v>20211017</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -3647,33 +3647,33 @@
         <v>1</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I86" s="1"/>
       <c r="K86" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024U1720MF</v>
+        <v>20211017OMS</v>
       </c>
       <c r="L86" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024U1720WF</v>
+        <v>20211017OWS</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>20211024</v>
+        <v>20211017</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -3682,33 +3682,33 @@
         <v>1</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I87" s="1"/>
       <c r="K87" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024OBME</v>
+        <v>20211017VMF</v>
       </c>
       <c r="L87" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024OBWE</v>
+        <v>20211017VWF</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>20211024</v>
+        <v>20211017</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -3717,33 +3717,33 @@
         <v>1</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I88" s="1"/>
       <c r="K88" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024U1720MS</v>
+        <v>20211017OMF</v>
       </c>
       <c r="L88" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024U1720WS</v>
+        <v>20211017OWF</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>20211024</v>
+        <v>20211017</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -3752,33 +3752,33 @@
         <v>1</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I89" s="1"/>
       <c r="K89" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024OBMF</v>
+        <v>20211017VME</v>
       </c>
       <c r="L89" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024OBWF</v>
+        <v>20211017VWE</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>20211024</v>
+        <v>20211017</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -3787,22 +3787,22 @@
         <v>1</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I90" s="1"/>
       <c r="K90" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024U1720ME</v>
+        <v>20211017VMS</v>
       </c>
       <c r="L90" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024U1720WE</v>
+        <v>20211017VWS</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
@@ -3810,10 +3810,10 @@
         <v>20211024</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -3822,10 +3822,10 @@
         <v>1</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>19</v>
@@ -3833,19 +3833,19 @@
       <c r="I91" s="1"/>
       <c r="K91" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024OBMS</v>
+        <v>20211024U1720MF</v>
       </c>
       <c r="L91" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024OBWS</v>
+        <v>20211024U1720WF</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>20211107</v>
+        <v>20211024</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>12</v>
@@ -3857,33 +3857,33 @@
         <v>1</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I92" s="1"/>
       <c r="K92" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U13BE</v>
+        <v>20211024OBME</v>
       </c>
       <c r="L92" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U13GE</v>
+        <v>20211024OBWE</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>20211107</v>
+        <v>20211024</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -3892,30 +3892,30 @@
         <v>1</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I93" s="1"/>
       <c r="K93" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U15MF</v>
+        <v>20211024U1720MS</v>
       </c>
       <c r="L93" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U15WF</v>
+        <v>20211024U1720WS</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>20211107</v>
+        <v>20211024</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>11</v>
@@ -3927,30 +3927,30 @@
         <v>1</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I94" s="1"/>
       <c r="K94" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U11BF</v>
+        <v>20211024OBMF</v>
       </c>
       <c r="L94" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U11GF</v>
+        <v>20211024OBWF</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>20211107</v>
+        <v>20211024</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>12</v>
@@ -3962,33 +3962,33 @@
         <v>1</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I95" s="1"/>
       <c r="K95" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U11BE</v>
+        <v>20211024U1720ME</v>
       </c>
       <c r="L95" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U11GE</v>
+        <v>20211024U1720WE</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>20211107</v>
+        <v>20211024</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -3997,22 +3997,22 @@
         <v>1</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I96" s="1"/>
       <c r="K96" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U13BF</v>
+        <v>20211024OBMS</v>
       </c>
       <c r="L96" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U13GF</v>
+        <v>20211024OBWS</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
@@ -4020,7 +4020,7 @@
         <v>20211107</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>12</v>
@@ -4032,10 +4032,10 @@
         <v>1</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>24</v>
@@ -4043,22 +4043,22 @@
       <c r="I97" s="1"/>
       <c r="K97" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U15ME</v>
+        <v>20211107U13BE</v>
       </c>
       <c r="L97" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U15WE</v>
+        <v>20211107U13GE</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>20211121</v>
+        <v>20211107</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -4073,27 +4073,27 @@
         <v>33</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I98" s="1"/>
       <c r="K98" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121OME</v>
+        <v>20211107U15MF</v>
       </c>
       <c r="L98" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121OWE</v>
+        <v>20211107U15WF</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>20211121</v>
+        <v>20211107</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -4102,33 +4102,33 @@
         <v>1</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I99" s="1"/>
       <c r="K99" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121OMS</v>
+        <v>20211107U11BF</v>
       </c>
       <c r="L99" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121OWS</v>
+        <v>20211107U11GF</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>20211121</v>
+        <v>20211107</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -4137,30 +4137,30 @@
         <v>1</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I100" s="1"/>
       <c r="K100" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121VMF</v>
+        <v>20211107U11BE</v>
       </c>
       <c r="L100" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121VWF</v>
+        <v>20211107U11GE</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>20211121</v>
+        <v>20211107</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>11</v>
@@ -4178,24 +4178,24 @@
         <v>38</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I101" s="1"/>
       <c r="K101" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121OMF</v>
+        <v>20211107U13BF</v>
       </c>
       <c r="L101" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121OWF</v>
+        <v>20211107U13GF</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>20211121</v>
+        <v>20211107</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>12</v>
@@ -4207,22 +4207,22 @@
         <v>1</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I102" s="1"/>
       <c r="K102" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121VME</v>
+        <v>20211107U15ME</v>
       </c>
       <c r="L102" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121VWE</v>
+        <v>20211107U15WE</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
@@ -4230,10 +4230,10 @@
         <v>20211121</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -4242,10 +4242,10 @@
         <v>1</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>19</v>
@@ -4253,34 +4253,34 @@
       <c r="I103" s="1"/>
       <c r="K103" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121VMS</v>
+        <v>20211121OME</v>
       </c>
       <c r="L103" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121VWS</v>
+        <v>20211121OWE</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>20211128</v>
+        <v>20211121</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D104">
         <v>0</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>19</v>
@@ -4288,19 +4288,19 @@
       <c r="I104" s="1"/>
       <c r="K104" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211128U13TE</v>
+        <v>20211121OMS</v>
       </c>
       <c r="L104" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
+        <v>20211121OWS</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>20211128</v>
+        <v>20211121</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>11</v>
@@ -4309,13 +4309,13 @@
         <v>0</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>19</v>
@@ -4323,34 +4323,34 @@
       <c r="I105" s="1"/>
       <c r="K105" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211128U13TF</v>
+        <v>20211121VMF</v>
       </c>
       <c r="L105" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
+        <v>20211121VWF</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>20211128</v>
+        <v>20211121</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D106">
         <v>0</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>19</v>
@@ -4358,34 +4358,34 @@
       <c r="I106" s="1"/>
       <c r="K106" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211128U17TE</v>
+        <v>20211121OMF</v>
       </c>
       <c r="L106" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
+        <v>20211121OWF</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>20211128</v>
+        <v>20211121</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D107">
         <v>0</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>19</v>
@@ -4393,32 +4393,34 @@
       <c r="I107" s="1"/>
       <c r="K107" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211128U17TF</v>
+        <v>20211121VME</v>
       </c>
       <c r="L107" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
+        <v>20211121VWE</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>20211128</v>
+        <v>20211121</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C108" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="D108">
         <v>0</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>19</v>
@@ -4426,9 +4428,182 @@
       <c r="I108" s="1"/>
       <c r="K108" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
+        <v>20211121VMS</v>
+      </c>
+      <c r="L108" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
+        <v>20211121VWS</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>20211128</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I109" s="1"/>
+      <c r="K109" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
+        <v>20211128U13TE</v>
+      </c>
+      <c r="L109" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>20211128</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I110" s="1"/>
+      <c r="K110" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
+        <v>20211128U13TF</v>
+      </c>
+      <c r="L110" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>20211128</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I111" s="1"/>
+      <c r="K111" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
+        <v>20211128U17TE</v>
+      </c>
+      <c r="L111" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>20211128</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I112" s="1"/>
+      <c r="K112" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
+        <v>20211128U17TF</v>
+      </c>
+      <c r="L112" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>20211128</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C113" s="1"/>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I113" s="1"/>
+      <c r="K113" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
         <v>20211128OT</v>
       </c>
-      <c r="L108" t="str">
+      <c r="L113" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
         <v>N/A</v>
       </c>

--- a/2021/2021FSAdates.xlsx
+++ b/2021/2021FSAdates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FSA\Dropbox\Competitions\GitHub\FencingSAResults\2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robert.thomas\Dropbox\Competitions\GitHub\FencingSAResults\2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6CFBAC2-E536-4CA1-9BFB-4678A1014FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08EFAE7A-0360-42D0-82E9-8D2A46B863EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16305" yWindow="-14610" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="47">
   <si>
     <t>Date</t>
   </si>
@@ -297,12 +297,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I108" tableType="xml" totalsRowShown="0" connectionId="2">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I108">
-    <sortCondition ref="A2:A108"/>
-    <sortCondition ref="F2:F108"/>
-    <sortCondition ref="B2:B108"/>
-    <sortCondition ref="C2:C108"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I113" tableType="xml" totalsRowShown="0" connectionId="2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I113">
+    <sortCondition ref="A2:A113"/>
+    <sortCondition ref="F2:F113"/>
+    <sortCondition ref="B2:B113"/>
+    <sortCondition ref="C2:C113"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="Date" name="Date">
@@ -634,28 +634,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L108"/>
+  <dimension ref="A1:L113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.109375" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -690,7 +690,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>20210228</v>
       </c>
@@ -725,7 +725,7 @@
         <v>20210228OWE</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>20210228</v>
       </c>
@@ -760,7 +760,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>20210228</v>
       </c>
@@ -795,7 +795,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>20210228</v>
       </c>
@@ -830,7 +830,7 @@
         <v>20210228OWF</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>20210228</v>
       </c>
@@ -865,7 +865,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>20210228</v>
       </c>
@@ -900,7 +900,7 @@
         <v>20210228VWE</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>20210228</v>
       </c>
@@ -935,7 +935,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>20210314</v>
       </c>
@@ -970,7 +970,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>20210314</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>20210314</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>20210314U15WF</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>20210314</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>20210314</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>20210314U11GF</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>20210314</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>20210314</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>20210314</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>20210314</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>20210314U15WE</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>20210321</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>20210321OWE</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>20210321</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20210321</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>20210321OWS</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20210321</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20210321</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>20210321OWF</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20210321</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>20210321</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>20210502</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>20210502U1720WF</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>20210502</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>20210502OBWE</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>20210502</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>20210502U1720WS</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>20210502</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>20210502OBWF</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>20210502</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>20210502U1720WE</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>20210502</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>20210502OBWS</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>20210516</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>20210516</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>20210516U15WF</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>20210516</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>20210516</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>20210516U11GF</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>20210516</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>20210516</v>
       </c>
@@ -1915,7 +1915,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>20210516</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>20210516U13GF</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>20210516</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>20210523</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>20210523</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>20210523U1720WF</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>20210523</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>20210523</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>20210523OBWE</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>20210523</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>20210523</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>20210523OBWF</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>20210523</v>
       </c>
@@ -2230,7 +2230,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>20210523</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>20210530</v>
       </c>
@@ -2300,7 +2300,7 @@
         <v>20210530OWE</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>20210530</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>20210530</v>
       </c>
@@ -2370,7 +2370,7 @@
         <v>20210530OWS</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>20210530</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>20210530</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>20210530OWF</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>20210530</v>
       </c>
@@ -2475,7 +2475,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>20210530</v>
       </c>
@@ -2510,7 +2510,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>20210627</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>20210627U1720WF</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>20210627</v>
       </c>
@@ -2559,7 +2559,7 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>27</v>
@@ -2573,14 +2573,14 @@
       <c r="I55" s="3"/>
       <c r="K55" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210627OBME</v>
+        <v>20210627OBE</v>
       </c>
       <c r="L55" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210627OBWE</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>20210627</v>
       </c>
@@ -2591,7 +2591,7 @@
         <v>13</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -2608,14 +2608,14 @@
       <c r="I56" s="3"/>
       <c r="K56" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210627U1720MS</v>
+        <v>N/A</v>
       </c>
       <c r="L56" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210627U1720WS</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>20210627</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>20210627OBWF</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>20210627</v>
       </c>
@@ -2661,7 +2661,7 @@
         <v>12</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -2678,14 +2678,14 @@
       <c r="I58" s="3"/>
       <c r="K58" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210627U1720ME</v>
+        <v>N/A</v>
       </c>
       <c r="L58" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210627U1720WE</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>20210627</v>
       </c>
@@ -2696,7 +2696,7 @@
         <v>13</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -2713,14 +2713,14 @@
       <c r="I59" s="3"/>
       <c r="K59" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210627OBMS</v>
+        <v>N/A</v>
       </c>
       <c r="L59" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210627OBWS</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>20210801</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>12</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -2748,14 +2748,14 @@
       <c r="I60" s="1"/>
       <c r="K60" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210801U13BE</v>
+        <v>N/A</v>
       </c>
       <c r="L60" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210801U13GE</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>20210801</v>
       </c>
@@ -2766,7 +2766,7 @@
         <v>11</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -2783,14 +2783,14 @@
       <c r="I61" s="1"/>
       <c r="K61" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210801U15MF</v>
+        <v>N/A</v>
       </c>
       <c r="L61" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210801U15WF</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>20210801</v>
       </c>
@@ -2801,7 +2801,7 @@
         <v>11</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -2818,14 +2818,14 @@
       <c r="I62" s="1"/>
       <c r="K62" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210801U11BF</v>
+        <v>N/A</v>
       </c>
       <c r="L62" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210801U11GF</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>20210801</v>
       </c>
@@ -2833,19 +2833,19 @@
         <v>20</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63">
         <v>1</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>19</v>
@@ -2853,25 +2853,25 @@
       <c r="I63" s="1"/>
       <c r="K63" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210801U11BE</v>
+        <v>N/A</v>
       </c>
       <c r="L63" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210801U11GE</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>20210801</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -2888,34 +2888,34 @@
       <c r="I64" s="1"/>
       <c r="K64" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210801U13BF</v>
+        <v>N/A</v>
       </c>
       <c r="L64" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210801U13GF</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>20210801</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E65">
         <v>1</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>19</v>
@@ -2923,49 +2923,49 @@
       <c r="I65" s="1"/>
       <c r="K65" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210801U15ME</v>
+        <v>N/A</v>
       </c>
       <c r="L65" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210801U15WE</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>20210815</v>
+        <v>20210801</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66">
         <v>1</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I66" s="1"/>
       <c r="K66" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210815OME</v>
+        <v>N/A</v>
       </c>
       <c r="L66" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210815OWE</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>20210815</v>
       </c>
@@ -2973,7 +2973,7 @@
         <v>18</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -2982,33 +2982,33 @@
         <v>1</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I67" s="1"/>
       <c r="K67" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210815OMS</v>
+        <v>20210815OME</v>
       </c>
       <c r="L67" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210815OWS</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20210815OWE</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>20210815</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -3023,24 +3023,24 @@
         <v>37</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I68" s="1"/>
       <c r="K68" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210815VMF</v>
+        <v>20210815OMS</v>
       </c>
       <c r="L68" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210815VWF</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20210815OWS</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>20210815</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>11</v>
@@ -3052,33 +3052,33 @@
         <v>1</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I69" s="1"/>
       <c r="K69" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210815OMF</v>
+        <v>20210815VMF</v>
       </c>
       <c r="L69" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210815OWF</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20210815VWF</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>20210815</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -3093,19 +3093,19 @@
         <v>38</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I70" s="1"/>
       <c r="K70" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210815VME</v>
+        <v>20210815OMF</v>
       </c>
       <c r="L70" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210815VWE</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20210815OWF</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>20210815</v>
       </c>
@@ -3113,7 +3113,7 @@
         <v>9</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -3133,22 +3133,22 @@
       <c r="I71" s="1"/>
       <c r="K71" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210815VMS</v>
+        <v>20210815VME</v>
       </c>
       <c r="L71" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210815VWS</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20210815VWE</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>20210822</v>
+        <v>20210815</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -3157,30 +3157,30 @@
         <v>1</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="I72" s="1"/>
       <c r="K72" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210822U17MF</v>
+        <v>20210815VMS</v>
       </c>
       <c r="L72" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210822U17WF</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20210815VWS</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>20210905</v>
+        <v>20210822</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>11</v>
@@ -3198,27 +3198,27 @@
         <v>33</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="I73" s="1"/>
       <c r="K73" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210905U1720MF</v>
+        <v>20210822U17MF</v>
       </c>
       <c r="L73" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210905U1720WF</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20210822U17WF</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>20210905</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -3227,10 +3227,10 @@
         <v>1</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>24</v>
@@ -3238,22 +3238,22 @@
       <c r="I74" s="1"/>
       <c r="K74" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210905OBME</v>
+        <v>20210905U1720MF</v>
       </c>
       <c r="L74" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210905OBWE</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20210905U1720WF</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>20210905</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -3262,10 +3262,10 @@
         <v>1</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>24</v>
@@ -3273,22 +3273,22 @@
       <c r="I75" s="1"/>
       <c r="K75" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210905U1720MS</v>
+        <v>20210905OBME</v>
       </c>
       <c r="L75" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210905U1720WS</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20210905OBWE</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>20210905</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -3297,10 +3297,10 @@
         <v>1</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>24</v>
@@ -3308,22 +3308,22 @@
       <c r="I76" s="1"/>
       <c r="K76" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210905OBMF</v>
+        <v>20210905U1720MS</v>
       </c>
       <c r="L76" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210905OBWF</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20210905U1720WS</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>20210905</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -3343,22 +3343,22 @@
       <c r="I77" s="1"/>
       <c r="K77" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210905U1720ME</v>
+        <v>20210905OBMF</v>
       </c>
       <c r="L77" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210905U1720WE</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20210905OBWF</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>20210905</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -3367,7 +3367,7 @@
         <v>1</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>36</v>
@@ -3378,63 +3378,63 @@
       <c r="I78" s="1"/>
       <c r="K78" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210905OBMS</v>
+        <v>20210905U1720ME</v>
       </c>
       <c r="L78" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210905OBWS</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20210905U1720WE</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>20210919</v>
+        <v>20210905</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="I79" s="1"/>
       <c r="K79" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210919U17TF</v>
+        <v>20210905OBMS</v>
       </c>
       <c r="L79" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20210905OBWS</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>20211017</v>
+        <v>20210919</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D80">
         <v>0</v>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>26</v>
@@ -3443,59 +3443,59 @@
         <v>33</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="I80" s="1"/>
       <c r="K80" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211017OME</v>
+        <v>20210919U17TF</v>
       </c>
       <c r="L80" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211017OWE</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>20211017</v>
+        <v>20210919</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D81">
         <v>0</v>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="I81" s="1"/>
       <c r="K81" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211017OMS</v>
+        <v>20210919U17F</v>
       </c>
       <c r="L81" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211017OWS</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>20211017</v>
+        <v>20210919</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>11</v>
@@ -3504,68 +3504,68 @@
         <v>0</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="I82" s="1"/>
       <c r="K82" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211017VMF</v>
+        <v>20210919U15F</v>
       </c>
       <c r="L82" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211017VWF</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>20211017</v>
+        <v>20210919</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D83">
         <v>0</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="I83" s="1"/>
       <c r="K83" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211017OMF</v>
+        <v>20210919U17E</v>
       </c>
       <c r="L83" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211017OWF</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>20211017</v>
+        <v>20210919</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>12</v>
@@ -3574,36 +3574,36 @@
         <v>0</v>
       </c>
       <c r="E84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="I84" s="1"/>
       <c r="K84" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211017VME</v>
+        <v>20210919U15E</v>
       </c>
       <c r="L84" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211017VWE</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>20211017</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -3612,10 +3612,10 @@
         <v>1</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>24</v>
@@ -3623,22 +3623,22 @@
       <c r="I85" s="1"/>
       <c r="K85" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211017VMS</v>
+        <v>20211017OME</v>
       </c>
       <c r="L85" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211017VWS</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20211017OWE</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>20211024</v>
+        <v>20211017</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -3647,33 +3647,33 @@
         <v>1</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I86" s="1"/>
       <c r="K86" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024U1720MF</v>
+        <v>20211017OMS</v>
       </c>
       <c r="L86" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024U1720WF</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20211017OWS</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>20211024</v>
+        <v>20211017</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -3682,33 +3682,33 @@
         <v>1</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I87" s="1"/>
       <c r="K87" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024OBME</v>
+        <v>20211017VMF</v>
       </c>
       <c r="L87" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024OBWE</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20211017VWF</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>20211024</v>
+        <v>20211017</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -3717,33 +3717,33 @@
         <v>1</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I88" s="1"/>
       <c r="K88" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024U1720MS</v>
+        <v>20211017OMF</v>
       </c>
       <c r="L88" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024U1720WS</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20211017OWF</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>20211024</v>
+        <v>20211017</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -3752,33 +3752,33 @@
         <v>1</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I89" s="1"/>
       <c r="K89" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024OBMF</v>
+        <v>20211017VME</v>
       </c>
       <c r="L89" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024OBWF</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20211017VWE</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>20211024</v>
+        <v>20211017</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -3787,33 +3787,33 @@
         <v>1</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I90" s="1"/>
       <c r="K90" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024U1720ME</v>
+        <v>20211017VMS</v>
       </c>
       <c r="L90" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024U1720WE</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20211017VWS</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>20211024</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -3822,10 +3822,10 @@
         <v>1</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>19</v>
@@ -3833,19 +3833,19 @@
       <c r="I91" s="1"/>
       <c r="K91" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024OBMS</v>
+        <v>20211024U1720MF</v>
       </c>
       <c r="L91" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024OBWS</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20211024U1720WF</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>20211107</v>
+        <v>20211024</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>12</v>
@@ -3857,33 +3857,33 @@
         <v>1</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I92" s="1"/>
       <c r="K92" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U13BE</v>
+        <v>20211024OBME</v>
       </c>
       <c r="L92" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U13GE</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20211024OBWE</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>20211107</v>
+        <v>20211024</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -3892,30 +3892,30 @@
         <v>1</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I93" s="1"/>
       <c r="K93" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U15MF</v>
+        <v>20211024U1720MS</v>
       </c>
       <c r="L93" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U15WF</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20211024U1720WS</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>20211107</v>
+        <v>20211024</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>11</v>
@@ -3927,30 +3927,30 @@
         <v>1</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I94" s="1"/>
       <c r="K94" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U11BF</v>
+        <v>20211024OBMF</v>
       </c>
       <c r="L94" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U11GF</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20211024OBWF</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>20211107</v>
+        <v>20211024</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>12</v>
@@ -3962,33 +3962,33 @@
         <v>1</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I95" s="1"/>
       <c r="K95" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U11BE</v>
+        <v>20211024U1720ME</v>
       </c>
       <c r="L95" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U11GE</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20211024U1720WE</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>20211107</v>
+        <v>20211024</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -3997,30 +3997,30 @@
         <v>1</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I96" s="1"/>
       <c r="K96" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U13BF</v>
+        <v>20211024OBMS</v>
       </c>
       <c r="L96" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U13GF</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20211024OBWS</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>20211107</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>12</v>
@@ -4032,10 +4032,10 @@
         <v>1</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>24</v>
@@ -4043,22 +4043,22 @@
       <c r="I97" s="1"/>
       <c r="K97" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U15ME</v>
+        <v>20211107U13BE</v>
       </c>
       <c r="L97" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U15WE</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20211107U13GE</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>20211121</v>
+        <v>20211107</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -4073,27 +4073,27 @@
         <v>33</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I98" s="1"/>
       <c r="K98" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121OME</v>
+        <v>20211107U15MF</v>
       </c>
       <c r="L98" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121OWE</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20211107U15WF</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>20211121</v>
+        <v>20211107</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -4102,33 +4102,33 @@
         <v>1</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I99" s="1"/>
       <c r="K99" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121OMS</v>
+        <v>20211107U11BF</v>
       </c>
       <c r="L99" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121OWS</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20211107U11GF</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>20211121</v>
+        <v>20211107</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -4137,30 +4137,30 @@
         <v>1</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I100" s="1"/>
       <c r="K100" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121VMF</v>
+        <v>20211107U11BE</v>
       </c>
       <c r="L100" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121VWF</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20211107U11GE</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>20211121</v>
+        <v>20211107</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>11</v>
@@ -4178,24 +4178,24 @@
         <v>38</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I101" s="1"/>
       <c r="K101" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121OMF</v>
+        <v>20211107U13BF</v>
       </c>
       <c r="L101" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121OWF</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20211107U13GF</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>20211121</v>
+        <v>20211107</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>12</v>
@@ -4207,33 +4207,33 @@
         <v>1</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I102" s="1"/>
       <c r="K102" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121VME</v>
+        <v>20211107U15ME</v>
       </c>
       <c r="L102" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121VWE</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20211107U15WE</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>20211121</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -4242,10 +4242,10 @@
         <v>1</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>19</v>
@@ -4253,34 +4253,34 @@
       <c r="I103" s="1"/>
       <c r="K103" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121VMS</v>
+        <v>20211121OME</v>
       </c>
       <c r="L103" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121VWS</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20211121OWE</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>20211128</v>
+        <v>20211121</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D104">
         <v>0</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>19</v>
@@ -4288,19 +4288,19 @@
       <c r="I104" s="1"/>
       <c r="K104" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211128U13TE</v>
+        <v>20211121OMS</v>
       </c>
       <c r="L104" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20211121OWS</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>20211128</v>
+        <v>20211121</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>11</v>
@@ -4309,13 +4309,13 @@
         <v>0</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>19</v>
@@ -4323,34 +4323,34 @@
       <c r="I105" s="1"/>
       <c r="K105" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211128U13TF</v>
+        <v>20211121VMF</v>
       </c>
       <c r="L105" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20211121VWF</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>20211128</v>
+        <v>20211121</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D106">
         <v>0</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>19</v>
@@ -4358,34 +4358,34 @@
       <c r="I106" s="1"/>
       <c r="K106" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211128U17TE</v>
+        <v>20211121OMF</v>
       </c>
       <c r="L106" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20211121OWF</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>20211128</v>
+        <v>20211121</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D107">
         <v>0</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>19</v>
@@ -4393,32 +4393,34 @@
       <c r="I107" s="1"/>
       <c r="K107" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211128U17TF</v>
+        <v>20211121VME</v>
       </c>
       <c r="L107" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20211121VWE</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>20211128</v>
+        <v>20211121</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C108" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="D108">
         <v>0</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>19</v>
@@ -4426,9 +4428,182 @@
       <c r="I108" s="1"/>
       <c r="K108" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
+        <v>20211121VMS</v>
+      </c>
+      <c r="L108" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
+        <v>20211121VWS</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>20211128</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I109" s="1"/>
+      <c r="K109" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
+        <v>20211128U13TE</v>
+      </c>
+      <c r="L109" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>20211128</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I110" s="1"/>
+      <c r="K110" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
+        <v>20211128U13TF</v>
+      </c>
+      <c r="L110" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>20211128</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I111" s="1"/>
+      <c r="K111" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
+        <v>20211128U17TE</v>
+      </c>
+      <c r="L111" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>20211128</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I112" s="1"/>
+      <c r="K112" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
+        <v>20211128U17TF</v>
+      </c>
+      <c r="L112" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>20211128</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C113" s="1"/>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I113" s="1"/>
+      <c r="K113" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
         <v>20211128OT</v>
       </c>
-      <c r="L108" t="str">
+      <c r="L113" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
         <v>N/A</v>
       </c>

--- a/2021/2021FSAdates.xlsx
+++ b/2021/2021FSAdates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robert.thomas\Dropbox\Competitions\GitHub\FencingSAResults\2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FSA\Dropbox\Competitions\GitHub\FencingSAResults\2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08EFAE7A-0360-42D0-82E9-8D2A46B863EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B35EF92-4C62-4E13-A9B1-0991F7B5D5B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16305" yWindow="-14610" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="47">
   <si>
     <t>Date</t>
   </si>
@@ -297,12 +297,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I113" tableType="xml" totalsRowShown="0" connectionId="2">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I113">
-    <sortCondition ref="A2:A113"/>
-    <sortCondition ref="F2:F113"/>
-    <sortCondition ref="B2:B113"/>
-    <sortCondition ref="C2:C113"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I114" tableType="xml" totalsRowShown="0" connectionId="2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I114">
+    <sortCondition ref="A2:A114"/>
+    <sortCondition ref="F2:F114"/>
+    <sortCondition ref="B2:B114"/>
+    <sortCondition ref="C2:C114"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="Date" name="Date">
@@ -634,28 +634,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L113"/>
+  <dimension ref="A1:L114"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -690,7 +690,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>20210228</v>
       </c>
@@ -725,7 +725,7 @@
         <v>20210228OWE</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>20210228</v>
       </c>
@@ -760,7 +760,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>20210228</v>
       </c>
@@ -795,7 +795,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>20210228</v>
       </c>
@@ -830,7 +830,7 @@
         <v>20210228OWF</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>20210228</v>
       </c>
@@ -865,7 +865,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>20210228</v>
       </c>
@@ -900,7 +900,7 @@
         <v>20210228VWE</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>20210228</v>
       </c>
@@ -935,7 +935,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>20210314</v>
       </c>
@@ -970,7 +970,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20210314</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>20210314</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>20210314U15WF</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>20210314</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>20210314</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>20210314U11GF</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>20210314</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>20210314</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>20210314</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>20210314</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>20210314U15WE</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>20210321</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>20210321OWE</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>20210321</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>20210321</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>20210321OWS</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20210321</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20210321</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>20210321OWF</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>20210321</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>20210321</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>20210502</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>20210502U1720WF</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>20210502</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>20210502OBWE</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>20210502</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>20210502U1720WS</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>20210502</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>20210502OBWF</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>20210502</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>20210502U1720WE</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>20210502</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>20210502OBWS</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>20210516</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>20210516</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>20210516U15WF</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>20210516</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>20210516</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>20210516U11GF</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>20210516</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>20210516</v>
       </c>
@@ -1915,7 +1915,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>20210516</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>20210516U13GF</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>20210516</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>20210523</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>20210523</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>20210523U1720WF</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>20210523</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>20210523</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>20210523OBWE</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>20210523</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>20210523</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>20210523OBWF</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>20210523</v>
       </c>
@@ -2230,7 +2230,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>20210523</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>20210530</v>
       </c>
@@ -2300,7 +2300,7 @@
         <v>20210530OWE</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>20210530</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>20210530</v>
       </c>
@@ -2370,7 +2370,7 @@
         <v>20210530OWS</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>20210530</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>20210530</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>20210530OWF</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>20210530</v>
       </c>
@@ -2475,7 +2475,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>20210530</v>
       </c>
@@ -2510,7 +2510,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>20210627</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>20210627U1720WF</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>20210627</v>
       </c>
@@ -2580,7 +2580,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>20210627</v>
       </c>
@@ -2615,7 +2615,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>20210627</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>20210627OBWF</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>20210627</v>
       </c>
@@ -2685,7 +2685,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>20210627</v>
       </c>
@@ -2720,7 +2720,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>20210801</v>
       </c>
@@ -2755,7 +2755,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>20210801</v>
       </c>
@@ -2790,7 +2790,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>20210801</v>
       </c>
@@ -2825,7 +2825,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>20210801</v>
       </c>
@@ -2860,7 +2860,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>20210801</v>
       </c>
@@ -2895,7 +2895,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>20210801</v>
       </c>
@@ -2930,7 +2930,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>20210801</v>
       </c>
@@ -2965,7 +2965,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>20210815</v>
       </c>
@@ -2979,7 +2979,7 @@
         <v>0</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>26</v>
@@ -2993,14 +2993,14 @@
       <c r="I67" s="1"/>
       <c r="K67" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210815OME</v>
+        <v>20210815OE</v>
       </c>
       <c r="L67" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210815OWE</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>20210815</v>
       </c>
@@ -3011,7 +3011,7 @@
         <v>13</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -3028,14 +3028,14 @@
       <c r="I68" s="1"/>
       <c r="K68" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210815OMS</v>
+        <v>N/A</v>
       </c>
       <c r="L68" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210815OWS</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>20210815</v>
       </c>
@@ -3046,7 +3046,7 @@
         <v>11</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -3063,14 +3063,14 @@
       <c r="I69" s="1"/>
       <c r="K69" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210815VMF</v>
+        <v>N/A</v>
       </c>
       <c r="L69" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210815VWF</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>20210815</v>
       </c>
@@ -3105,7 +3105,7 @@
         <v>20210815OWF</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>20210815</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>0</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>32</v>
@@ -3133,14 +3133,14 @@
       <c r="I71" s="1"/>
       <c r="K71" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210815VME</v>
+        <v>20210815VE</v>
       </c>
       <c r="L71" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210815VWE</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>20210815</v>
       </c>
@@ -3148,7 +3148,7 @@
         <v>9</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -3168,54 +3168,54 @@
       <c r="I72" s="1"/>
       <c r="K72" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210815VMS</v>
+        <v>20210815VME</v>
       </c>
       <c r="L72" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210815VWS</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20210815VWE</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>20210822</v>
+        <v>20210815</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73">
         <v>1</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="I73" s="1"/>
       <c r="K73" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210822U17MF</v>
+        <v>N/A</v>
       </c>
       <c r="L73" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210822U17WF</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>20210905</v>
+        <v>20210822</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>11</v>
@@ -3233,27 +3233,27 @@
         <v>33</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="I74" s="1"/>
       <c r="K74" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210905U1720MF</v>
+        <v>20210822U17MF</v>
       </c>
       <c r="L74" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210905U1720WF</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20210822U17WF</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>20210905</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -3262,10 +3262,10 @@
         <v>1</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>24</v>
@@ -3273,22 +3273,22 @@
       <c r="I75" s="1"/>
       <c r="K75" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210905OBME</v>
+        <v>20210905U1720MF</v>
       </c>
       <c r="L75" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210905OBWE</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20210905U1720WF</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>20210905</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -3297,10 +3297,10 @@
         <v>1</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>24</v>
@@ -3308,22 +3308,22 @@
       <c r="I76" s="1"/>
       <c r="K76" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210905U1720MS</v>
+        <v>20210905OBME</v>
       </c>
       <c r="L76" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210905U1720WS</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20210905OBWE</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>20210905</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -3332,10 +3332,10 @@
         <v>1</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>24</v>
@@ -3343,22 +3343,22 @@
       <c r="I77" s="1"/>
       <c r="K77" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210905OBMF</v>
+        <v>20210905U1720MS</v>
       </c>
       <c r="L77" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210905OBWF</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20210905U1720WS</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>20210905</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -3378,22 +3378,22 @@
       <c r="I78" s="1"/>
       <c r="K78" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210905U1720ME</v>
+        <v>20210905OBMF</v>
       </c>
       <c r="L78" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210905U1720WE</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20210905OBWF</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>20210905</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>36</v>
@@ -3413,54 +3413,54 @@
       <c r="I79" s="1"/>
       <c r="K79" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210905OBMS</v>
+        <v>20210905U1720ME</v>
       </c>
       <c r="L79" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210905OBWS</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20210905U1720WE</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>20210919</v>
+        <v>20210905</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D80">
         <v>0</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="I80" s="1"/>
       <c r="K80" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210919U17TF</v>
+        <v>20210905OBMS</v>
       </c>
       <c r="L80" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20210905OBWS</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>20210919</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>11</v>
@@ -3483,19 +3483,19 @@
       <c r="I81" s="1"/>
       <c r="K81" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210919U17F</v>
+        <v>20210919U17TF</v>
       </c>
       <c r="L81" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
         <v>N/A</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>20210919</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>11</v>
@@ -3518,22 +3518,22 @@
       <c r="I82" s="1"/>
       <c r="K82" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210919U15F</v>
+        <v>20210919U17F</v>
       </c>
       <c r="L82" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
         <v>N/A</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>20210919</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -3553,19 +3553,19 @@
       <c r="I83" s="1"/>
       <c r="K83" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210919U17E</v>
+        <v>20210919U15F</v>
       </c>
       <c r="L83" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
         <v>N/A</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>20210919</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>12</v>
@@ -3588,19 +3588,19 @@
       <c r="I84" s="1"/>
       <c r="K84" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210919U15E</v>
+        <v>20210919U17E</v>
       </c>
       <c r="L84" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
         <v>N/A</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>20211017</v>
+        <v>20210919</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>12</v>
@@ -3609,7 +3609,7 @@
         <v>0</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>26</v>
@@ -3618,19 +3618,19 @@
         <v>33</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="I85" s="1"/>
       <c r="K85" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211017OME</v>
+        <v>20210919U15E</v>
       </c>
       <c r="L85" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211017OWE</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>20211017</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>18</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -3647,10 +3647,10 @@
         <v>1</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>24</v>
@@ -3658,22 +3658,22 @@
       <c r="I86" s="1"/>
       <c r="K86" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211017OMS</v>
+        <v>20211017OME</v>
       </c>
       <c r="L86" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211017OWS</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20211017OWE</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>20211017</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -3693,19 +3693,19 @@
       <c r="I87" s="1"/>
       <c r="K87" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211017VMF</v>
+        <v>20211017OMS</v>
       </c>
       <c r="L87" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211017VWF</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20211017OWS</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>20211017</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>11</v>
@@ -3717,10 +3717,10 @@
         <v>1</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>24</v>
@@ -3728,22 +3728,22 @@
       <c r="I88" s="1"/>
       <c r="K88" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211017OMF</v>
+        <v>20211017VMF</v>
       </c>
       <c r="L88" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211017OWF</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20211017VWF</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>20211017</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -3763,14 +3763,14 @@
       <c r="I89" s="1"/>
       <c r="K89" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211017VME</v>
+        <v>20211017OMF</v>
       </c>
       <c r="L89" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211017VWE</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20211017OWF</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>20211017</v>
       </c>
@@ -3778,7 +3778,7 @@
         <v>9</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -3798,22 +3798,22 @@
       <c r="I90" s="1"/>
       <c r="K90" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211017VMS</v>
+        <v>20211017VME</v>
       </c>
       <c r="L90" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211017VWS</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20211017VWE</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>20211024</v>
+        <v>20211017</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -3822,33 +3822,33 @@
         <v>1</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I91" s="1"/>
       <c r="K91" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024U1720MF</v>
+        <v>20211017VMS</v>
       </c>
       <c r="L91" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024U1720WF</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20211017VWS</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>20211024</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -3857,10 +3857,10 @@
         <v>1</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>19</v>
@@ -3868,22 +3868,22 @@
       <c r="I92" s="1"/>
       <c r="K92" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024OBME</v>
+        <v>20211024U1720MF</v>
       </c>
       <c r="L92" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024OBWE</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20211024U1720WF</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>20211024</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -3892,10 +3892,10 @@
         <v>1</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>19</v>
@@ -3903,22 +3903,22 @@
       <c r="I93" s="1"/>
       <c r="K93" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024U1720MS</v>
+        <v>20211024OBME</v>
       </c>
       <c r="L93" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024U1720WS</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20211024OBWE</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>20211024</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -3927,10 +3927,10 @@
         <v>1</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>19</v>
@@ -3938,22 +3938,22 @@
       <c r="I94" s="1"/>
       <c r="K94" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024OBMF</v>
+        <v>20211024U1720MS</v>
       </c>
       <c r="L94" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024OBWF</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20211024U1720WS</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>20211024</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -3973,22 +3973,22 @@
       <c r="I95" s="1"/>
       <c r="K95" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024U1720ME</v>
+        <v>20211024OBMF</v>
       </c>
       <c r="L95" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024U1720WE</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20211024OBWF</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>20211024</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>1</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>36</v>
@@ -4008,22 +4008,22 @@
       <c r="I96" s="1"/>
       <c r="K96" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024OBMS</v>
+        <v>20211024U1720ME</v>
       </c>
       <c r="L96" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024OBWS</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20211024U1720WE</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>20211107</v>
+        <v>20211024</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -4032,33 +4032,33 @@
         <v>1</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I97" s="1"/>
       <c r="K97" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U13BE</v>
+        <v>20211024OBMS</v>
       </c>
       <c r="L97" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U13GE</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20211024OBWS</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>20211107</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -4078,19 +4078,19 @@
       <c r="I98" s="1"/>
       <c r="K98" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U15MF</v>
+        <v>20211107U13BE</v>
       </c>
       <c r="L98" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U15WF</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20211107U13GE</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>20211107</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>11</v>
@@ -4102,10 +4102,10 @@
         <v>1</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>24</v>
@@ -4113,14 +4113,14 @@
       <c r="I99" s="1"/>
       <c r="K99" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U11BF</v>
+        <v>20211107U15MF</v>
       </c>
       <c r="L99" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U11GF</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20211107U15WF</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>20211107</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>20</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -4137,10 +4137,10 @@
         <v>1</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>24</v>
@@ -4148,22 +4148,22 @@
       <c r="I100" s="1"/>
       <c r="K100" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U11BE</v>
+        <v>20211107U11BF</v>
       </c>
       <c r="L100" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U11GE</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20211107U11GF</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>20211107</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -4183,22 +4183,22 @@
       <c r="I101" s="1"/>
       <c r="K101" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U13BF</v>
+        <v>20211107U11BE</v>
       </c>
       <c r="L101" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U13GF</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20211107U11GE</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>20211107</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -4207,10 +4207,10 @@
         <v>1</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>24</v>
@@ -4218,19 +4218,19 @@
       <c r="I102" s="1"/>
       <c r="K102" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U15ME</v>
+        <v>20211107U13BF</v>
       </c>
       <c r="L102" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U15WE</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20211107U13GF</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>20211121</v>
+        <v>20211107</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>12</v>
@@ -4242,25 +4242,25 @@
         <v>1</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I103" s="1"/>
       <c r="K103" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121OME</v>
+        <v>20211107U15ME</v>
       </c>
       <c r="L103" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121OWE</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20211107U15WE</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>20211121</v>
       </c>
@@ -4268,7 +4268,7 @@
         <v>18</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -4277,10 +4277,10 @@
         <v>1</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>19</v>
@@ -4288,22 +4288,22 @@
       <c r="I104" s="1"/>
       <c r="K104" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121OMS</v>
+        <v>20211121OME</v>
       </c>
       <c r="L104" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121OWS</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20211121OWE</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>20211121</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -4323,19 +4323,19 @@
       <c r="I105" s="1"/>
       <c r="K105" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121VMF</v>
+        <v>20211121OMS</v>
       </c>
       <c r="L105" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121VWF</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20211121OWS</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>20211121</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>11</v>
@@ -4347,10 +4347,10 @@
         <v>1</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>19</v>
@@ -4358,22 +4358,22 @@
       <c r="I106" s="1"/>
       <c r="K106" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121OMF</v>
+        <v>20211121VMF</v>
       </c>
       <c r="L106" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121OWF</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20211121VWF</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>20211121</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -4393,14 +4393,14 @@
       <c r="I107" s="1"/>
       <c r="K107" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121VME</v>
+        <v>20211121OMF</v>
       </c>
       <c r="L107" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121VWE</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20211121OWF</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>20211121</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>9</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -4428,34 +4428,34 @@
       <c r="I108" s="1"/>
       <c r="K108" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121VMS</v>
+        <v>20211121VME</v>
       </c>
       <c r="L108" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121VWS</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20211121VWE</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>20211128</v>
+        <v>20211121</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D109">
         <v>0</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>19</v>
@@ -4463,14 +4463,14 @@
       <c r="I109" s="1"/>
       <c r="K109" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211128U13TE</v>
+        <v>20211121VMS</v>
       </c>
       <c r="L109" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20211121VWS</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>20211128</v>
       </c>
@@ -4478,7 +4478,7 @@
         <v>41</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -4498,22 +4498,22 @@
       <c r="I110" s="1"/>
       <c r="K110" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211128U13TF</v>
+        <v>20211128U13TE</v>
       </c>
       <c r="L110" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
         <v>N/A</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>20211128</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -4522,10 +4522,10 @@
         <v>0</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>19</v>
@@ -4533,14 +4533,14 @@
       <c r="I111" s="1"/>
       <c r="K111" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211128U17TE</v>
+        <v>20211128U13TF</v>
       </c>
       <c r="L111" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
         <v>N/A</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>20211128</v>
       </c>
@@ -4548,7 +4548,7 @@
         <v>40</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -4568,21 +4568,23 @@
       <c r="I112" s="1"/>
       <c r="K112" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211128U17TF</v>
+        <v>20211128U17TE</v>
       </c>
       <c r="L112" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
         <v>N/A</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>20211128</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C113" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="D113">
         <v>0</v>
       </c>
@@ -4590,10 +4592,10 @@
         <v>0</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>19</v>
@@ -4601,9 +4603,42 @@
       <c r="I113" s="1"/>
       <c r="K113" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
+        <v>20211128U17TF</v>
+      </c>
+      <c r="L113" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>20211128</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C114" s="1"/>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I114" s="1"/>
+      <c r="K114" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
         <v>20211128OT</v>
       </c>
-      <c r="L113" t="str">
+      <c r="L114" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
         <v>N/A</v>
       </c>

--- a/2021/2021FSAdates.xlsx
+++ b/2021/2021FSAdates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FSA\Dropbox\Competitions\GitHub\FencingSAResults\2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robert.thomas\Dropbox\Competitions\GitHub\FencingSAResults\2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B35EF92-4C62-4E13-A9B1-0991F7B5D5B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9E5C19-704C-4228-A17B-8F708C9B5465}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15855" yWindow="-14940" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="50">
   <si>
     <t>Date</t>
   </si>
@@ -182,6 +182,15 @@
   </si>
   <si>
     <t>SASchools</t>
+  </si>
+  <si>
+    <t>09:15</t>
+  </si>
+  <si>
+    <t>10:15</t>
+  </si>
+  <si>
+    <t>12:15</t>
   </si>
 </sst>
 </file>
@@ -297,12 +306,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I114" tableType="xml" totalsRowShown="0" connectionId="2">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I114">
-    <sortCondition ref="A2:A114"/>
-    <sortCondition ref="F2:F114"/>
-    <sortCondition ref="B2:B114"/>
-    <sortCondition ref="C2:C114"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I107" tableType="xml" totalsRowShown="0" connectionId="2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I107">
+    <sortCondition ref="A2:A107"/>
+    <sortCondition ref="F2:F107"/>
+    <sortCondition ref="B2:B107"/>
+    <sortCondition ref="C2:C107"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="Date" name="Date">
@@ -634,28 +643,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L114"/>
+  <dimension ref="A1:L107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:XFD30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.109375" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -690,7 +699,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>20210228</v>
       </c>
@@ -725,7 +734,7 @@
         <v>20210228OWE</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>20210228</v>
       </c>
@@ -760,7 +769,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>20210228</v>
       </c>
@@ -795,7 +804,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>20210228</v>
       </c>
@@ -830,7 +839,7 @@
         <v>20210228OWF</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>20210228</v>
       </c>
@@ -865,7 +874,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>20210228</v>
       </c>
@@ -900,7 +909,7 @@
         <v>20210228VWE</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>20210228</v>
       </c>
@@ -935,7 +944,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>20210314</v>
       </c>
@@ -970,7 +979,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>20210314</v>
       </c>
@@ -1005,7 +1014,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>20210314</v>
       </c>
@@ -1040,7 +1049,7 @@
         <v>20210314U15WF</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>20210314</v>
       </c>
@@ -1075,7 +1084,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>20210314</v>
       </c>
@@ -1110,7 +1119,7 @@
         <v>20210314U11GF</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>20210314</v>
       </c>
@@ -1145,7 +1154,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>20210314</v>
       </c>
@@ -1180,7 +1189,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>20210314</v>
       </c>
@@ -1215,7 +1224,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>20210314</v>
       </c>
@@ -1250,7 +1259,7 @@
         <v>20210314U15WE</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>20210321</v>
       </c>
@@ -1285,7 +1294,7 @@
         <v>20210321OWE</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>20210321</v>
       </c>
@@ -1320,7 +1329,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20210321</v>
       </c>
@@ -1355,7 +1364,7 @@
         <v>20210321OWS</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20210321</v>
       </c>
@@ -1390,7 +1399,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20210321</v>
       </c>
@@ -1425,7 +1434,7 @@
         <v>20210321OWF</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20210321</v>
       </c>
@@ -1460,7 +1469,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>20210321</v>
       </c>
@@ -1495,18 +1504,18 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>20210502</v>
+        <v>20210516</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1523,22 +1532,22 @@
       <c r="I25" s="3"/>
       <c r="K25" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210502U1720MF</v>
+        <v>N/A</v>
       </c>
       <c r="L25" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210502U1720WF</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>20210502</v>
+        <v>20210516</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1547,10 +1556,10 @@
         <v>1</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>19</v>
@@ -1558,34 +1567,34 @@
       <c r="I26" s="3"/>
       <c r="K26" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210502OBME</v>
+        <v>20210516U15MF</v>
       </c>
       <c r="L26" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210502OBWE</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20210516U15WF</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>20210502</v>
+        <v>20210516</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>19</v>
@@ -1593,19 +1602,19 @@
       <c r="I27" s="3"/>
       <c r="K27" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210502U1720MS</v>
+        <v>20210516U11F</v>
       </c>
       <c r="L27" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210502U1720WS</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>20210502</v>
+        <v>20210516</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>11</v>
@@ -1617,10 +1626,10 @@
         <v>1</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>19</v>
@@ -1628,34 +1637,34 @@
       <c r="I28" s="3"/>
       <c r="K28" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210502OBMF</v>
+        <v>20210516U11BF</v>
       </c>
       <c r="L28" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210502OBWF</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20210516U11GF</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>20210502</v>
+        <v>20210516</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29">
         <v>1</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>19</v>
@@ -1663,34 +1672,34 @@
       <c r="I29" s="3"/>
       <c r="K29" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210502U1720ME</v>
+        <v>N/A</v>
       </c>
       <c r="L29" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210502U1720WE</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>20210502</v>
+        <v>20210516</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>19</v>
@@ -1698,14 +1707,14 @@
       <c r="I30" s="3"/>
       <c r="K30" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210502OBMS</v>
+        <v>20210516U13F</v>
       </c>
       <c r="L30" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210502OBWS</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>20210516</v>
       </c>
@@ -1713,19 +1722,19 @@
         <v>10</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31">
         <v>1</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>19</v>
@@ -1733,14 +1742,14 @@
       <c r="I31" s="3"/>
       <c r="K31" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>N/A</v>
+        <v>20210516U13BF</v>
       </c>
       <c r="L31" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20210516U13GF</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>20210516</v>
       </c>
@@ -1748,19 +1757,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>19</v>
@@ -1768,19 +1777,19 @@
       <c r="I32" s="3"/>
       <c r="K32" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210516U15MF</v>
+        <v>N/A</v>
       </c>
       <c r="L32" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210516U15WF</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>20210516</v>
+        <v>20210523</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>11</v>
@@ -1792,10 +1801,10 @@
         <v>0</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>19</v>
@@ -1803,19 +1812,19 @@
       <c r="I33" s="3"/>
       <c r="K33" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210516U11F</v>
+        <v>20210523U1720F</v>
       </c>
       <c r="L33" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
         <v>N/A</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>20210516</v>
+        <v>20210523</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>11</v>
@@ -1827,10 +1836,10 @@
         <v>1</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>19</v>
@@ -1838,34 +1847,34 @@
       <c r="I34" s="3"/>
       <c r="K34" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210516U11BF</v>
+        <v>20210523U1720MF</v>
       </c>
       <c r="L34" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210516U11GF</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20210523U1720WF</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>20210516</v>
+        <v>20210523</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>19</v>
@@ -1873,34 +1882,34 @@
       <c r="I35" s="3"/>
       <c r="K35" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>N/A</v>
+        <v>20210523OBE</v>
       </c>
       <c r="L35" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>20210516</v>
+        <v>20210523</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>19</v>
@@ -1908,34 +1917,34 @@
       <c r="I36" s="3"/>
       <c r="K36" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210516U13F</v>
+        <v>20210523OBME</v>
       </c>
       <c r="L36" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20210523OBWE</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>20210516</v>
+        <v>20210523</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37">
         <v>1</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>19</v>
@@ -1943,34 +1952,34 @@
       <c r="I37" s="3"/>
       <c r="K37" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210516U13BF</v>
+        <v>N/A</v>
       </c>
       <c r="L37" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210516U13GF</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>20210516</v>
+        <v>20210523</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38">
         <v>1</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>19</v>
@@ -1978,14 +1987,14 @@
       <c r="I38" s="3"/>
       <c r="K38" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>N/A</v>
+        <v>20210523OBMF</v>
       </c>
       <c r="L38" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20210523OBWF</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>20210523</v>
       </c>
@@ -1993,19 +2002,19 @@
         <v>25</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>19</v>
@@ -2013,34 +2022,34 @@
       <c r="I39" s="3"/>
       <c r="K39" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210523U1720F</v>
+        <v>N/A</v>
       </c>
       <c r="L39" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>20210523</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>19</v>
@@ -2048,19 +2057,19 @@
       <c r="I40" s="3"/>
       <c r="K40" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210523U1720MF</v>
+        <v>20210523OBS</v>
       </c>
       <c r="L40" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210523U1720WF</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>20210523</v>
+        <v>20210530</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>12</v>
@@ -2069,118 +2078,118 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I41" s="3"/>
       <c r="K41" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210523OBE</v>
+        <v>20210530OME</v>
       </c>
       <c r="L41" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20210530OWE</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>20210523</v>
+        <v>20210530</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I42" s="3"/>
       <c r="K42" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210523OBME</v>
+        <v>20210530OS</v>
       </c>
       <c r="L42" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210523OBWE</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>20210523</v>
+        <v>20210530</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43">
         <v>1</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I43" s="3"/>
       <c r="K43" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>N/A</v>
+        <v>20210530OMS</v>
       </c>
       <c r="L43" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20210530OWS</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>20210523</v>
+        <v>20210530</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44">
         <v>1</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>19</v>
@@ -2188,57 +2197,57 @@
       <c r="I44" s="3"/>
       <c r="K44" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210523OBMF</v>
+        <v>N/A</v>
       </c>
       <c r="L44" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210523OBWF</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>20210523</v>
+        <v>20210530</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45">
         <v>1</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I45" s="3"/>
       <c r="K45" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>N/A</v>
+        <v>20210530OMF</v>
       </c>
       <c r="L45" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20210530OWF</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>20210523</v>
+        <v>20210530</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -2247,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>19</v>
@@ -2258,127 +2267,127 @@
       <c r="I46" s="3"/>
       <c r="K46" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210523OBS</v>
+        <v>20210530VE</v>
       </c>
       <c r="L46" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
         <v>N/A</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>20210530</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47">
         <v>1</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I47" s="3"/>
       <c r="K47" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210530OME</v>
+        <v>N/A</v>
       </c>
       <c r="L47" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210530OWE</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>20210530</v>
+        <v>20210627</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I48" s="3"/>
       <c r="K48" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210530OS</v>
+        <v>20210627U1720MF</v>
       </c>
       <c r="L48" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20210627U1720WF</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>20210530</v>
+        <v>20210627</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I49" s="3"/>
       <c r="K49" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210530OMS</v>
+        <v>20210627OBE</v>
       </c>
       <c r="L49" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210530OWS</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>20210530</v>
+        <v>20210627</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -2387,10 +2396,10 @@
         <v>1</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>19</v>
@@ -2405,12 +2414,12 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>20210530</v>
+        <v>20210627</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>11</v>
@@ -2428,39 +2437,39 @@
         <v>38</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I51" s="3"/>
       <c r="K51" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210530OMF</v>
+        <v>20210627OBMF</v>
       </c>
       <c r="L51" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210530OWF</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20210627OBWF</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>20210530</v>
+        <v>20210627</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>19</v>
@@ -2468,19 +2477,19 @@
       <c r="I52" s="3"/>
       <c r="K52" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210530VE</v>
+        <v>N/A</v>
       </c>
       <c r="L52" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>20210530</v>
+        <v>20210627</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>13</v>
@@ -2492,10 +2501,10 @@
         <v>1</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>19</v>
@@ -2510,18 +2519,18 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>20210627</v>
+        <v>20210801</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -2535,127 +2544,127 @@
       <c r="H54" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I54" s="3"/>
+      <c r="I54" s="1"/>
       <c r="K54" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210627U1720MF</v>
+        <v>N/A</v>
       </c>
       <c r="L54" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210627U1720WF</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>20210627</v>
+        <v>20210801</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I55" s="1"/>
+      <c r="K55" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
+        <v>N/A</v>
+      </c>
+      <c r="L55" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>20210801</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="G56" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H55" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I55" s="3"/>
-      <c r="K55" t="str">
-        <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210627OBE</v>
-      </c>
-      <c r="L55" t="str">
-        <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>20210627</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C56" s="1" t="s">
+      <c r="H56" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I56" s="1"/>
+      <c r="K56" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
+        <v>N/A</v>
+      </c>
+      <c r="L56" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>20210801</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-      <c r="E56">
-        <v>1</v>
-      </c>
-      <c r="F56" s="1" t="s">
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="G57" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H56" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I56" s="3"/>
-      <c r="K56" t="str">
-        <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>N/A</v>
-      </c>
-      <c r="L56" t="str">
+      <c r="H57" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I57" s="1"/>
+      <c r="K57" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
+        <v>N/A</v>
+      </c>
+      <c r="L57" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>20210627</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="E57">
-        <v>1</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I57" s="3"/>
-      <c r="K57" t="str">
-        <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210627OBMF</v>
-      </c>
-      <c r="L57" t="str">
-        <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210627OBWF</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>20210627</v>
+        <v>20210801</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>12</v>
@@ -2667,15 +2676,15 @@
         <v>1</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I58" s="3"/>
+      <c r="I58" s="1"/>
       <c r="K58" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
         <v>N/A</v>
@@ -2685,15 +2694,15 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>20210627</v>
+        <v>20210801</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -2702,15 +2711,15 @@
         <v>1</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I59" s="3"/>
+      <c r="I59" s="1"/>
       <c r="K59" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
         <v>N/A</v>
@@ -2720,12 +2729,12 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>20210801</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>12</v>
@@ -2737,10 +2746,10 @@
         <v>1</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>19</v>
@@ -2755,21 +2764,21 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>20210801</v>
+        <v>20210815</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>26</v>
@@ -2778,27 +2787,27 @@
         <v>33</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I61" s="1"/>
       <c r="K61" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>N/A</v>
+        <v>20210815OE</v>
       </c>
       <c r="L61" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>20210801</v>
+        <v>20210815</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -2807,13 +2816,13 @@
         <v>1</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I62" s="1"/>
       <c r="K62" t="str">
@@ -2825,15 +2834,15 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>20210801</v>
+        <v>20210815</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -2842,10 +2851,10 @@
         <v>1</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>19</v>
@@ -2860,18 +2869,18 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>20210801</v>
+        <v>20210815</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -2883,33 +2892,33 @@
         <v>38</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I64" s="1"/>
       <c r="K64" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>N/A</v>
+        <v>20210815OMF</v>
       </c>
       <c r="L64" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20210815OWF</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>20210801</v>
+        <v>20210815</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>32</v>
@@ -2923,34 +2932,34 @@
       <c r="I65" s="1"/>
       <c r="K65" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>N/A</v>
+        <v>20210815VE</v>
       </c>
       <c r="L65" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>20210801</v>
+        <v>20210815</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E66">
         <v>1</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>19</v>
@@ -2958,127 +2967,127 @@
       <c r="I66" s="1"/>
       <c r="K66" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>N/A</v>
+        <v>20210815VME</v>
       </c>
       <c r="L66" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20210815VWE</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>20210815</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I67" s="1"/>
       <c r="K67" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210815OE</v>
+        <v>N/A</v>
       </c>
       <c r="L67" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>20210815</v>
+        <v>20210905</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E68">
         <v>1</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I68" s="1"/>
       <c r="K68" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>N/A</v>
+        <v>20210905U1720MF</v>
       </c>
       <c r="L68" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20210905U1720WF</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>20210815</v>
+        <v>20210905</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E69">
         <v>1</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I69" s="1"/>
       <c r="K69" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>N/A</v>
+        <v>20210905OBME</v>
       </c>
       <c r="L69" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20210905OBWE</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>20210815</v>
+        <v>20210905</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -3087,65 +3096,65 @@
         <v>1</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I70" s="1"/>
       <c r="K70" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210815OMF</v>
+        <v>20210905U1720MS</v>
       </c>
       <c r="L70" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210815OWF</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20210905U1720WS</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>20210815</v>
+        <v>20210905</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D71">
         <v>0</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I71" s="1"/>
       <c r="K71" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210815VE</v>
+        <v>20210905OBMF</v>
       </c>
       <c r="L71" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20210905OBWF</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>20210815</v>
+        <v>20210905</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>12</v>
@@ -3157,65 +3166,65 @@
         <v>1</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I72" s="1"/>
       <c r="K72" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210815VME</v>
+        <v>20210905U1720ME</v>
       </c>
       <c r="L72" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210815VWE</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20210905U1720WE</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>20210815</v>
+        <v>20210905</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E73">
         <v>1</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I73" s="1"/>
       <c r="K73" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>N/A</v>
+        <v>20210905OBMS</v>
       </c>
       <c r="L73" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20210905OBWS</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>20210822</v>
+        <v>20210919</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>11</v>
@@ -3224,13 +3233,13 @@
         <v>0</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>46</v>
@@ -3238,19 +3247,19 @@
       <c r="I74" s="1"/>
       <c r="K74" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210822U17MF</v>
+        <v>20210919U17TF</v>
       </c>
       <c r="L74" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210822U17WF</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>20210905</v>
+        <v>20210919</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>11</v>
@@ -3259,138 +3268,138 @@
         <v>0</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="I75" s="1"/>
       <c r="K75" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210905U1720MF</v>
+        <v>20210919U17F</v>
       </c>
       <c r="L75" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210905U1720WF</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>20210905</v>
+        <v>20210919</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D76">
         <v>0</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="I76" s="1"/>
       <c r="K76" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210905OBME</v>
+        <v>20210919U15F</v>
       </c>
       <c r="L76" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210905OBWE</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>20210905</v>
+        <v>20210919</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D77">
         <v>0</v>
       </c>
       <c r="E77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="I77" s="1"/>
       <c r="K77" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210905U1720MS</v>
+        <v>20210919U17E</v>
       </c>
       <c r="L77" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210905U1720WS</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>20210905</v>
+        <v>20210919</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D78">
         <v>0</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="I78" s="1"/>
       <c r="K78" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210905OBMF</v>
+        <v>20210919U15E</v>
       </c>
       <c r="L78" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210905OBWF</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>20210905</v>
+        <v>20211017</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>12</v>
@@ -3402,10 +3411,10 @@
         <v>1</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>24</v>
@@ -3413,19 +3422,19 @@
       <c r="I79" s="1"/>
       <c r="K79" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210905U1720ME</v>
+        <v>20211017OME</v>
       </c>
       <c r="L79" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210905U1720WE</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20211017OWE</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>20210905</v>
+        <v>20211017</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>13</v>
@@ -3437,10 +3446,10 @@
         <v>1</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>24</v>
@@ -3448,19 +3457,19 @@
       <c r="I80" s="1"/>
       <c r="K80" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210905OBMS</v>
+        <v>20211017OMS</v>
       </c>
       <c r="L80" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210905OBWS</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20211017OWS</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>20210919</v>
+        <v>20211017</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>11</v>
@@ -3469,33 +3478,33 @@
         <v>0</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="I81" s="1"/>
       <c r="K81" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210919U17TF</v>
+        <v>20211017VMF</v>
       </c>
       <c r="L81" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20211017VWF</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>20210919</v>
+        <v>20211017</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>11</v>
@@ -3504,112 +3513,112 @@
         <v>0</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="I82" s="1"/>
       <c r="K82" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210919U17F</v>
+        <v>20211017OMF</v>
       </c>
       <c r="L82" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20211017OWF</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>20210919</v>
+        <v>20211017</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D83">
         <v>0</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="I83" s="1"/>
       <c r="K83" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210919U15F</v>
+        <v>20211017VME</v>
       </c>
       <c r="L83" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20211017VWE</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>20210919</v>
+        <v>20211017</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="I84" s="1"/>
       <c r="K84" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210919U17E</v>
+        <v>20211017VMS</v>
       </c>
       <c r="L84" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20211017VWS</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>20210919</v>
+        <v>20211024</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D85">
         <v>0</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>26</v>
@@ -3618,24 +3627,24 @@
         <v>33</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="I85" s="1"/>
       <c r="K85" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210919U15E</v>
+        <v>20211024U1720MF</v>
       </c>
       <c r="L85" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20211024U1720WF</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>20211017</v>
+        <v>20211024</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>12</v>
@@ -3647,30 +3656,30 @@
         <v>1</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I86" s="1"/>
       <c r="K86" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211017OME</v>
+        <v>20211024OBME</v>
       </c>
       <c r="L86" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211017OWE</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20211024OBWE</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>20211017</v>
+        <v>20211024</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>13</v>
@@ -3682,30 +3691,30 @@
         <v>1</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I87" s="1"/>
       <c r="K87" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211017OMS</v>
+        <v>20211024U1720MS</v>
       </c>
       <c r="L87" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211017OWS</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20211024U1720WS</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>20211017</v>
+        <v>20211024</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>11</v>
@@ -3717,33 +3726,33 @@
         <v>1</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I88" s="1"/>
       <c r="K88" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211017VMF</v>
+        <v>20211024OBMF</v>
       </c>
       <c r="L88" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211017VWF</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20211024OBWF</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>20211017</v>
+        <v>20211024</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -3752,33 +3761,33 @@
         <v>1</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I89" s="1"/>
       <c r="K89" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211017OMF</v>
+        <v>20211024U1720ME</v>
       </c>
       <c r="L89" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211017OWF</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20211024U1720WE</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>20211017</v>
+        <v>20211024</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -3787,33 +3796,33 @@
         <v>1</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I90" s="1"/>
       <c r="K90" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211017VME</v>
+        <v>20211024OBMS</v>
       </c>
       <c r="L90" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211017VWE</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20211024OBWS</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>20211017</v>
+        <v>20211107</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -3822,10 +3831,10 @@
         <v>1</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>24</v>
@@ -3833,19 +3842,19 @@
       <c r="I91" s="1"/>
       <c r="K91" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211017VMS</v>
+        <v>20211107U13BE</v>
       </c>
       <c r="L91" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211017VWS</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20211107U13GE</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>20211024</v>
+        <v>20211107</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>11</v>
@@ -3863,27 +3872,27 @@
         <v>33</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I92" s="1"/>
       <c r="K92" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024U1720MF</v>
+        <v>20211107U15MF</v>
       </c>
       <c r="L92" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024U1720WF</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20211107U15WF</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>20211024</v>
+        <v>20211107</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -3898,27 +3907,27 @@
         <v>34</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I93" s="1"/>
       <c r="K93" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024OBME</v>
+        <v>20211107U11BF</v>
       </c>
       <c r="L93" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024OBWE</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20211107U11GF</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>20211024</v>
+        <v>20211107</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -3927,30 +3936,30 @@
         <v>1</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I94" s="1"/>
       <c r="K94" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024U1720MS</v>
+        <v>20211107U11BE</v>
       </c>
       <c r="L94" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024U1720WS</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20211107U11GE</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>20211024</v>
+        <v>20211107</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>11</v>
@@ -3962,30 +3971,30 @@
         <v>1</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I95" s="1"/>
       <c r="K95" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024OBMF</v>
+        <v>20211107U13BF</v>
       </c>
       <c r="L95" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024OBWF</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20211107U13GF</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>20211024</v>
+        <v>20211107</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>12</v>
@@ -4003,27 +4012,27 @@
         <v>36</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I96" s="1"/>
       <c r="K96" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024U1720ME</v>
+        <v>20211107U15ME</v>
       </c>
       <c r="L96" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024U1720WE</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20211107U15WE</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>20211024</v>
+        <v>20211121</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -4032,10 +4041,10 @@
         <v>1</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>19</v>
@@ -4043,22 +4052,22 @@
       <c r="I97" s="1"/>
       <c r="K97" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024OBMS</v>
+        <v>20211121OME</v>
       </c>
       <c r="L97" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024OBWS</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20211121OWE</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>20211107</v>
+        <v>20211121</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -4067,30 +4076,30 @@
         <v>1</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I98" s="1"/>
       <c r="K98" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U13BE</v>
+        <v>20211121OMS</v>
       </c>
       <c r="L98" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U13GE</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20211121OWS</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>20211107</v>
+        <v>20211121</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>11</v>
@@ -4102,30 +4111,30 @@
         <v>1</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I99" s="1"/>
       <c r="K99" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U15MF</v>
+        <v>20211121VMF</v>
       </c>
       <c r="L99" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U15WF</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20211121VWF</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>20211107</v>
+        <v>20211121</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>11</v>
@@ -4137,30 +4146,30 @@
         <v>1</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I100" s="1"/>
       <c r="K100" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U11BF</v>
+        <v>20211121OMF</v>
       </c>
       <c r="L100" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U11GF</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20211121OWF</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>20211107</v>
+        <v>20211121</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>12</v>
@@ -4178,27 +4187,27 @@
         <v>38</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I101" s="1"/>
       <c r="K101" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U11BE</v>
+        <v>20211121VME</v>
       </c>
       <c r="L101" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U11GE</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20211121VWE</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>20211107</v>
+        <v>20211121</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -4213,24 +4222,24 @@
         <v>38</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I102" s="1"/>
       <c r="K102" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U13BF</v>
+        <v>20211121VMS</v>
       </c>
       <c r="L102" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U13GF</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20211121VWS</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>20211107</v>
+        <v>20211128</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>12</v>
@@ -4239,48 +4248,48 @@
         <v>0</v>
       </c>
       <c r="E103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I103" s="1"/>
       <c r="K103" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U15ME</v>
+        <v>20211128U13TE</v>
       </c>
       <c r="L103" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U15WE</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>20211121</v>
+        <v>20211128</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D104">
         <v>0</v>
       </c>
       <c r="E104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>19</v>
@@ -4288,34 +4297,34 @@
       <c r="I104" s="1"/>
       <c r="K104" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121OME</v>
+        <v>20211128U13TF</v>
       </c>
       <c r="L104" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121OWE</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>20211121</v>
+        <v>20211128</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D105">
         <v>0</v>
       </c>
       <c r="E105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>19</v>
@@ -4323,19 +4332,19 @@
       <c r="I105" s="1"/>
       <c r="K105" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121OMS</v>
+        <v>20211128U17TE</v>
       </c>
       <c r="L105" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121OWS</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>20211121</v>
+        <v>20211128</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>11</v>
@@ -4344,13 +4353,13 @@
         <v>0</v>
       </c>
       <c r="E106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>19</v>
@@ -4358,34 +4367,32 @@
       <c r="I106" s="1"/>
       <c r="K106" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121VMF</v>
+        <v>20211128U17TF</v>
       </c>
       <c r="L106" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121VWF</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>20211121</v>
+        <v>20211128</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C107" s="1"/>
       <c r="D107">
         <v>0</v>
       </c>
       <c r="E107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>19</v>
@@ -4393,252 +4400,9 @@
       <c r="I107" s="1"/>
       <c r="K107" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121OMF</v>
+        <v>20211128OT</v>
       </c>
       <c r="L107" t="str">
-        <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121OWF</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A108">
-        <v>20211121</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D108">
-        <v>0</v>
-      </c>
-      <c r="E108">
-        <v>1</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H108" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I108" s="1"/>
-      <c r="K108" t="str">
-        <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121VME</v>
-      </c>
-      <c r="L108" t="str">
-        <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121VWE</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A109">
-        <v>20211121</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D109">
-        <v>0</v>
-      </c>
-      <c r="E109">
-        <v>1</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H109" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I109" s="1"/>
-      <c r="K109" t="str">
-        <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121VMS</v>
-      </c>
-      <c r="L109" t="str">
-        <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121VWS</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A110">
-        <v>20211128</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D110">
-        <v>0</v>
-      </c>
-      <c r="E110">
-        <v>0</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H110" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I110" s="1"/>
-      <c r="K110" t="str">
-        <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211128U13TE</v>
-      </c>
-      <c r="L110" t="str">
-        <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A111">
-        <v>20211128</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D111">
-        <v>0</v>
-      </c>
-      <c r="E111">
-        <v>0</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H111" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I111" s="1"/>
-      <c r="K111" t="str">
-        <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211128U13TF</v>
-      </c>
-      <c r="L111" t="str">
-        <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A112">
-        <v>20211128</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D112">
-        <v>0</v>
-      </c>
-      <c r="E112">
-        <v>0</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H112" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I112" s="1"/>
-      <c r="K112" t="str">
-        <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211128U17TE</v>
-      </c>
-      <c r="L112" t="str">
-        <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A113">
-        <v>20211128</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D113">
-        <v>0</v>
-      </c>
-      <c r="E113">
-        <v>0</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H113" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I113" s="1"/>
-      <c r="K113" t="str">
-        <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211128U17TF</v>
-      </c>
-      <c r="L113" t="str">
-        <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A114">
-        <v>20211128</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C114" s="1"/>
-      <c r="D114">
-        <v>0</v>
-      </c>
-      <c r="E114">
-        <v>0</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G114" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H114" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I114" s="1"/>
-      <c r="K114" t="str">
-        <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211128OT</v>
-      </c>
-      <c r="L114" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
         <v>N/A</v>
       </c>

--- a/2021/2021FSAdates.xlsx
+++ b/2021/2021FSAdates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robert.thomas\Dropbox\Competitions\GitHub\FencingSAResults\2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9E5C19-704C-4228-A17B-8F708C9B5465}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8EE3542-F93B-4F63-8DCD-7ED7022F5AE1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15855" yWindow="-14940" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14235" yWindow="-15540" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -181,9 +181,6 @@
     <t>U17</t>
   </si>
   <si>
-    <t>SASchools</t>
-  </si>
-  <si>
     <t>09:15</t>
   </si>
   <si>
@@ -191,6 +188,9 @@
   </si>
   <si>
     <t>12:15</t>
+  </si>
+  <si>
+    <t>SA Schools</t>
   </si>
 </sst>
 </file>
@@ -645,9 +645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD30"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3239,10 +3237,10 @@
         <v>43</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I74" s="1"/>
       <c r="K74" t="str">
@@ -3274,10 +3272,10 @@
         <v>44</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I75" s="1"/>
       <c r="K75" t="str">
@@ -3309,10 +3307,10 @@
         <v>44</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I76" s="1"/>
       <c r="K76" t="str">
@@ -3344,10 +3342,10 @@
         <v>42</v>
       </c>
       <c r="G77" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H77" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="I77" s="1"/>
       <c r="K77" t="str">
@@ -3379,10 +3377,10 @@
         <v>42</v>
       </c>
       <c r="G78" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H78" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="I78" s="1"/>
       <c r="K78" t="str">

--- a/2021/2021FSAdates.xlsx
+++ b/2021/2021FSAdates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robert.thomas\Dropbox\Competitions\GitHub\FencingSAResults\2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8EE3542-F93B-4F63-8DCD-7ED7022F5AE1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C656C28-76CC-420D-944F-313E3D5D8B9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14235" yWindow="-15540" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15540" yWindow="-16395" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -645,7 +645,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3009,7 +3011,7 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>20210905</v>
+        <v>20210912</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>25</v>
@@ -3035,16 +3037,16 @@
       <c r="I68" s="1"/>
       <c r="K68" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210905U1720MF</v>
+        <v>20210912U1720MF</v>
       </c>
       <c r="L68" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210905U1720WF</v>
+        <v>20210912U1720WF</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>20210905</v>
+        <v>20210912</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>7</v>
@@ -3070,16 +3072,16 @@
       <c r="I69" s="1"/>
       <c r="K69" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210905OBME</v>
+        <v>20210912OBME</v>
       </c>
       <c r="L69" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210905OBWE</v>
+        <v>20210912OBWE</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>20210905</v>
+        <v>20210912</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>25</v>
@@ -3088,7 +3090,7 @@
         <v>13</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -3105,16 +3107,16 @@
       <c r="I70" s="1"/>
       <c r="K70" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210905U1720MS</v>
+        <v>N/A</v>
       </c>
       <c r="L70" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210905U1720WS</v>
+        <v/>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>20210905</v>
+        <v>20210912</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>7</v>
@@ -3140,16 +3142,16 @@
       <c r="I71" s="1"/>
       <c r="K71" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210905OBMF</v>
+        <v>20210912OBMF</v>
       </c>
       <c r="L71" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210905OBWF</v>
+        <v>20210912OBWF</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>20210905</v>
+        <v>20210912</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>25</v>
@@ -3161,7 +3163,7 @@
         <v>0</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>29</v>
@@ -3175,16 +3177,16 @@
       <c r="I72" s="1"/>
       <c r="K72" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210905U1720ME</v>
+        <v>20210912U1720E</v>
       </c>
       <c r="L72" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210905U1720WE</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>20210905</v>
+        <v>20210912</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>7</v>
@@ -3196,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>30</v>
@@ -3210,11 +3212,11 @@
       <c r="I73" s="1"/>
       <c r="K73" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210905OBMS</v>
+        <v>20210912OBS</v>
       </c>
       <c r="L73" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210905OBWS</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">

--- a/2021/2021FSAdates.xlsx
+++ b/2021/2021FSAdates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robert.thomas\Dropbox\Competitions\GitHub\FencingSAResults\2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C656C28-76CC-420D-944F-313E3D5D8B9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF17F5B-9722-490C-A74D-631E881EE2A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15540" yWindow="-16395" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="885" yWindow="300" windowWidth="26145" windowHeight="14610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -645,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3265,7 +3265,7 @@
         <v>11</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -3282,11 +3282,11 @@
       <c r="I75" s="1"/>
       <c r="K75" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210919U17F</v>
+        <v>N/A</v>
       </c>
       <c r="L75" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
+        <v/>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -3303,7 +3303,7 @@
         <v>0</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>44</v>
@@ -3317,11 +3317,11 @@
       <c r="I76" s="1"/>
       <c r="K76" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210919U15F</v>
+        <v>20210919U15MF</v>
       </c>
       <c r="L76" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
+        <v>20210919U15WF</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">

--- a/2021/2021FSAdates.xlsx
+++ b/2021/2021FSAdates.xlsx
@@ -1,28 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robert.thomas\Dropbox\Competitions\GitHub\FencingSAResults\2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erwin\Dropbox\Competitions\GitHub\FencingSAResults\2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF17F5B-9722-490C-A74D-631E881EE2A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680E8AAE-6AA8-44F1-8C10-8F479CF7B1C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="885" yWindow="300" windowWidth="26145" windowHeight="14610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="720" windowWidth="14370" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -41,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="47">
   <si>
     <t>Date</t>
   </si>
@@ -181,16 +179,7 @@
     <t>U17</t>
   </si>
   <si>
-    <t>09:15</t>
-  </si>
-  <si>
-    <t>10:15</t>
-  </si>
-  <si>
-    <t>12:15</t>
-  </si>
-  <si>
-    <t>SA Schools</t>
+    <t>SASchools</t>
   </si>
 </sst>
 </file>
@@ -306,12 +295,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I107" tableType="xml" totalsRowShown="0" connectionId="2">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I107">
-    <sortCondition ref="A2:A107"/>
-    <sortCondition ref="F2:F107"/>
-    <sortCondition ref="B2:B107"/>
-    <sortCondition ref="C2:C107"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I109" tableType="xml" totalsRowShown="0" connectionId="2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I109">
+    <sortCondition ref="A2:A109"/>
+    <sortCondition ref="F2:F109"/>
+    <sortCondition ref="B2:B109"/>
+    <sortCondition ref="C2:C109"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="Date" name="Date">
@@ -643,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L107"/>
+  <dimension ref="A1:L109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1506,16 +1495,16 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>20210516</v>
+        <v>20210502</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1532,22 +1521,22 @@
       <c r="I25" s="3"/>
       <c r="K25" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>N/A</v>
+        <v>20210502U1720MF</v>
       </c>
       <c r="L25" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v/>
+        <v>20210502U1720WF</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>20210516</v>
+        <v>20210502</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1556,10 +1545,10 @@
         <v>1</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>19</v>
@@ -1567,34 +1556,34 @@
       <c r="I26" s="3"/>
       <c r="K26" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210516U15MF</v>
+        <v>20210502OBME</v>
       </c>
       <c r="L26" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210516U15WF</v>
+        <v>20210502OBWE</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>20210516</v>
+        <v>20210502</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>19</v>
@@ -1602,19 +1591,19 @@
       <c r="I27" s="3"/>
       <c r="K27" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210516U11F</v>
+        <v>20210502U1720MS</v>
       </c>
       <c r="L27" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
+        <v>20210502U1720WS</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>20210516</v>
+        <v>20210502</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>11</v>
@@ -1626,10 +1615,10 @@
         <v>1</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>19</v>
@@ -1637,34 +1626,34 @@
       <c r="I28" s="3"/>
       <c r="K28" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210516U11BF</v>
+        <v>20210502OBMF</v>
       </c>
       <c r="L28" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210516U11GF</v>
+        <v>20210502OBWF</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>20210516</v>
+        <v>20210502</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29">
         <v>1</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>19</v>
@@ -1672,34 +1661,34 @@
       <c r="I29" s="3"/>
       <c r="K29" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>N/A</v>
+        <v>20210502U1720ME</v>
       </c>
       <c r="L29" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v/>
+        <v>20210502U1720WE</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>20210516</v>
+        <v>20210502</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>19</v>
@@ -1707,11 +1696,11 @@
       <c r="I30" s="3"/>
       <c r="K30" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210516U13F</v>
+        <v>20210502OBMS</v>
       </c>
       <c r="L30" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
+        <v>20210502OBWS</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -1722,19 +1711,19 @@
         <v>10</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31">
         <v>1</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>19</v>
@@ -1742,11 +1731,11 @@
       <c r="I31" s="3"/>
       <c r="K31" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210516U13BF</v>
+        <v>N/A</v>
       </c>
       <c r="L31" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210516U13GF</v>
+        <v/>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -1757,19 +1746,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>19</v>
@@ -1777,19 +1766,19 @@
       <c r="I32" s="3"/>
       <c r="K32" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>N/A</v>
+        <v>20210516U15MF</v>
       </c>
       <c r="L32" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v/>
+        <v>20210516U15WF</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>20210523</v>
+        <v>20210516</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>11</v>
@@ -1801,10 +1790,10 @@
         <v>0</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>19</v>
@@ -1812,7 +1801,7 @@
       <c r="I33" s="3"/>
       <c r="K33" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210523U1720F</v>
+        <v>20210516U11F</v>
       </c>
       <c r="L33" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
@@ -1821,10 +1810,10 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>20210523</v>
+        <v>20210516</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>11</v>
@@ -1836,10 +1825,10 @@
         <v>1</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>19</v>
@@ -1847,34 +1836,34 @@
       <c r="I34" s="3"/>
       <c r="K34" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210523U1720MF</v>
+        <v>20210516U11BF</v>
       </c>
       <c r="L34" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210523U1720WF</v>
+        <v>20210516U11GF</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>20210523</v>
+        <v>20210516</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>19</v>
@@ -1882,34 +1871,34 @@
       <c r="I35" s="3"/>
       <c r="K35" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210523OBE</v>
+        <v>N/A</v>
       </c>
       <c r="L35" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
+        <v/>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>20210523</v>
+        <v>20210516</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>19</v>
@@ -1917,34 +1906,34 @@
       <c r="I36" s="3"/>
       <c r="K36" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210523OBME</v>
+        <v>20210516U13F</v>
       </c>
       <c r="L36" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210523OBWE</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>20210523</v>
+        <v>20210516</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37">
         <v>1</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>19</v>
@@ -1952,34 +1941,34 @@
       <c r="I37" s="3"/>
       <c r="K37" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>N/A</v>
+        <v>20210516U13BF</v>
       </c>
       <c r="L37" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v/>
+        <v>20210516U13GF</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>20210523</v>
+        <v>20210516</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38">
         <v>1</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>19</v>
@@ -1987,11 +1976,11 @@
       <c r="I38" s="3"/>
       <c r="K38" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210523OBMF</v>
+        <v>N/A</v>
       </c>
       <c r="L38" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210523OBWF</v>
+        <v/>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -2002,19 +1991,19 @@
         <v>25</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>19</v>
@@ -2022,11 +2011,11 @@
       <c r="I39" s="3"/>
       <c r="K39" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>N/A</v>
+        <v>20210523U1720F</v>
       </c>
       <c r="L39" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v/>
+        <v>N/A</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -2034,22 +2023,22 @@
         <v>20210523</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>19</v>
@@ -2057,19 +2046,19 @@
       <c r="I40" s="3"/>
       <c r="K40" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210523OBS</v>
+        <v>20210523U1720MF</v>
       </c>
       <c r="L40" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
+        <v>20210523U1720WF</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>20210530</v>
+        <v>20210523</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>12</v>
@@ -2078,118 +2067,118 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I41" s="3"/>
       <c r="K41" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210530OME</v>
+        <v>20210523OBE</v>
       </c>
       <c r="L41" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210530OWE</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>20210530</v>
+        <v>20210523</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I42" s="3"/>
       <c r="K42" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210530OS</v>
+        <v>20210523OBME</v>
       </c>
       <c r="L42" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
+        <v>20210523OBWE</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>20210530</v>
+        <v>20210523</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43">
         <v>1</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I43" s="3"/>
       <c r="K43" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210530OMS</v>
+        <v>N/A</v>
       </c>
       <c r="L43" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210530OWS</v>
+        <v/>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>20210530</v>
+        <v>20210523</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44">
         <v>1</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>19</v>
@@ -2197,57 +2186,57 @@
       <c r="I44" s="3"/>
       <c r="K44" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>N/A</v>
+        <v>20210523OBMF</v>
       </c>
       <c r="L44" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v/>
+        <v>20210523OBWF</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>20210530</v>
+        <v>20210523</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45">
         <v>1</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I45" s="3"/>
       <c r="K45" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210530OMF</v>
+        <v>N/A</v>
       </c>
       <c r="L45" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210530OWF</v>
+        <v/>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>20210530</v>
+        <v>20210523</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -2256,10 +2245,10 @@
         <v>0</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>19</v>
@@ -2267,7 +2256,7 @@
       <c r="I46" s="3"/>
       <c r="K46" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210530VE</v>
+        <v>20210523OBS</v>
       </c>
       <c r="L46" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
@@ -2279,115 +2268,115 @@
         <v>20210530</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47">
         <v>1</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I47" s="3"/>
       <c r="K47" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>N/A</v>
+        <v>20210530OME</v>
       </c>
       <c r="L47" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v/>
+        <v>20210530OWE</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>20210627</v>
+        <v>20210530</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I48" s="3"/>
       <c r="K48" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210627U1720MF</v>
+        <v>20210530OS</v>
       </c>
       <c r="L48" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210627U1720WF</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>20210627</v>
+        <v>20210530</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I49" s="3"/>
       <c r="K49" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210627OBE</v>
+        <v>20210530OMS</v>
       </c>
       <c r="L49" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
+        <v>20210530OWS</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>20210627</v>
+        <v>20210530</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -2396,10 +2385,10 @@
         <v>1</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>19</v>
@@ -2416,10 +2405,10 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>20210627</v>
+        <v>20210530</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>11</v>
@@ -2437,39 +2426,39 @@
         <v>38</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I51" s="3"/>
       <c r="K51" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210627OBMF</v>
+        <v>20210530OMF</v>
       </c>
       <c r="L51" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210627OBWF</v>
+        <v>20210530OWF</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>20210627</v>
+        <v>20210530</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>19</v>
@@ -2477,19 +2466,19 @@
       <c r="I52" s="3"/>
       <c r="K52" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>N/A</v>
+        <v>20210530VE</v>
       </c>
       <c r="L52" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v/>
+        <v>N/A</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>20210627</v>
+        <v>20210530</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>13</v>
@@ -2501,10 +2490,10 @@
         <v>1</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>19</v>
@@ -2521,16 +2510,16 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>20210801</v>
+        <v>20210627</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -2544,60 +2533,60 @@
       <c r="H54" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I54" s="1"/>
+      <c r="I54" s="3"/>
       <c r="K54" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>N/A</v>
+        <v>20210627U1720MF</v>
       </c>
       <c r="L54" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v/>
+        <v>20210627U1720WF</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>20210801</v>
+        <v>20210627</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I55" s="1"/>
+      <c r="I55" s="3"/>
       <c r="K55" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>N/A</v>
+        <v>20210627OBE</v>
       </c>
       <c r="L55" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v/>
+        <v>N/A</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>20210801</v>
+        <v>20210627</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -2606,15 +2595,15 @@
         <v>1</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I56" s="1"/>
+      <c r="I56" s="3"/>
       <c r="K56" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
         <v>N/A</v>
@@ -2626,45 +2615,45 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>20210801</v>
+        <v>20210627</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57">
         <v>1</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I57" s="1"/>
+      <c r="I57" s="3"/>
       <c r="K57" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>N/A</v>
+        <v>20210627OBMF</v>
       </c>
       <c r="L57" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v/>
+        <v>20210627OBWF</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>20210801</v>
+        <v>20210627</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>12</v>
@@ -2676,15 +2665,15 @@
         <v>1</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I58" s="1"/>
+      <c r="I58" s="3"/>
       <c r="K58" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
         <v>N/A</v>
@@ -2696,13 +2685,13 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>20210801</v>
+        <v>20210627</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -2711,15 +2700,15 @@
         <v>1</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I59" s="1"/>
+      <c r="I59" s="3"/>
       <c r="K59" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
         <v>N/A</v>
@@ -2734,7 +2723,7 @@
         <v>20210801</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>12</v>
@@ -2746,10 +2735,10 @@
         <v>1</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>19</v>
@@ -2766,19 +2755,19 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>20210815</v>
+        <v>20210801</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>26</v>
@@ -2787,27 +2776,27 @@
         <v>33</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I61" s="1"/>
       <c r="K61" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210815OE</v>
+        <v>N/A</v>
       </c>
       <c r="L61" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
+        <v/>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>20210815</v>
+        <v>20210801</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -2816,13 +2805,13 @@
         <v>1</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I62" s="1"/>
       <c r="K62" t="str">
@@ -2836,13 +2825,13 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>20210815</v>
+        <v>20210801</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -2851,10 +2840,10 @@
         <v>1</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>19</v>
@@ -2871,16 +2860,16 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>20210815</v>
+        <v>20210801</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -2892,39 +2881,39 @@
         <v>38</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I64" s="1"/>
       <c r="K64" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210815OMF</v>
+        <v>N/A</v>
       </c>
       <c r="L64" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210815OWF</v>
+        <v/>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>20210815</v>
+        <v>20210801</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>19</v>
@@ -2932,11 +2921,11 @@
       <c r="I65" s="1"/>
       <c r="K65" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210815VE</v>
+        <v>N/A</v>
       </c>
       <c r="L65" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
+        <v/>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -2944,7 +2933,7 @@
         <v>20210815</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>12</v>
@@ -2953,25 +2942,25 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I66" s="1"/>
       <c r="K66" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210815VME</v>
+        <v>20210815OE</v>
       </c>
       <c r="L66" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210815VWE</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -2979,7 +2968,7 @@
         <v>20210815</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>13</v>
@@ -2991,13 +2980,13 @@
         <v>1</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I67" s="1"/>
       <c r="K67" t="str">
@@ -3011,48 +3000,48 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>20210912</v>
+        <v>20210815</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68">
         <v>1</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I68" s="1"/>
       <c r="K68" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210912U1720MF</v>
+        <v>N/A</v>
       </c>
       <c r="L68" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210912U1720WF</v>
+        <v/>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>20210912</v>
+        <v>20210815</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -3061,127 +3050,127 @@
         <v>1</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I69" s="1"/>
       <c r="K69" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210912OBME</v>
+        <v>20210815OMF</v>
       </c>
       <c r="L69" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210912OBWE</v>
+        <v>20210815OWF</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>20210912</v>
+        <v>20210815</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70">
         <v>1</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I70" s="1"/>
       <c r="K70" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>N/A</v>
+        <v>20210815VME</v>
       </c>
       <c r="L70" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v/>
+        <v>20210815VWE</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>20210912</v>
+        <v>20210815</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71">
         <v>1</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I71" s="1"/>
       <c r="K71" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210912OBMF</v>
+        <v>N/A</v>
       </c>
       <c r="L71" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210912OBWF</v>
+        <v/>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>20210912</v>
+        <v>20210822</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="I72" s="1"/>
       <c r="K72" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210912U1720E</v>
+        <v>20210822U17MF</v>
       </c>
       <c r="L72" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
+        <v>20210822U17WF</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -3189,22 +3178,22 @@
         <v>20210912</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D73">
         <v>0</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>24</v>
@@ -3212,72 +3201,72 @@
       <c r="I73" s="1"/>
       <c r="K73" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210912OBS</v>
+        <v>20210912U1720MF</v>
       </c>
       <c r="L73" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
+        <v>20210912U1720WF</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>20210919</v>
+        <v>20210912</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="I74" s="1"/>
       <c r="K74" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210919U17TF</v>
+        <v>20210912OBME</v>
       </c>
       <c r="L74" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
+        <v>20210912OBWE</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>20210919</v>
+        <v>20210912</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D75">
         <v>1</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="I75" s="1"/>
       <c r="K75" t="str">
@@ -3291,10 +3280,10 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>20210919</v>
+        <v>20210912</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>11</v>
@@ -3306,30 +3295,30 @@
         <v>1</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="I76" s="1"/>
       <c r="K76" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210919U15MF</v>
+        <v>20210912OBMF</v>
       </c>
       <c r="L76" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210919U15WF</v>
+        <v>20210912OBWF</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>20210919</v>
+        <v>20210912</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>12</v>
@@ -3341,18 +3330,18 @@
         <v>0</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="I77" s="1"/>
       <c r="K77" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210919U17E</v>
+        <v>20210912U1720E</v>
       </c>
       <c r="L77" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
@@ -3361,13 +3350,13 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>20210919</v>
+        <v>20210912</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -3376,18 +3365,18 @@
         <v>0</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="I78" s="1"/>
       <c r="K78" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210919U15E</v>
+        <v>20210912OBS</v>
       </c>
       <c r="L78" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
@@ -3396,19 +3385,19 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>20211017</v>
+        <v>20210919</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>26</v>
@@ -3417,16 +3406,16 @@
         <v>33</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="I79" s="1"/>
       <c r="K79" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211017OME</v>
+        <v>20210919U17TF</v>
       </c>
       <c r="L79" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211017OWE</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
@@ -3437,7 +3426,7 @@
         <v>18</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -3446,10 +3435,10 @@
         <v>1</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>24</v>
@@ -3457,11 +3446,11 @@
       <c r="I80" s="1"/>
       <c r="K80" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211017OMS</v>
+        <v>20211017OME</v>
       </c>
       <c r="L80" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211017OWS</v>
+        <v>20211017OWE</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
@@ -3469,16 +3458,16 @@
         <v>20211017</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D81">
         <v>0</v>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>31</v>
@@ -3492,11 +3481,11 @@
       <c r="I81" s="1"/>
       <c r="K81" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211017VMF</v>
+        <v>20211017OS</v>
       </c>
       <c r="L81" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211017VWF</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
@@ -3504,22 +3493,22 @@
         <v>20211017</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82">
         <v>1</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>24</v>
@@ -3527,11 +3516,11 @@
       <c r="I82" s="1"/>
       <c r="K82" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211017OMF</v>
+        <v>N/A</v>
       </c>
       <c r="L82" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211017OWF</v>
+        <v/>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
@@ -3539,10 +3528,10 @@
         <v>20211017</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -3562,11 +3551,11 @@
       <c r="I83" s="1"/>
       <c r="K83" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211017VME</v>
+        <v>20211017OMF</v>
       </c>
       <c r="L83" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211017VWE</v>
+        <v>20211017OWF</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
@@ -3577,7 +3566,7 @@
         <v>9</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -3597,46 +3586,46 @@
       <c r="I84" s="1"/>
       <c r="K84" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211017VMS</v>
+        <v>20211017VME</v>
       </c>
       <c r="L84" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211017VWS</v>
+        <v>20211017VWE</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>20211024</v>
+        <v>20211017</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E85">
         <v>1</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I85" s="1"/>
       <c r="K85" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024U1720MF</v>
+        <v>N/A</v>
       </c>
       <c r="L85" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024U1720WF</v>
+        <v/>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
@@ -3644,10 +3633,10 @@
         <v>20211024</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -3656,10 +3645,10 @@
         <v>1</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>19</v>
@@ -3667,11 +3656,11 @@
       <c r="I86" s="1"/>
       <c r="K86" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024OBME</v>
+        <v>20211024U1720MF</v>
       </c>
       <c r="L86" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024OBWE</v>
+        <v>20211024U1720WF</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
@@ -3679,10 +3668,10 @@
         <v>20211024</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -3691,10 +3680,10 @@
         <v>1</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>19</v>
@@ -3702,11 +3691,11 @@
       <c r="I87" s="1"/>
       <c r="K87" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024U1720MS</v>
+        <v>20211024OBME</v>
       </c>
       <c r="L87" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024U1720WS</v>
+        <v>20211024OBWE</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
@@ -3714,22 +3703,22 @@
         <v>20211024</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E88">
         <v>1</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>19</v>
@@ -3737,11 +3726,11 @@
       <c r="I88" s="1"/>
       <c r="K88" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024OBMF</v>
+        <v>N/A</v>
       </c>
       <c r="L88" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024OBWF</v>
+        <v/>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
@@ -3749,10 +3738,10 @@
         <v>20211024</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -3772,11 +3761,11 @@
       <c r="I89" s="1"/>
       <c r="K89" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024U1720ME</v>
+        <v>20211024OBMF</v>
       </c>
       <c r="L89" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024U1720WE</v>
+        <v>20211024OBWF</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
@@ -3784,19 +3773,19 @@
         <v>20211024</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D90">
         <v>0</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>36</v>
@@ -3807,46 +3796,46 @@
       <c r="I90" s="1"/>
       <c r="K90" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024OBMS</v>
+        <v>20211024U1720E</v>
       </c>
       <c r="L90" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024OBWS</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>20211107</v>
+        <v>20211024</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E91">
         <v>1</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I91" s="1"/>
       <c r="K91" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U13BE</v>
+        <v>N/A</v>
       </c>
       <c r="L91" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U13GE</v>
+        <v/>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
@@ -3854,10 +3843,10 @@
         <v>20211107</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -3877,11 +3866,11 @@
       <c r="I92" s="1"/>
       <c r="K92" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U15MF</v>
+        <v>20211107U13BE</v>
       </c>
       <c r="L92" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U15WF</v>
+        <v>20211107U13GE</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
@@ -3889,7 +3878,7 @@
         <v>20211107</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>11</v>
@@ -3901,10 +3890,10 @@
         <v>1</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>24</v>
@@ -3912,11 +3901,11 @@
       <c r="I93" s="1"/>
       <c r="K93" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U11BF</v>
+        <v>20211107U15MF</v>
       </c>
       <c r="L93" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U11GF</v>
+        <v>20211107U15WF</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
@@ -3927,7 +3916,7 @@
         <v>20</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -3936,10 +3925,10 @@
         <v>1</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>24</v>
@@ -3947,11 +3936,11 @@
       <c r="I94" s="1"/>
       <c r="K94" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U11BE</v>
+        <v>20211107U11BF</v>
       </c>
       <c r="L94" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U11GE</v>
+        <v>20211107U11GF</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
@@ -3959,10 +3948,10 @@
         <v>20211107</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -3971,10 +3960,10 @@
         <v>1</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>24</v>
@@ -3982,11 +3971,11 @@
       <c r="I95" s="1"/>
       <c r="K95" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U13BF</v>
+        <v>20211107U15MS</v>
       </c>
       <c r="L95" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U13GF</v>
+        <v>20211107U15WS</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
@@ -3994,7 +3983,7 @@
         <v>20211107</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>12</v>
@@ -4006,10 +3995,10 @@
         <v>1</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>24</v>
@@ -4017,22 +4006,22 @@
       <c r="I96" s="1"/>
       <c r="K96" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U15ME</v>
+        <v>20211107U11BE</v>
       </c>
       <c r="L96" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U15WE</v>
+        <v>20211107U11GE</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>20211121</v>
+        <v>20211107</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -4041,33 +4030,33 @@
         <v>1</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I97" s="1"/>
       <c r="K97" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121OME</v>
+        <v>20211107U13BF</v>
       </c>
       <c r="L97" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121OWE</v>
+        <v>20211107U13GF</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>20211121</v>
+        <v>20211107</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -4076,22 +4065,22 @@
         <v>1</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I98" s="1"/>
       <c r="K98" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121OMS</v>
+        <v>20211107U15ME</v>
       </c>
       <c r="L98" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121OWS</v>
+        <v>20211107U15WE</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
@@ -4099,10 +4088,10 @@
         <v>20211121</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -4111,10 +4100,10 @@
         <v>1</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>19</v>
@@ -4122,11 +4111,11 @@
       <c r="I99" s="1"/>
       <c r="K99" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121VMF</v>
+        <v>20211121OME</v>
       </c>
       <c r="L99" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121VWF</v>
+        <v>20211121OWE</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
@@ -4137,7 +4126,7 @@
         <v>18</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -4146,10 +4135,10 @@
         <v>1</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>19</v>
@@ -4157,11 +4146,11 @@
       <c r="I100" s="1"/>
       <c r="K100" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121OMF</v>
+        <v>20211121OMS</v>
       </c>
       <c r="L100" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121OWF</v>
+        <v>20211121OWS</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
@@ -4172,7 +4161,7 @@
         <v>9</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -4181,10 +4170,10 @@
         <v>1</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>19</v>
@@ -4192,11 +4181,11 @@
       <c r="I101" s="1"/>
       <c r="K101" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121VME</v>
+        <v>20211121VMF</v>
       </c>
       <c r="L101" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121VWE</v>
+        <v>20211121VWF</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
@@ -4204,10 +4193,10 @@
         <v>20211121</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -4227,19 +4216,19 @@
       <c r="I102" s="1"/>
       <c r="K102" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121VMS</v>
+        <v>20211121OMF</v>
       </c>
       <c r="L102" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121VWS</v>
+        <v>20211121OWF</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>20211128</v>
+        <v>20211121</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>12</v>
@@ -4248,13 +4237,13 @@
         <v>0</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>19</v>
@@ -4262,34 +4251,34 @@
       <c r="I103" s="1"/>
       <c r="K103" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211128U13TE</v>
+        <v>20211121VME</v>
       </c>
       <c r="L103" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
+        <v>20211121VWE</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>20211128</v>
+        <v>20211121</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D104">
         <v>0</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>19</v>
@@ -4297,11 +4286,11 @@
       <c r="I104" s="1"/>
       <c r="K104" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211128U13TF</v>
+        <v>20211121VMS</v>
       </c>
       <c r="L104" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
+        <v>20211121VWS</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
@@ -4309,7 +4298,7 @@
         <v>20211128</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>12</v>
@@ -4321,10 +4310,10 @@
         <v>0</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>19</v>
@@ -4332,7 +4321,7 @@
       <c r="I105" s="1"/>
       <c r="K105" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211128U17TE</v>
+        <v>20211128U13TE</v>
       </c>
       <c r="L105" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
@@ -4344,7 +4333,7 @@
         <v>20211128</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>11</v>
@@ -4356,10 +4345,10 @@
         <v>0</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>19</v>
@@ -4367,7 +4356,7 @@
       <c r="I106" s="1"/>
       <c r="K106" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211128U17TF</v>
+        <v>20211128U13TF</v>
       </c>
       <c r="L106" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
@@ -4379,9 +4368,11 @@
         <v>20211128</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C107" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D107">
         <v>0</v>
       </c>
@@ -4389,10 +4380,10 @@
         <v>0</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>19</v>
@@ -4400,9 +4391,77 @@
       <c r="I107" s="1"/>
       <c r="K107" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
+        <v>20211128U17TE</v>
+      </c>
+      <c r="L107" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>20211128</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I108" s="1"/>
+      <c r="K108" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
+        <v>20211128U17TF</v>
+      </c>
+      <c r="L108" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>20211128</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C109" s="1"/>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I109" s="1"/>
+      <c r="K109" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
         <v>20211128OT</v>
       </c>
-      <c r="L107" t="str">
+      <c r="L109" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
         <v>N/A</v>
       </c>

--- a/2021/2021FSAdates.xlsx
+++ b/2021/2021FSAdates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erwin\Dropbox\Competitions\GitHub\FencingSAResults\2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680E8AAE-6AA8-44F1-8C10-8F479CF7B1C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA5D939-2903-41C5-B57E-16AC776D5901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="720" windowWidth="14370" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2760" yWindow="1275" windowWidth="14370" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="47">
   <si>
     <t>Date</t>
   </si>
@@ -218,11 +218,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -295,12 +298,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I109" tableType="xml" totalsRowShown="0" connectionId="2">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I109">
-    <sortCondition ref="A2:A109"/>
-    <sortCondition ref="F2:F109"/>
-    <sortCondition ref="B2:B109"/>
-    <sortCondition ref="C2:C109"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I110" tableType="xml" totalsRowShown="0" connectionId="2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I110">
+    <sortCondition ref="A2:A110"/>
+    <sortCondition ref="F2:F110"/>
+    <sortCondition ref="B2:B110"/>
+    <sortCondition ref="C2:C110"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="Date" name="Date">
@@ -632,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L109"/>
+  <dimension ref="A1:L110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="D90" sqref="D90"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="J90" sqref="J90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3642,13 +3645,13 @@
         <v>0</v>
       </c>
       <c r="E86">
-        <v>1</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>33</v>
+        <v>0</v>
+      </c>
+      <c r="F86" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G86" s="4">
+        <v>0.40625</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>19</v>
@@ -3656,11 +3659,7 @@
       <c r="I86" s="1"/>
       <c r="K86" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024U1720MF</v>
-      </c>
-      <c r="L86" t="str">
-        <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024U1720WF</v>
+        <v>20211024U1720F</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
@@ -3668,10 +3667,10 @@
         <v>20211024</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -3680,10 +3679,10 @@
         <v>1</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>19</v>
@@ -3691,11 +3690,11 @@
       <c r="I87" s="1"/>
       <c r="K87" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024OBME</v>
+        <v>20211024U1720MF</v>
       </c>
       <c r="L87" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024OBWE</v>
+        <v>20211024U1720WF</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
@@ -3703,22 +3702,22 @@
         <v>20211024</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E88">
         <v>1</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>19</v>
@@ -3726,11 +3725,11 @@
       <c r="I88" s="1"/>
       <c r="K88" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>N/A</v>
+        <v>20211024OBME</v>
       </c>
       <c r="L88" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v/>
+        <v>20211024OBWE</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
@@ -3738,22 +3737,22 @@
         <v>20211024</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E89">
         <v>1</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>19</v>
@@ -3761,11 +3760,11 @@
       <c r="I89" s="1"/>
       <c r="K89" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024OBMF</v>
+        <v>N/A</v>
       </c>
       <c r="L89" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024OBWF</v>
+        <v/>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
@@ -3773,16 +3772,16 @@
         <v>20211024</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D90">
         <v>0</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>29</v>
@@ -3796,11 +3795,11 @@
       <c r="I90" s="1"/>
       <c r="K90" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024U1720E</v>
+        <v>20211024OBMF</v>
       </c>
       <c r="L90" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
+        <v>20211024OBWF</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
@@ -3808,19 +3807,19 @@
         <v>20211024</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>36</v>
@@ -3831,46 +3830,46 @@
       <c r="I91" s="1"/>
       <c r="K91" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>N/A</v>
+        <v>20211024U1720E</v>
       </c>
       <c r="L91" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v/>
+        <v>N/A</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>20211107</v>
+        <v>20211024</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E92">
         <v>1</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I92" s="1"/>
       <c r="K92" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U13BE</v>
+        <v>N/A</v>
       </c>
       <c r="L92" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U13GE</v>
+        <v/>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
@@ -3878,10 +3877,10 @@
         <v>20211107</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -3901,11 +3900,11 @@
       <c r="I93" s="1"/>
       <c r="K93" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U15MF</v>
+        <v>20211107U13BE</v>
       </c>
       <c r="L93" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U15WF</v>
+        <v>20211107U13GE</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
@@ -3913,7 +3912,7 @@
         <v>20211107</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>11</v>
@@ -3925,10 +3924,10 @@
         <v>1</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>24</v>
@@ -3936,11 +3935,11 @@
       <c r="I94" s="1"/>
       <c r="K94" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U11BF</v>
+        <v>20211107U15MF</v>
       </c>
       <c r="L94" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U11GF</v>
+        <v>20211107U15WF</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
@@ -3948,10 +3947,10 @@
         <v>20211107</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -3960,10 +3959,10 @@
         <v>1</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>24</v>
@@ -3971,11 +3970,11 @@
       <c r="I95" s="1"/>
       <c r="K95" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U15MS</v>
+        <v>20211107U11BF</v>
       </c>
       <c r="L95" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U15WS</v>
+        <v>20211107U11GF</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
@@ -3983,10 +3982,10 @@
         <v>20211107</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -3995,10 +3994,10 @@
         <v>1</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>24</v>
@@ -4006,11 +4005,11 @@
       <c r="I96" s="1"/>
       <c r="K96" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U11BE</v>
+        <v>20211107U15MS</v>
       </c>
       <c r="L96" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U11GE</v>
+        <v>20211107U15WS</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
@@ -4018,10 +4017,10 @@
         <v>20211107</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -4041,11 +4040,11 @@
       <c r="I97" s="1"/>
       <c r="K97" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U13BF</v>
+        <v>20211107U11BE</v>
       </c>
       <c r="L97" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U13GF</v>
+        <v>20211107U11GE</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
@@ -4053,10 +4052,10 @@
         <v>20211107</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -4065,10 +4064,10 @@
         <v>1</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>24</v>
@@ -4076,19 +4075,19 @@
       <c r="I98" s="1"/>
       <c r="K98" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U15ME</v>
+        <v>20211107U13BF</v>
       </c>
       <c r="L98" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U15WE</v>
+        <v>20211107U13GF</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>20211121</v>
+        <v>20211107</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>12</v>
@@ -4100,22 +4099,22 @@
         <v>1</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I99" s="1"/>
       <c r="K99" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121OME</v>
+        <v>20211107U15ME</v>
       </c>
       <c r="L99" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121OWE</v>
+        <v>20211107U15WE</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
@@ -4126,7 +4125,7 @@
         <v>18</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -4135,10 +4134,10 @@
         <v>1</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>19</v>
@@ -4146,11 +4145,11 @@
       <c r="I100" s="1"/>
       <c r="K100" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121OMS</v>
+        <v>20211121OME</v>
       </c>
       <c r="L100" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121OWS</v>
+        <v>20211121OWE</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
@@ -4158,10 +4157,10 @@
         <v>20211121</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -4181,11 +4180,11 @@
       <c r="I101" s="1"/>
       <c r="K101" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121VMF</v>
+        <v>20211121OMS</v>
       </c>
       <c r="L101" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121VWF</v>
+        <v>20211121OWS</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
@@ -4193,7 +4192,7 @@
         <v>20211121</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>11</v>
@@ -4205,10 +4204,10 @@
         <v>1</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>19</v>
@@ -4216,11 +4215,11 @@
       <c r="I102" s="1"/>
       <c r="K102" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121OMF</v>
+        <v>20211121VMF</v>
       </c>
       <c r="L102" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121OWF</v>
+        <v>20211121VWF</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
@@ -4228,10 +4227,10 @@
         <v>20211121</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -4251,11 +4250,11 @@
       <c r="I103" s="1"/>
       <c r="K103" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121VME</v>
+        <v>20211121OMF</v>
       </c>
       <c r="L103" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121VWE</v>
+        <v>20211121OWF</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
@@ -4266,7 +4265,7 @@
         <v>9</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -4286,34 +4285,34 @@
       <c r="I104" s="1"/>
       <c r="K104" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121VMS</v>
+        <v>20211121VME</v>
       </c>
       <c r="L104" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121VWS</v>
+        <v>20211121VWE</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>20211128</v>
+        <v>20211121</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D105">
         <v>0</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>19</v>
@@ -4321,11 +4320,11 @@
       <c r="I105" s="1"/>
       <c r="K105" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211128U13TE</v>
+        <v>20211121VMS</v>
       </c>
       <c r="L105" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
+        <v>20211121VWS</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
@@ -4336,7 +4335,7 @@
         <v>41</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -4356,7 +4355,7 @@
       <c r="I106" s="1"/>
       <c r="K106" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211128U13TF</v>
+        <v>20211128U13TE</v>
       </c>
       <c r="L106" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
@@ -4368,10 +4367,10 @@
         <v>20211128</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -4380,10 +4379,10 @@
         <v>0</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>19</v>
@@ -4391,7 +4390,7 @@
       <c r="I107" s="1"/>
       <c r="K107" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211128U17TE</v>
+        <v>20211128U13TF</v>
       </c>
       <c r="L107" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
@@ -4406,7 +4405,7 @@
         <v>40</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -4426,7 +4425,7 @@
       <c r="I108" s="1"/>
       <c r="K108" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211128U17TF</v>
+        <v>20211128U17TE</v>
       </c>
       <c r="L108" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
@@ -4438,9 +4437,11 @@
         <v>20211128</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C109" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="D109">
         <v>0</v>
       </c>
@@ -4448,10 +4449,10 @@
         <v>0</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>19</v>
@@ -4459,9 +4460,42 @@
       <c r="I109" s="1"/>
       <c r="K109" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
+        <v>20211128U17TF</v>
+      </c>
+      <c r="L109" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>20211128</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C110" s="1"/>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I110" s="1"/>
+      <c r="K110" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
         <v>20211128OT</v>
       </c>
-      <c r="L109" t="str">
+      <c r="L110" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
         <v>N/A</v>
       </c>

--- a/2021/2021FSAdates.xlsx
+++ b/2021/2021FSAdates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erwin\Dropbox\Competitions\GitHub\FencingSAResults\2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA5D939-2903-41C5-B57E-16AC776D5901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C797C3B5-131D-4ABD-A277-F84A44E5C163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="1275" windowWidth="14370" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3495" yWindow="825" windowWidth="14370" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="47">
   <si>
     <t>Date</t>
   </si>
@@ -218,14 +218,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -638,7 +635,7 @@
   <dimension ref="A1:L110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="J90" sqref="J90"/>
+      <selection activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3647,11 +3644,11 @@
       <c r="E86">
         <v>0</v>
       </c>
-      <c r="F86" s="2">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="G86" s="4">
-        <v>0.40625</v>
+      <c r="F86" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>19</v>

--- a/2021/2021FSAdates.xlsx
+++ b/2021/2021FSAdates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erwin\Dropbox\Competitions\GitHub\FencingSAResults\2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C797C3B5-131D-4ABD-A277-F84A44E5C163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E2F90AF-0660-41BB-94B5-7F7F6C60006A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3495" yWindow="825" windowWidth="14370" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="555" yWindow="15" windowWidth="14370" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -635,7 +635,7 @@
   <dimension ref="A1:L110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="E86" sqref="E86"/>
+      <selection activeCell="G88" sqref="G88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/2021/2021FSAdates.xlsx
+++ b/2021/2021FSAdates.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erwin\Dropbox\Competitions\GitHub\FencingSAResults\2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erwin\Dropbox\Competitions\GitHub\FencingSAResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E2F90AF-0660-41BB-94B5-7F7F6C60006A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B5722E-B53F-4938-A947-ECF0CDC13C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="555" yWindow="15" windowWidth="14370" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="47">
   <si>
     <t>Date</t>
   </si>
@@ -189,10 +190,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="hh:mm;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -295,12 +302,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I110" tableType="xml" totalsRowShown="0" connectionId="2">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I110">
-    <sortCondition ref="A2:A110"/>
-    <sortCondition ref="F2:F110"/>
-    <sortCondition ref="B2:B110"/>
-    <sortCondition ref="C2:C110"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I112" tableType="xml" totalsRowShown="0" connectionId="2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I112">
+    <sortCondition ref="A2:A112"/>
+    <sortCondition ref="F2:F112"/>
+    <sortCondition ref="B2:B112"/>
+    <sortCondition ref="C2:C112"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="Date" name="Date">
@@ -631,11 +638,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F71EF254-2994-45F9-B8D3-D6D116EEE8F2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L110"/>
+  <dimension ref="A1:L112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="G88" sqref="G88"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="K101" sqref="K101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3953,7 +3972,7 @@
         <v>0</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>27</v>
@@ -3967,11 +3986,11 @@
       <c r="I95" s="1"/>
       <c r="K95" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U11BF</v>
+        <v>20211107U11F</v>
       </c>
       <c r="L95" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U11GF</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
@@ -3979,10 +3998,10 @@
         <v>20211107</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -3991,10 +4010,10 @@
         <v>1</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>24</v>
@@ -4002,11 +4021,11 @@
       <c r="I96" s="1"/>
       <c r="K96" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U15MS</v>
+        <v>20211107U11BF</v>
       </c>
       <c r="L96" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U15WS</v>
+        <v>20211107U11GF</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
@@ -4014,22 +4033,22 @@
         <v>20211107</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D97">
         <v>0</v>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>24</v>
@@ -4037,11 +4056,11 @@
       <c r="I97" s="1"/>
       <c r="K97" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U11BE</v>
+        <v>20211107U15S</v>
       </c>
       <c r="L97" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U11GE</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
@@ -4049,10 +4068,10 @@
         <v>20211107</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -4061,10 +4080,10 @@
         <v>1</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>24</v>
@@ -4072,11 +4091,11 @@
       <c r="I98" s="1"/>
       <c r="K98" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U13BF</v>
+        <v>20211107U15MS</v>
       </c>
       <c r="L98" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U13GF</v>
+        <v>20211107U15WS</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
@@ -4084,7 +4103,7 @@
         <v>20211107</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>12</v>
@@ -4093,13 +4112,13 @@
         <v>0</v>
       </c>
       <c r="E99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>24</v>
@@ -4107,22 +4126,22 @@
       <c r="I99" s="1"/>
       <c r="K99" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U15ME</v>
+        <v>20211107U11E</v>
       </c>
       <c r="L99" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U15WE</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>20211121</v>
+        <v>20211107</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -4131,57 +4150,57 @@
         <v>1</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I100" s="1"/>
       <c r="K100" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121OME</v>
+        <v>20211107U13BF</v>
       </c>
       <c r="L100" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121OWE</v>
+        <v>20211107U13GF</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>20211121</v>
+        <v>20211107</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D101">
         <v>0</v>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I101" s="1"/>
       <c r="K101" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121OMS</v>
+        <v>20211107U15E</v>
       </c>
       <c r="L101" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121OWS</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
@@ -4189,10 +4208,10 @@
         <v>20211121</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -4201,10 +4220,10 @@
         <v>1</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>19</v>
@@ -4212,11 +4231,11 @@
       <c r="I102" s="1"/>
       <c r="K102" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121VMF</v>
+        <v>20211121OME</v>
       </c>
       <c r="L102" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121VWF</v>
+        <v>20211121OWE</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
@@ -4227,7 +4246,7 @@
         <v>18</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -4236,10 +4255,10 @@
         <v>1</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>19</v>
@@ -4247,11 +4266,11 @@
       <c r="I103" s="1"/>
       <c r="K103" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121OMF</v>
+        <v>20211121OMS</v>
       </c>
       <c r="L103" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121OWF</v>
+        <v>20211121OWS</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
@@ -4262,7 +4281,7 @@
         <v>9</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -4271,10 +4290,10 @@
         <v>1</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>19</v>
@@ -4282,11 +4301,11 @@
       <c r="I104" s="1"/>
       <c r="K104" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121VME</v>
+        <v>20211121VMF</v>
       </c>
       <c r="L104" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121VWE</v>
+        <v>20211121VWF</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
@@ -4294,10 +4313,10 @@
         <v>20211121</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -4317,19 +4336,19 @@
       <c r="I105" s="1"/>
       <c r="K105" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121VMS</v>
+        <v>20211121OMF</v>
       </c>
       <c r="L105" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121VWS</v>
+        <v>20211121OWF</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>20211128</v>
+        <v>20211121</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>12</v>
@@ -4338,13 +4357,13 @@
         <v>0</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>19</v>
@@ -4352,34 +4371,34 @@
       <c r="I106" s="1"/>
       <c r="K106" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211128U13TE</v>
+        <v>20211121VME</v>
       </c>
       <c r="L106" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
+        <v>20211121VWE</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>20211128</v>
+        <v>20211121</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D107">
         <v>0</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>19</v>
@@ -4387,11 +4406,11 @@
       <c r="I107" s="1"/>
       <c r="K107" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211128U13TF</v>
+        <v>20211121VMS</v>
       </c>
       <c r="L107" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
+        <v>20211121VWS</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
@@ -4399,7 +4418,7 @@
         <v>20211128</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>12</v>
@@ -4411,10 +4430,10 @@
         <v>0</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>19</v>
@@ -4422,7 +4441,7 @@
       <c r="I108" s="1"/>
       <c r="K108" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211128U17TE</v>
+        <v>20211128U13TE</v>
       </c>
       <c r="L108" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
@@ -4434,7 +4453,7 @@
         <v>20211128</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>11</v>
@@ -4446,10 +4465,10 @@
         <v>0</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>19</v>
@@ -4457,7 +4476,7 @@
       <c r="I109" s="1"/>
       <c r="K109" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211128U17TF</v>
+        <v>20211128U13TF</v>
       </c>
       <c r="L109" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
@@ -4469,9 +4488,11 @@
         <v>20211128</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C110" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D110">
         <v>0</v>
       </c>
@@ -4479,10 +4500,10 @@
         <v>0</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>19</v>
@@ -4490,14 +4511,83 @@
       <c r="I110" s="1"/>
       <c r="K110" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
+        <v>20211128U17TE</v>
+      </c>
+      <c r="L110" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>20211128</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I111" s="1"/>
+      <c r="K111" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
+        <v>20211128U17TF</v>
+      </c>
+      <c r="L111" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>20211128</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C112" s="1"/>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I112" s="1"/>
+      <c r="K112" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
         <v>20211128OT</v>
       </c>
-      <c r="L110" t="str">
+      <c r="L112" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
         <v>N/A</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">

--- a/2021/2021FSAdates.xlsx
+++ b/2021/2021FSAdates.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erwin\Dropbox\Competitions\GitHub\FencingSAResults\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erwin\Dropbox\Competitions\GitHub\FencingSAResults\2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B5722E-B53F-4938-A947-ECF0CDC13C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{00A9E860-E68D-4502-8498-1E9AA7C05E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="945" yWindow="1575" windowWidth="14370" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -653,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="K101" sqref="K101"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="K93" sqref="K93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3902,7 +3902,7 @@
         <v>0</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>26</v>
@@ -3916,11 +3916,11 @@
       <c r="I93" s="1"/>
       <c r="K93" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U13BE</v>
+        <v>20211107U13E</v>
       </c>
       <c r="L93" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U13GE</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">

--- a/2021/2021FSAdates.xlsx
+++ b/2021/2021FSAdates.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erwin\Dropbox\Competitions\GitHub\FencingSAResults\2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erwin\Dropbox\Competitions\GitHub\FencingSAResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00A9E860-E68D-4502-8498-1E9AA7C05E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5081A8BA-7516-41EA-83BB-FE89A80F9793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="945" yWindow="1575" windowWidth="14370" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -654,7 +654,7 @@
   <dimension ref="A1:L112"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="K93" sqref="K93"/>
+      <selection activeCell="E106" sqref="E106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4249,7 +4249,7 @@
         <v>13</v>
       </c>
       <c r="D103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -4266,11 +4266,11 @@
       <c r="I103" s="1"/>
       <c r="K103" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121OMS</v>
+        <v>N/A</v>
       </c>
       <c r="L103" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121OWS</v>
+        <v/>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
@@ -4284,7 +4284,7 @@
         <v>11</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -4301,11 +4301,11 @@
       <c r="I104" s="1"/>
       <c r="K104" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121VMF</v>
+        <v>N/A</v>
       </c>
       <c r="L104" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121VWF</v>
+        <v/>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
@@ -4319,7 +4319,7 @@
         <v>11</v>
       </c>
       <c r="D105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E105">
         <v>1</v>
@@ -4336,11 +4336,11 @@
       <c r="I105" s="1"/>
       <c r="K105" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121OMF</v>
+        <v>N/A</v>
       </c>
       <c r="L105" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121OWF</v>
+        <v/>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
@@ -4389,7 +4389,7 @@
         <v>13</v>
       </c>
       <c r="D107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -4406,11 +4406,11 @@
       <c r="I107" s="1"/>
       <c r="K107" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121VMS</v>
+        <v>N/A</v>
       </c>
       <c r="L107" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121VWS</v>
+        <v/>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">

--- a/2021/2021FSAdates.xlsx
+++ b/2021/2021FSAdates.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erwin\Dropbox\Competitions\GitHub\FencingSAResults\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erwin\Dropbox\Competitions\GitHub\FencingSAResults\2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5081A8BA-7516-41EA-83BB-FE89A80F9793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C51438-B085-4CC5-A7EA-FB7D72434ADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14430" yWindow="1140" windowWidth="14100" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="47">
   <si>
     <t>Date</t>
   </si>
@@ -302,7 +302,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I112" tableType="xml" totalsRowShown="0" connectionId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I113" tableType="xml" totalsRowShown="0" connectionId="2">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I112">
     <sortCondition ref="A2:A112"/>
     <sortCondition ref="F2:F112"/>
@@ -651,10 +651,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L112"/>
+  <dimension ref="A1:L113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="E106" sqref="E106"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="J113" sqref="J113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4424,7 +4424,7 @@
         <v>12</v>
       </c>
       <c r="D108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E108">
         <v>0</v>
@@ -4441,11 +4441,11 @@
       <c r="I108" s="1"/>
       <c r="K108" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211128U13TE</v>
+        <v>N/A</v>
       </c>
       <c r="L108" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
+        <v/>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
@@ -4494,7 +4494,7 @@
         <v>12</v>
       </c>
       <c r="D110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -4511,11 +4511,11 @@
       <c r="I110" s="1"/>
       <c r="K110" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211128U17TE</v>
+        <v>N/A</v>
       </c>
       <c r="L110" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
+        <v/>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
@@ -4560,7 +4560,9 @@
       <c r="B112" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C112" s="1"/>
+      <c r="C112" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D112">
         <v>0</v>
       </c>
@@ -4579,9 +4581,44 @@
       <c r="I112" s="1"/>
       <c r="K112" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211128OT</v>
+        <v>20211128OTE</v>
       </c>
       <c r="L112" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>20211128</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I113" s="1"/>
+      <c r="K113" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
+        <v>20211128OTF</v>
+      </c>
+      <c r="L113" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
         <v>N/A</v>
       </c>
